--- a/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
+++ b/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amele\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1CF93B-9FE2-4A9D-9B9C-72DCE88BA660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F899F6F-7136-47DC-A1D2-F033B3F2DD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C0CD85-1229-4AB4-A667-7C169E5D8340}"/>
   </bookViews>
@@ -908,7 +908,7 @@
     <t>The docks, offices and fishing piers of Fergal's Finest, one of the premier fisheries on the island.</t>
   </si>
   <si>
-    <t>Fountains of the Six Shrines</t>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3004&amp;lat=-2876&amp;zoom=8||Fountain of the Six Shrines</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1359,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>

--- a/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
+++ b/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F899F6F-7136-47DC-A1D2-F033B3F2DD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461F767-46CA-40D8-94E9-97A8BB6AA33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C0CD85-1229-4AB4-A667-7C169E5D8340}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="295">
   <si>
     <t>Monument</t>
   </si>
@@ -44,843 +44,360 @@
     <t>This statue honors the god Astilabor</t>
   </si>
   <si>
-    <t>Trade Plaza</t>
-  </si>
-  <si>
     <t>City Square</t>
   </si>
   <si>
-    <t>Mistress of the Dawn</t>
-  </si>
-  <si>
-    <t>The Peddlers’ Palliate</t>
-  </si>
-  <si>
     <t>Inn</t>
   </si>
   <si>
     <t>Owned by Alain Mudslinger (see Merisyl: Political Powers)</t>
   </si>
   <si>
-    <t>Beacon of Lev Venix</t>
-  </si>
-  <si>
     <t>Lighthouse</t>
   </si>
   <si>
-    <t>Park of the Golden Dawn</t>
-  </si>
-  <si>
     <t>Park</t>
   </si>
   <si>
-    <t>Athear of Justice</t>
-  </si>
-  <si>
     <t>Temple</t>
   </si>
   <si>
     <t>Dedicated to Szalavalar (Map location B.7)</t>
   </si>
   <si>
-    <t>Master of the Dusk</t>
-  </si>
-  <si>
-    <t>Park of the Scarlet Dusk</t>
-  </si>
-  <si>
-    <t>Debberoth Mercantile Foundation</t>
-  </si>
-  <si>
     <t>Merchant House</t>
   </si>
   <si>
-    <t>Eilendere Trade Consortium Tradehouse</t>
-  </si>
-  <si>
     <t>Day clerk is Hollis Keensight (see Merisyl: Political Powers)</t>
   </si>
   <si>
-    <t>Priestess Zeirnia</t>
-  </si>
-  <si>
-    <t>Plaza of the Setting Sun</t>
-  </si>
-  <si>
     <t>14a</t>
   </si>
   <si>
-    <t>Galtiere’s Cheese Factory</t>
-  </si>
-  <si>
     <t>Manufacturing</t>
   </si>
   <si>
     <t>14b</t>
   </si>
   <si>
-    <t>The Cheese Hut</t>
-  </si>
-  <si>
     <t>Shop</t>
   </si>
   <si>
     <t>Specializing in cheeses of all sorts.</t>
   </si>
   <si>
-    <t>Fallen Treasures</t>
-  </si>
-  <si>
     <t>Pawn shop.  Owned and operated by Menk Tornwing (see Merisyl: Political Powers)</t>
   </si>
   <si>
-    <t>Draconic Goods Exchange</t>
-  </si>
-  <si>
-    <t>Wick It</t>
-  </si>
-  <si>
     <t>Candle shop</t>
   </si>
   <si>
-    <t>Press and Play</t>
-  </si>
-  <si>
     <t>Winery/Gambling</t>
   </si>
   <si>
-    <t>The Peak</t>
-  </si>
-  <si>
     <t>Tavern</t>
   </si>
   <si>
     <t>A tavern catering to Ixen</t>
   </si>
   <si>
-    <t>Bread Basket</t>
-  </si>
-  <si>
     <t>Bakery</t>
   </si>
   <si>
-    <t>Residence: Trinja Whiteice</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
     <t>See Merisyl: Political Powers</t>
   </si>
   <si>
-    <t>Moneychanger</t>
-  </si>
-  <si>
     <t>Shop/Home</t>
   </si>
   <si>
     <t>A moneychanger’s office and home.</t>
   </si>
   <si>
-    <t>Medalain Hall</t>
-  </si>
-  <si>
     <t>Contact point for the River of True Blood (see Merisyl: Political Powers)</t>
   </si>
   <si>
     <t>Docks</t>
   </si>
   <si>
-    <t>Residence: Terkvajkiz</t>
-  </si>
-  <si>
     <t>Home (Lavish)</t>
   </si>
   <si>
-    <t>Alendy’s Glade</t>
-  </si>
-  <si>
-    <t>King’s Park</t>
-  </si>
-  <si>
-    <t>Celestial Park</t>
-  </si>
-  <si>
-    <t>Tax Collection Office</t>
-  </si>
-  <si>
     <t>Collects taxes and tribute on behalf of the city council.</t>
   </si>
   <si>
-    <t>Tanns’ Tattoos</t>
-  </si>
-  <si>
     <t>Offers tattooing</t>
   </si>
   <si>
-    <t>Athear of Death</t>
-  </si>
-  <si>
     <t>Dedicated to no specific God or Goddess, but instead the concept that Death waits for all living things, and thus is a powerful force deserving of worship (Map location B.31)</t>
   </si>
   <si>
-    <t>Dawn Rider</t>
-  </si>
-  <si>
     <t>Leatherworker specializing in saddles and riding gear.  Includes exotic items such as harnesses for riding dragons and rocs.</t>
   </si>
   <si>
-    <t>Lady Roush’s Apothecarium</t>
-  </si>
-  <si>
     <t>Sells potions.</t>
   </si>
   <si>
-    <t>Flowers of the Island Trail</t>
-  </si>
-  <si>
-    <t>Scales of Trade</t>
-  </si>
-  <si>
-    <t>Exotic Merchandise Combine</t>
-  </si>
-  <si>
-    <t>Fenland Trade Association</t>
-  </si>
-  <si>
-    <t>Arcanea</t>
-  </si>
-  <si>
-    <t>Magistrates Office</t>
-  </si>
-  <si>
     <t>Guard post</t>
   </si>
   <si>
-    <t>Assassin's Guild</t>
-  </si>
-  <si>
     <t>Guildhouse</t>
   </si>
   <si>
-    <t>Mercenary Guild</t>
-  </si>
-  <si>
-    <t>Sage's Guild</t>
-  </si>
-  <si>
-    <t>Thieves' Guild</t>
-  </si>
-  <si>
-    <t>Craftsman's Guild</t>
-  </si>
-  <si>
-    <t>Holy Fen of Vivlorean</t>
-  </si>
-  <si>
     <t>This is the temple to Vivlorean, the Korthjach Goddess of life, death, rebirth and renewal. </t>
   </si>
   <si>
-    <t>Athear of the Brass</t>
-  </si>
-  <si>
     <t>Dedicated to Haryxmi </t>
   </si>
   <si>
-    <t>Athear of the Forge</t>
-  </si>
-  <si>
     <t>Dedicated to Ator </t>
   </si>
   <si>
-    <t>Athear of the Deep</t>
-  </si>
-  <si>
     <t>Dedicated to  Khirr </t>
   </si>
   <si>
-    <t>Athear of the Bounty</t>
-  </si>
-  <si>
     <t>Dedicated to Premyzic </t>
   </si>
   <si>
-    <t>Athear of Night</t>
-  </si>
-  <si>
     <t>Dedicated to the dark side of human nature, this temple celebrates hedonistic pleasures, vices and forbidden desires.  Always in conflict with the Athear of Justice and frequently in conflict with the Athear of Trade, the financial power of the Athear of Night gives them significant sway in the city. </t>
   </si>
   <si>
-    <t>Athear of Trade</t>
-  </si>
-  <si>
     <t>Dedicated to Caltolav </t>
   </si>
   <si>
-    <t>Athear of the Duality</t>
-  </si>
-  <si>
     <t>Dedicated to Endrell </t>
   </si>
   <si>
-    <t>Athear of the Ninefold</t>
-  </si>
-  <si>
-    <t>Athear of Hate</t>
-  </si>
-  <si>
     <t>Dedicated to Zelagiur </t>
   </si>
   <si>
-    <t>Temple of Humanity</t>
-  </si>
-  <si>
     <t>This is a temple dedicated not to any deity, but to the concept that the strength and ability of non-draconic races is significant and meaningful, and should be appreciated and celebrated.   Its members are known as the Order of Humanity.  </t>
   </si>
   <si>
-    <t>Main sewer outflow</t>
-  </si>
-  <si>
     <t>Sewer Outflow</t>
   </si>
   <si>
-    <t>Tzantor's Broadsheets</t>
-  </si>
-  <si>
     <t>News outlet</t>
   </si>
   <si>
-    <t>Council Exchange</t>
-  </si>
-  <si>
     <t>Government Offices</t>
   </si>
   <si>
     <t>The Council Exchange is the building in which all government activity for the city takes place.</t>
   </si>
   <si>
-    <t>Tavrix Ulcha</t>
-  </si>
-  <si>
     <t>Draconic for “Violet Tower”, this 8 story tower is the home of the mage known as “The Father”.</t>
   </si>
   <si>
-    <t>Mistress Capachic's Home for Children</t>
-  </si>
-  <si>
     <t>Orphanage</t>
   </si>
   <si>
     <t>15 girls, 12 boys, ages from 0 to 16.</t>
   </si>
   <si>
-    <t>Cold Truth</t>
-  </si>
-  <si>
-    <t>Perivale's Outfittery</t>
-  </si>
-  <si>
     <t>Sells weapons and armor.</t>
   </si>
   <si>
-    <t>Meyville's Tannery</t>
-  </si>
-  <si>
     <t>Cures and tans leather for use by tailors, armorers, etc.</t>
   </si>
   <si>
-    <t>Leather Goods</t>
-  </si>
-  <si>
     <t>Sells leather goods.</t>
   </si>
   <si>
-    <t>Cresting Wave</t>
-  </si>
-  <si>
-    <t>The Empty Boot Camp</t>
-  </si>
-  <si>
     <t>Caters primarily to Magistrates.</t>
   </si>
   <si>
-    <t>Children's Delight</t>
-  </si>
-  <si>
     <t>Toymaker</t>
   </si>
   <si>
-    <t>Pandela's Palace of Pets</t>
-  </si>
-  <si>
     <t>Pet shop</t>
   </si>
   <si>
-    <t>Plaza of the Grand Caravan</t>
-  </si>
-  <si>
-    <t>Dawnbreak</t>
-  </si>
-  <si>
-    <t>Coral Crest</t>
-  </si>
-  <si>
     <t>This inn/tavern is one of the most expensive in the Free City, catering to the movers and shakers of the city.</t>
   </si>
   <si>
-    <t>The Tippler's Top</t>
-  </si>
-  <si>
-    <t>Brother Camtor's</t>
-  </si>
-  <si>
     <t>Boarding House</t>
   </si>
   <si>
-    <t>Museum of the Winds of Trade</t>
-  </si>
-  <si>
     <t>Museum</t>
   </si>
   <si>
-    <t>Sensate Emperium</t>
-  </si>
-  <si>
     <t>Brothel</t>
   </si>
   <si>
-    <t>Open Crate</t>
-  </si>
-  <si>
     <t>Adventuring supplies.</t>
   </si>
   <si>
-    <t>Flagon Spirits</t>
-  </si>
-  <si>
-    <t>Unshekvir (“Noble Horse”)</t>
-  </si>
-  <si>
     <t>Unshekvir offers boarding for horses, and rental of horses.</t>
   </si>
   <si>
-    <t>Scriptorium</t>
-  </si>
-  <si>
     <t>Scribing services.</t>
   </si>
   <si>
-    <t>The Black Unicorn</t>
-  </si>
-  <si>
     <t>This inn caters primarily to Dwarven customers.</t>
   </si>
   <si>
-    <t>Bastion of Knowledge</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
-    <t>Paedric's Weaving</t>
-  </si>
-  <si>
     <t>Weaving</t>
   </si>
   <si>
-    <t>The Naked Truth</t>
-  </si>
-  <si>
-    <t>Park of the Crest</t>
-  </si>
-  <si>
-    <t>Butcher</t>
-  </si>
-  <si>
-    <t>Starshine</t>
-  </si>
-  <si>
     <t>Silver smith.</t>
   </si>
   <si>
-    <t>Bright Morning</t>
-  </si>
-  <si>
-    <t>Prismatic Arena</t>
-  </si>
-  <si>
     <t>Arena</t>
   </si>
   <si>
-    <t>The Victory Cup</t>
-  </si>
-  <si>
-    <t>Aodar Mercantile Center for Education</t>
-  </si>
-  <si>
-    <t>Metta the Laundress</t>
-  </si>
-  <si>
     <t>Launderer</t>
   </si>
   <si>
-    <t>Aodar Players</t>
-  </si>
-  <si>
     <t>Playhouse</t>
   </si>
   <si>
-    <t>Jester's</t>
-  </si>
-  <si>
-    <t>Madam Oviovix – Speaker of Dreams</t>
-  </si>
-  <si>
     <t>Fortune teller</t>
   </si>
   <si>
-    <t>Grand Yard</t>
-  </si>
-  <si>
-    <t>Lanthwip's House Broker</t>
-  </si>
-  <si>
     <t>Lanthwip specializes in facilitating the sale and purchase of homes.</t>
   </si>
   <si>
-    <t>Bartur's Wood Carvings</t>
-  </si>
-  <si>
     <t>Wood carvings.</t>
   </si>
   <si>
-    <t>Produce</t>
-  </si>
-  <si>
     <t>Fresh fruits and vegetables.</t>
   </si>
   <si>
-    <t>Towers of Perault</t>
-  </si>
-  <si>
-    <t>Dreblin's Stables</t>
-  </si>
-  <si>
     <t>Stables</t>
   </si>
   <si>
-    <t>Tack-n-Harness</t>
-  </si>
-  <si>
     <t>Saddles, bridles and all other horse related equipment.</t>
   </si>
   <si>
-    <t>Coral Corner</t>
-  </si>
-  <si>
-    <t>Achuak Hoardland Embassy</t>
-  </si>
-  <si>
     <t>Embassy House</t>
   </si>
   <si>
-    <t>Embassy of Aujir Hoardland</t>
-  </si>
-  <si>
-    <t>Embassy of Aurix Reslendancy</t>
-  </si>
-  <si>
-    <t>Embassy of Azure Sands</t>
-  </si>
-  <si>
-    <t>Embassy of Cerulean Crescent</t>
-  </si>
-  <si>
-    <t>Embassy of Dominion of Rach</t>
-  </si>
-  <si>
-    <t>Embassy of the Duchy of Haaven</t>
-  </si>
-  <si>
-    <t>Embassy of Emerald Vale</t>
-  </si>
-  <si>
-    <t>Embassy of Frostfeld</t>
-  </si>
-  <si>
-    <t>Embassy of Obsidian Fenhold</t>
-  </si>
-  <si>
-    <t>Embassy of Ornea</t>
-  </si>
-  <si>
-    <t>Embassy of the Protectorate of the Black Wyrm</t>
-  </si>
-  <si>
-    <t>Embassy of Verthis</t>
-  </si>
-  <si>
-    <t>Embassy of Waterblade</t>
-  </si>
-  <si>
-    <t>Embassy of Charir</t>
-  </si>
-  <si>
     <t>Prison</t>
   </si>
   <si>
-    <t>Slavery</t>
-  </si>
-  <si>
     <t>Specializes in the slave trade.</t>
   </si>
   <si>
-    <t>Yngrabbok's Pottery</t>
-  </si>
-  <si>
     <t>Kiln-fired clay goods.</t>
   </si>
   <si>
-    <t>Cozy of the Night</t>
-  </si>
-  <si>
-    <t>Pyril's</t>
-  </si>
-  <si>
     <t>Woodworking</t>
   </si>
   <si>
-    <t>Cover of Dusk</t>
-  </si>
-  <si>
-    <t>Sandwiches and Meat Pies</t>
-  </si>
-  <si>
     <t>The name says it all...</t>
   </si>
   <si>
-    <t>Gallery of the Gifted</t>
-  </si>
-  <si>
     <t>A collection of booths and display areas for the artists (and those who fancy themselves talented) to display their works for purchase.</t>
   </si>
   <si>
-    <t>Sails and Canvas</t>
-  </si>
-  <si>
     <t>Sales, canvas, and other ship-related goods.</t>
   </si>
   <si>
-    <t>Crenneleth and Sons</t>
-  </si>
-  <si>
     <t>Shipbuilders</t>
   </si>
   <si>
-    <t>Sawmill</t>
-  </si>
-  <si>
     <t>Saw mill</t>
   </si>
   <si>
-    <t>Wagon maker</t>
-  </si>
-  <si>
     <t>Makes wagons, carts, cart wheels and the like.</t>
   </si>
   <si>
-    <t>The Ale Bringer</t>
-  </si>
-  <si>
     <t>A cooper, the proprietor Vandy Precarious, believes that he does the world a great service by providing a means for ale to be brought from one place to another.  To celebrate his contribution he partakes heavily of ale.</t>
   </si>
   <si>
-    <t>Oaken Throne</t>
-  </si>
-  <si>
     <t>Furniture maker</t>
   </si>
   <si>
-    <t>Gnulpund's Smithy</t>
-  </si>
-  <si>
     <t>Blacksmith</t>
   </si>
   <si>
-    <t>Moser's Goldsmithing</t>
-  </si>
-  <si>
     <t>Goldsmith</t>
   </si>
   <si>
-    <t>A Strong Coil</t>
-  </si>
-  <si>
     <t>Ropemaker</t>
   </si>
   <si>
-    <t>Iron Anvil</t>
-  </si>
-  <si>
-    <t>Sure Step</t>
-  </si>
-  <si>
     <t>Farrier</t>
   </si>
   <si>
-    <t>Bezyndar's Exotics</t>
-  </si>
-  <si>
     <t>Pet Shop</t>
   </si>
   <si>
-    <t>Golden Path</t>
-  </si>
-  <si>
     <t>Racetrack</t>
   </si>
   <si>
-    <t>Timrick Mason</t>
-  </si>
-  <si>
     <t>Home of Timrick, a mason.</t>
   </si>
   <si>
-    <t>Bell Tower</t>
-  </si>
-  <si>
     <t>Tower</t>
   </si>
   <si>
     <t>A 12-story belltower.  The city road runs through the first two stories.</t>
   </si>
   <si>
-    <t>Mishka's House</t>
-  </si>
-  <si>
     <t>Home of Mishka, daughter of an academic specializing in the study of the Pacantryx.</t>
   </si>
   <si>
-    <t>Ironguard</t>
-  </si>
-  <si>
     <t>Locksmith</t>
   </si>
   <si>
-    <t>Brinnek Stonewall</t>
-  </si>
-  <si>
     <t>Mason</t>
   </si>
   <si>
-    <t>Vorrus' Bakery</t>
-  </si>
-  <si>
-    <t>Amaphyra's Sculptures</t>
-  </si>
-  <si>
     <t>Studio and shop selling sculptures.</t>
   </si>
   <si>
-    <t>Fired Earth</t>
-  </si>
-  <si>
     <t>Potter</t>
   </si>
   <si>
-    <t>Mug o' Mud</t>
-  </si>
-  <si>
-    <t>True Lye</t>
-  </si>
-  <si>
     <t>Soap maker</t>
   </si>
   <si>
-    <t>Jenlyn's House</t>
-  </si>
-  <si>
     <t>Jenlyn is a Kobold bartender at the Medelain Hall.</t>
   </si>
   <si>
-    <t>Home of Wharven Kelsbedder</t>
-  </si>
-  <si>
     <t>A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence.</t>
   </si>
   <si>
-    <t>The Frisky Toad</t>
-  </si>
-  <si>
-    <t>Bale of Ale</t>
-  </si>
-  <si>
     <t>The shopkeeper, Kailen Tapper, has been known to sell minor poisons.</t>
   </si>
   <si>
-    <t>Dapper Dinlyn's</t>
-  </si>
-  <si>
     <t>Tailor</t>
   </si>
   <si>
-    <t>Petrov Estate</t>
-  </si>
-  <si>
     <t>This is the Estate of the powerful Wielder Alvyx Petrov.</t>
   </si>
   <si>
-    <t>Amber Keg</t>
-  </si>
-  <si>
-    <t>The Lucky River</t>
-  </si>
-  <si>
     <t>Tavern / Gambling Hall</t>
   </si>
   <si>
     <t>Seedy tavern which fronts high-stakes poker games</t>
   </si>
   <si>
-    <t>Empo’s Pet Emporium</t>
-  </si>
-  <si>
     <t>Pet Store</t>
   </si>
   <si>
-    <t>Vem the Verminator</t>
-  </si>
-  <si>
     <t>Wildlife removal services &amp; pest control.</t>
   </si>
   <si>
-    <t>Runeskin</t>
-  </si>
-  <si>
     <t>Tattoo parlor</t>
   </si>
   <si>
-    <t>Evrum’s Bows</t>
-  </si>
-  <si>
     <t>Bowmaker / Fletcher</t>
   </si>
   <si>
-    <t>Forever Friends</t>
-  </si>
-  <si>
     <t>Taxidermy shop run by Cabzel Porlune</t>
   </si>
   <si>
-    <t>Medelain Hall</t>
-  </si>
-  <si>
     <t>Popular hangout of the River of True Blood</t>
   </si>
   <si>
-    <t>Arcavictorious</t>
-  </si>
-  <si>
     <t>This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a Tamgol) and the band of former adventurers he's attracted as regular patrons.</t>
   </si>
   <si>
@@ -902,13 +419,508 @@
     <t>The offices, training grounds and compound of the city magistrates.</t>
   </si>
   <si>
-    <t>Fergal's Finest</t>
-  </si>
-  <si>
     <t>The docks, offices and fishing piers of Fergal's Finest, one of the premier fisheries on the island.</t>
   </si>
   <si>
     <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3004&amp;lat=-2876&amp;zoom=8||Fountain of the Six Shrines</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Peddlers’ Palliate</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Beacon of Lev Venix</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Park of the Golden Dawn</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of Justice</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Master of the Dusk</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Park of the Scarlet Dusk</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Debberoth Mercantile Foundation</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Eilendere Trade Consortium Tradehouse</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Priestess Zeirnia</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Plaza of the Setting Sun</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Galtiere’s Cheese Factory</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Cheese Hut</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Fallen Treasures</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Draconic Goods Exchange</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Wick It</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Press and Play</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Peak</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Bread Basket</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Residence: Trinja Whiteice</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Moneychanger</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Medalain Hall</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Docks</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Residence: Terkvajkiz</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Alendy’s Glade</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||King’s Park</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Celestial Park</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Tax Collection Office</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Tanns’ Tattoos</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of Death</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Dawn Rider</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Lady Roush’s Apothecarium</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Flowers of the Island Trail</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Scales of Trade</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Exotic Merchandise Combine</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Fenland Trade Association</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Arcanea</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Magistrates Office</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Assassin's Guild</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Mercenary Guild</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Sage's Guild</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Thieves' Guild</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Craftsman's Guild</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Holy Fen of Vivlorean</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of the Brass</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of the Forge</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of the Deep</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of the Bounty</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of Night</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of Trade</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of the Duality</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of the Ninefold</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Athear of Hate</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Temple of Humanity</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Main sewer outflow</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Tzantor's Broadsheets</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Council Exchange</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Tavrix Ulcha</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Mistress Capachic's Home for Children</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Cold Truth</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Perivale's Outfittery</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Meyville's Tannery</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Leather Goods</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Cresting Wave</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Empty Boot Camp</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Children's Delight</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Pandela's Palace of Pets</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Plaza of the Grand Caravan</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Dawnbreak</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Coral Crest</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Tippler's Top</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Brother Camtor's</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Museum of the Winds of Trade</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Sensate Emperium</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Open Crate</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Flagon Spirits</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Unshekvir (“Noble Horse”)</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Scriptorium</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Black Unicorn</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Bastion of Knowledge</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Paedric's Weaving</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Naked Truth</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Park of the Crest</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Butcher</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Starshine</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Bright Morning</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Prismatic Arena</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Victory Cup</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Fergal's Finest</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Aodar Mercantile Center for Education</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Metta the Laundress</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Aodar Players</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Jester's</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Madam Oviovix – Speaker of Dreams</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Grand Yard</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Lanthwip's House Broker</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Bartur's Wood Carvings</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Produce</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Towers of Perault</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Dreblin's Stables</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Tack-n-Harness</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Coral Corner</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Achuak Hoardland Embassy</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Aujir Hoardland</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Aurix Reslendancy</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Azure Sands</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Cerulean Crescent</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Dominion of Rach</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of the Duchy of Haaven</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Emerald Vale</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Frostfeld</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Obsidian Fenhold</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Ornea</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of the Protectorate of the Black Wyrm</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Verthis</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Waterblade</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Embassy of Charir</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Prison</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Slavery</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Yngrabbok's Pottery</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Cozy of the Night</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Pyril's</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Cover of Dusk</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Sandwiches and Meat Pies</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Gallery of the Gifted</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Sails and Canvas</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Crenneleth and Sons</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Sawmill</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Wagon maker</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Ale Bringer</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Oaken Throne</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Gnulpund's Smithy</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Moser's Goldsmithing</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||A Strong Coil</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Iron Anvil</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Sure Step</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Bezyndar's Exotics</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Golden Path</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Timrick Mason</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Bell Tower</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Mishka's House</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Ironguard</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Brinnek Stonewall</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Vorrus' Bakery</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Amaphyra's Sculptures</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Fired Earth</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Mug o' Mud</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||True Lye</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Jenlyn's House</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Home of Wharven Kelsbedder</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Frisky Toad</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Bale of Ale</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Dapper Dinlyn's</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Petrov Estate</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Amber Keg</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Lucky River</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Empo’s Pet Emporium</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Vem the Verminator</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Runeskin</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Evrum’s Bows</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Forever Friends</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Medelain Hall</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||Arcavictorious</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5004&amp;lat=-6892&amp;zoom=8||Trade Plaza</t>
+  </si>
+  <si>
+    <t>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=0&amp;lat=0&amp;zoom=8||The Little Market</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>A collection of small booths and display areas available for rent by the day, week or month for asporint tradespersons or crafters to display their wares.</t>
   </si>
 </sst>
 </file>
@@ -1333,38 +1345,37 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="132" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="145.5703125" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="142.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>290</v>
+      <c r="B2" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1377,38 +1388,40 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1416,10 +1429,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1428,10 +1441,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1440,13 +1453,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1454,7 +1467,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1466,10 +1479,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1478,25 +1491,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1504,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -1516,37 +1529,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1554,13 +1567,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1568,10 +1581,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -1580,10 +1593,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1592,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -1604,13 +1617,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1618,13 +1631,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1632,13 +1645,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1646,13 +1659,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1660,13 +1673,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1674,10 +1687,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1686,10 +1699,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1698,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1710,10 +1723,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1722,10 +1735,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1734,13 +1747,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1748,13 +1761,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1762,13 +1775,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1776,13 +1789,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1790,13 +1803,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1804,10 +1817,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1816,10 +1829,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1828,10 +1841,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1840,10 +1853,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1852,10 +1865,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1864,13 +1877,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1878,10 +1891,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1890,10 +1903,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1902,10 +1915,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1914,10 +1927,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1926,10 +1939,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1938,13 +1951,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1952,13 +1965,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1966,13 +1979,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1980,13 +1993,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1994,13 +2007,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
@@ -2008,13 +2021,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2022,13 +2035,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2036,13 +2049,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2050,13 +2063,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2064,13 +2077,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -2078,13 +2091,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2092,10 +2105,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -2104,10 +2117,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -2116,13 +2129,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2130,13 +2143,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2144,13 +2157,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2158,10 +2171,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -2170,13 +2183,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2184,13 +2197,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2198,13 +2211,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2212,10 +2225,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -2224,13 +2237,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2238,13 +2251,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2252,13 +2265,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2266,10 +2279,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -2278,10 +2291,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -2290,13 +2303,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2304,10 +2317,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -2316,10 +2329,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -2328,10 +2341,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -2340,10 +2353,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -2352,13 +2365,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2366,10 +2379,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -2378,13 +2391,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2392,13 +2405,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2406,13 +2419,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2420,10 +2433,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2432,13 +2445,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2446,10 +2459,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -2458,10 +2471,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -2470,10 +2483,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -2482,13 +2495,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2496,13 +2509,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2510,10 +2523,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -2522,10 +2535,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -2534,13 +2547,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2548,10 +2561,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -2560,13 +2573,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2574,10 +2587,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -2586,10 +2599,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -2598,11 +2611,11 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="1" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2610,10 +2623,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -2622,13 +2635,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2636,13 +2649,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2650,13 +2663,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2664,7 +2677,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2674,13 +2687,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2688,13 +2701,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2702,10 +2715,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D105" s="2"/>
     </row>
@@ -2714,10 +2727,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D106" s="2"/>
     </row>
@@ -2726,10 +2739,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D107" s="2"/>
     </row>
@@ -2738,10 +2751,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -2750,10 +2763,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -2762,10 +2775,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D110" s="2"/>
     </row>
@@ -2774,10 +2787,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -2786,10 +2799,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -2798,10 +2811,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -2810,10 +2823,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -2822,10 +2835,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -2834,22 +2847,22 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -2858,10 +2871,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D118" s="2"/>
     </row>
@@ -2870,10 +2883,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -2882,10 +2895,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -2894,10 +2907,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -2906,13 +2919,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2920,13 +2933,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2934,10 +2947,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -2946,13 +2959,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2960,10 +2973,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D126" s="2"/>
     </row>
@@ -2972,13 +2985,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2986,13 +2999,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3000,13 +3013,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3014,13 +3027,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3028,13 +3041,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3042,13 +3055,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -3056,13 +3069,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3070,13 +3083,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3084,13 +3097,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3098,13 +3111,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3112,13 +3125,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3126,13 +3139,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3140,13 +3153,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3154,13 +3167,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3168,13 +3181,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3182,13 +3195,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3196,13 +3209,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3210,13 +3223,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3224,13 +3237,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3238,13 +3251,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3252,13 +3265,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3266,13 +3279,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>247</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3280,13 +3293,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3294,10 +3307,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -3306,13 +3319,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3320,13 +3333,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3334,13 +3347,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>256</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3348,10 +3361,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -3360,13 +3373,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3374,13 +3387,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3388,13 +3401,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3402,10 +3415,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -3414,13 +3427,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>267</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3428,10 +3441,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -3440,13 +3453,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3454,13 +3467,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3468,13 +3481,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>275</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3482,13 +3495,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>277</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -3496,13 +3509,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -3510,13 +3523,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>281</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3531,7 +3544,9 @@
     <hyperlink ref="D55" r:id="rId8" display="This Athear is dedicated to the concept that each of the nine zones of alignment (the matrix of Law, Neutrality, Chaos coupled with Good, Neutrality and Evil) plays an important role in the balance of Merisyl.  Devoted primarily to philosophical musings on this topic, they tend to accumulate the least wealth – and therefore wield the least power.  Their patron Goddess is Nuvria." xr:uid="{A3BD91A5-F91F-45BE-9132-DDA520916261}"/>
     <hyperlink ref="D56" r:id="rId9" xr:uid="{9D7089CF-E34D-4A93-8583-5971B561B666}"/>
     <hyperlink ref="D8" r:id="rId10" xr:uid="{7E28E348-28D5-4901-BF7C-DECD9FB3057B}"/>
-    <hyperlink ref="B2" r:id="rId11" xr:uid="{C4CD9C3A-6759-4DD5-96F0-7D9AFE895D37}"/>
+    <hyperlink ref="B3" r:id="rId11" xr:uid="{B2B29710-C835-40AA-8AAA-E1A62ED34659}"/>
+    <hyperlink ref="B2" r:id="rId12" xr:uid="{A8D4E951-0547-468F-B6AB-D15DE61CCA02}"/>
+    <hyperlink ref="B4" r:id="rId13" xr:uid="{2A783EA7-3E90-4B32-BB8D-BF19178AB54D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
+++ b/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DA197D-23DD-4984-A1B9-82C48A67A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6474434-E495-4BD9-8C60-D1C0A8D23FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C0CD85-1229-4AB4-A667-7C169E5D8340}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="300">
   <si>
     <t>This statue honors the god Astilabor</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>Magisterium</t>
+  </si>
+  <si>
+    <t>Guild</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2D0F7-2CAE-4258-BA35-1571B80E68E7}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,8 +1415,8 @@
         <v>-2876</v>
       </c>
       <c r="E2" s="6" t="str">
-        <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D2&amp;"&amp;zoom=8"&amp;"||"&amp;B2</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-2876&amp;zoom=8||Fountain of the Six Shrines</v>
+        <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C2&amp;"&amp;lat="&amp;D2&amp;"&amp;zoom=8"&amp;"||"&amp;B2</f>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3004&amp;lat=-2876&amp;zoom=8||Fountain of the Six Shrines</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>278</v>
@@ -1440,8 +1443,8 @@
         <v>-6892</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E66" si="0">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D3&amp;"&amp;zoom=8"&amp;"||"&amp;B3</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-6892&amp;zoom=8||Trade Plaza</v>
+        <f t="shared" ref="E3:E66" si="0">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C3&amp;"&amp;lat="&amp;D3&amp;"&amp;zoom=8"&amp;"||"&amp;B3</f>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5004&amp;lat=-6892&amp;zoom=8||Trade Plaza</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>279</v>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-7458&amp;zoom=8||The Little Market</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9754&amp;lat=-7458&amp;zoom=8||The Little Market</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>279</v>
@@ -1495,7 +1498,7 @@
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-11224&amp;zoom=8||The Peddlers’ Palliate</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-684&amp;lat=-11224&amp;zoom=8||The Peddlers’ Palliate</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>280</v>
@@ -1523,7 +1526,7 @@
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-15230&amp;zoom=8||Beacon of Lev Venix</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5297&amp;lat=-15230&amp;zoom=8||Beacon of Lev Venix</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>278</v>
@@ -1549,7 +1552,7 @@
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-4464&amp;zoom=8||Park of the Golden Dawn</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13184&amp;lat=-4464&amp;zoom=8||Park of the Golden Dawn</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-6502&amp;zoom=8||Athear of Justice</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2990&amp;lat=-6502&amp;zoom=8||Athear of Justice</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>281</v>
@@ -1602,8 +1605,8 @@
         <v>3038</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D9&amp;"&amp;zoom=8"&amp;"||"&amp;B9</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=3038&amp;zoom=8||Abyssal Claw</v>
+        <f t="shared" si="0"/>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2506&amp;lat=3038&amp;zoom=8||Abyssal Claw</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>278</v>
@@ -1630,8 +1633,8 @@
         <v>10420</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D10&amp;"&amp;zoom=8"&amp;"||"&amp;B10</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=10420&amp;zoom=8||Park of the Scarlet Dusk</v>
+        <f t="shared" si="0"/>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6408&amp;lat=10420&amp;zoom=8||Park of the Scarlet Dusk</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
@@ -1657,7 +1660,7 @@
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-11400&amp;zoom=8||Debberoth Mercantile Foundation</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1588&amp;lat=-11400&amp;zoom=8||Debberoth Mercantile Foundation</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>285</v>
@@ -1683,7 +1686,7 @@
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-3760&amp;zoom=8||Eilendere Trade Consortium Tradehouse</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3718&amp;lat=-3760&amp;zoom=8||Eilendere Trade Consortium Tradehouse</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>285</v>
@@ -1711,7 +1714,7 @@
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-10090&amp;zoom=8||Monument to Priestess Ziernia</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3020&amp;lat=-10090&amp;zoom=8||Monument to Priestess Ziernia</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>278</v>
@@ -1737,7 +1740,7 @@
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=3472&amp;zoom=8||Plaza of the Setting Sun</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-15184&amp;lat=3472&amp;zoom=8||Plaza of the Setting Sun</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>278</v>
@@ -1763,7 +1766,7 @@
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=7332&amp;zoom=8||Galtiere’s Cheese Factory</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12710&amp;lat=7332&amp;zoom=8||Galtiere’s Cheese Factory</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>279</v>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=7490&amp;zoom=8||The Cheese Hut</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12860&amp;lat=7490&amp;zoom=8||The Cheese Hut</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>279</v>
@@ -1817,7 +1820,7 @@
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=11781&amp;zoom=8||Fallen Treasures</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4963&amp;lat=11781&amp;zoom=8||Fallen Treasures</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>279</v>
@@ -1845,7 +1848,7 @@
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-10688&amp;zoom=8||Draconic Goods Exchange</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-593&amp;lat=-10688&amp;zoom=8||Draconic Goods Exchange</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>285</v>
@@ -1871,7 +1874,7 @@
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=5061&amp;zoom=8||Wick It</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10416&amp;lat=5061&amp;zoom=8||Wick It</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>279</v>
@@ -1897,7 +1900,7 @@
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=6020&amp;zoom=8||Press and Play</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10880&amp;lat=6020&amp;zoom=8||Press and Play</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>279</v>
@@ -1923,7 +1926,7 @@
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=4616&amp;zoom=8||The Peak</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9776&amp;lat=4616&amp;zoom=8||The Peak</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>280</v>
@@ -1951,7 +1954,7 @@
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=6444&amp;zoom=8||Bread Basket</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=6444&amp;zoom=8||Bread Basket</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>279</v>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=2656&amp;zoom=8||Residence: Trinja Whiteice</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=936&amp;lat=2656&amp;zoom=8||Residence: Trinja Whiteice</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>289</v>
@@ -2007,7 +2010,7 @@
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-3260&amp;zoom=8||Kerowyn's Money Exchange</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-8969&amp;lat=-3260&amp;zoom=8||Kerowyn's Money Exchange</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>279</v>
@@ -2035,7 +2038,7 @@
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-2988&amp;zoom=8||Medalain Hall</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5656&amp;lat=-2988&amp;zoom=8||Medalain Hall</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>280</v>
@@ -2063,7 +2066,7 @@
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-12796&amp;zoom=8||Docks</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1130&amp;lat=-12796&amp;zoom=8||Docks</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>279</v>
@@ -2089,7 +2092,7 @@
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-9888&amp;zoom=8||Residence: Terkvajkiz</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8824&amp;lat=-9888&amp;zoom=8||Residence: Terkvajkiz</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>289</v>
@@ -2115,7 +2118,7 @@
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=9896&amp;zoom=8||Alendy’s Glade</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1340&amp;lat=9896&amp;zoom=8||Alendy’s Glade</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
@@ -2141,7 +2144,7 @@
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=4572&amp;zoom=8||Endless Festival</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=4572&amp;zoom=8||Endless Festival</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>292</v>
@@ -2167,7 +2170,7 @@
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-6736&amp;zoom=8||Celestial Park</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-8520&amp;lat=-6736&amp;zoom=8||Celestial Park</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>4</v>
@@ -2193,7 +2196,7 @@
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-11592&amp;zoom=8||City Council Complex</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2288&amp;lat=-11592&amp;zoom=8||City Council Complex</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>294</v>
@@ -2221,7 +2224,7 @@
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=1244&amp;zoom=8||Tanns’ Tattoos</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6644&amp;lat=1244&amp;zoom=8||Tanns’ Tattoos</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>279</v>
@@ -2249,7 +2252,7 @@
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=2792&amp;zoom=8||Athear of the Hopeful Dawn</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13062&amp;lat=2792&amp;zoom=8||Athear of the Hopeful Dawn</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>281</v>
@@ -2277,7 +2280,7 @@
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-10604&amp;zoom=8||Wind Rider</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-4785&amp;lat=-10604&amp;zoom=8||Wind Rider</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>279</v>
@@ -2304,8 +2307,8 @@
         <v>-5364</v>
       </c>
       <c r="E35" s="6" t="str">
-        <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D35&amp;"&amp;zoom=8"&amp;"||"&amp;B35</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-5364&amp;zoom=8||Lady Roush’s Apothecarium</v>
+        <f t="shared" si="0"/>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5910&amp;lat=-5364&amp;zoom=8||Lady Roush’s Apothecarium</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>279</v>
@@ -2313,9 +2316,9 @@
       <c r="G35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H35" t="e">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B35&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F35&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;#REF!&amp;","&amp;D35&amp;"]}},"</f>
-        <v>#REF!</v>
+      <c r="H35" t="str">
+        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B35&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F35&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C35&amp;","&amp;D35&amp;"]}},"</f>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Lady Roush’s Apothecarium","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [5910,-5364]}},</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2332,8 +2335,8 @@
         <v>-12340</v>
       </c>
       <c r="E36" s="6" t="str">
-        <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D36&amp;"&amp;zoom=8"&amp;"||"&amp;B36</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-12340&amp;zoom=8||Flowers of the Island Trail</v>
+        <f t="shared" si="0"/>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8092&amp;lat=-12340&amp;zoom=8||Flowers of the Island Trail</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>285</v>
@@ -2358,8 +2361,8 @@
         <v>-11848</v>
       </c>
       <c r="E37" s="6" t="str">
-        <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D37&amp;"&amp;zoom=8"&amp;"||"&amp;B37</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-11848&amp;zoom=8||Scales of Trade</v>
+        <f t="shared" si="0"/>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4072&amp;lat=-11848&amp;zoom=8||Scales of Trade</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>285</v>
@@ -2385,7 +2388,7 @@
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-11097&amp;zoom=8||Exotic Merchandise Combine</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8553&amp;lat=-11097&amp;zoom=8||Exotic Merchandise Combine</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>285</v>
@@ -2411,7 +2414,7 @@
       </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=7990&amp;zoom=8||Fenland Trade Association</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16461&amp;lat=7990&amp;zoom=8||Fenland Trade Association</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>285</v>
@@ -2437,7 +2440,7 @@
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=4398&amp;zoom=8||Arcanea</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4752&amp;lat=4398&amp;zoom=8||Arcanea</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>285</v>
@@ -2463,7 +2466,7 @@
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=-6852&amp;zoom=8||Magisterium</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14904&amp;lat=-6852&amp;zoom=8||Magisterium</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>294</v>
@@ -2483,19 +2486,23 @@
       <c r="B42" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1">
+        <v>10458</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2030</v>
+      </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Assassin's Guild</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10458&amp;lat=2030&amp;zoom=8||Assassin's Guild</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="str">
         <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B42&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F42&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C42&amp;","&amp;D42&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Assassin's Guild","marker-group": "Guildhouse","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Assassin's Guild","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [10458,2030]}},</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2505,19 +2512,23 @@
       <c r="B43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1">
+        <v>2447</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1074</v>
+      </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mercenary Guild</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2447&amp;lat=1074&amp;zoom=8||Mercenary Guild</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="str">
         <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B43&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F43&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C43&amp;","&amp;D43&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Mercenary Guild","marker-group": "Guildhouse","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Mercenary Guild","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [2447,1074]}},</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3070,7 +3081,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="6" t="str">
-        <f t="shared" ref="E67:E130" si="1">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D67&amp;"&amp;zoom=8"&amp;"||"&amp;B67</f>
+        <f t="shared" ref="E67:E130" si="1">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C67&amp;"&amp;lat="&amp;D67&amp;"&amp;zoom=8"&amp;"||"&amp;B67</f>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cresting Wave</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -4526,7 +4537,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="6" t="str">
-        <f t="shared" ref="E131:E166" si="2">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;"&amp;lat="&amp;D131&amp;"&amp;zoom=8"&amp;"||"&amp;B131</f>
+        <f t="shared" ref="E131:E166" si="2">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C131&amp;"&amp;lat="&amp;D131&amp;"&amp;zoom=8"&amp;"||"&amp;B131</f>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sawmill</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -5386,5 +5397,6 @@
     <hyperlink ref="G8" r:id="rId10" xr:uid="{7E28E348-28D5-4901-BF7C-DECD9FB3057B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
+++ b/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6474434-E495-4BD9-8C60-D1C0A8D23FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C503AE-03F5-4B4D-BDD6-C0BD94F2EF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C0CD85-1229-4AB4-A667-7C169E5D8340}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="299">
   <si>
     <t>This statue honors the god Astilabor</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Park</t>
   </si>
   <si>
-    <t>Temple</t>
-  </si>
-  <si>
     <t>Dedicated to Szalavalar (Map location B.7)</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Sells potions.</t>
   </si>
   <si>
-    <t>Guildhouse</t>
-  </si>
-  <si>
     <t>This is the temple to Vivlorean, the Korthjach Goddess of life, death, rebirth and renewal. </t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>This is a temple dedicated not to any deity, but to the concept that the strength and ability of non-draconic races is significant and meaningful, and should be appreciated and celebrated.   Its members are known as the Order of Humanity.  </t>
   </si>
   <si>
-    <t>Sewer Outflow</t>
-  </si>
-  <si>
     <t>News outlet</t>
   </si>
   <si>
@@ -936,6 +927,12 @@
   </si>
   <si>
     <t>Guild</t>
+  </si>
+  <si>
+    <t>A loosely-organized guild of historians, researchers and others driven by a quest of knowledge.</t>
+  </si>
+  <si>
+    <t>An organization dedicated to ensuring that tradesmen are fairly treated by the merchant consortiums of the city.</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2D0F7-2CAE-4258-BA35-1571B80E68E7}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="H135" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,28 +1374,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1406,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1">
         <v>-3004</v>
@@ -1419,14 +1416,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3004&amp;lat=-2876&amp;zoom=8||Fountain of the Six Shrines</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C2&amp;","&amp;D2&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Fountain of the Six Shrines","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-3004,-2876]}},</v>
+        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B2&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C2), 0, C2)&amp;","&amp;IF(ISBLANK(D2), 0, D2)&amp;"]}},"</f>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fountain of the Six Shrines&lt;/strong&gt;&lt;br&gt;This statue honors the god Astilabor","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-3004,-2876]}},</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1434,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1">
         <v>-5004</v>
@@ -1447,12 +1444,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5004&amp;lat=-6892&amp;zoom=8||Trade Plaza</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C3&amp;","&amp;D3&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Trade Plaza","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-5004,-6892]}},</v>
+        <f t="shared" ref="H3:H66" si="1">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B3&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C3), 0, C3)&amp;","&amp;IF(ISBLANK(D3), 0, D3)&amp;"]}},"</f>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Trade Plaza&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-5004,-6892]}},</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -1460,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1">
         <v>-9754</v>
@@ -1473,14 +1470,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9754&amp;lat=-7458&amp;zoom=8||The Little Market</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C4&amp;","&amp;D4&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Little Market","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-9754,-7458]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Little Market&lt;/strong&gt;&lt;br&gt;A collection of small booths and display areas available for rent by the day, week or month for asporint tradespersons or crafters to display their wares.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-9754,-7458]}},</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1488,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1">
         <v>-684</v>
@@ -1501,14 +1498,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-684&amp;lat=-11224&amp;zoom=8||The Peddlers’ Palliate</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C5&amp;","&amp;D5&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Peddlers’ Palliate","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-684,-11224]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Peddlers’ Palliate&lt;/strong&gt;&lt;br&gt;Owned by Alain Mudslinger (see Merisyl: Political Powers)","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-684,-11224]}},</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1516,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1">
         <v>-5297</v>
@@ -1529,12 +1526,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5297&amp;lat=-15230&amp;zoom=8||Beacon of Lev Venix</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C6&amp;","&amp;D6&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Beacon of Lev Venix","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-5297,-15230]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Beacon of Lev Venix&lt;/strong&gt;&lt;br&gt;","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-5297,-15230]}},</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1542,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1">
         <v>13184</v>
@@ -1559,8 +1556,8 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C7&amp;","&amp;D7&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Park of the Golden Dawn","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [13184,-4464]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Park of the Golden Dawn&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [13184,-4464]}},</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1568,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1">
         <v>-2990</v>
@@ -1581,14 +1578,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2990&amp;lat=-6502&amp;zoom=8||Athear of Justice</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C8&amp;","&amp;D8&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of Justice","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-2990,-6502]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Justice&lt;/strong&gt;&lt;br&gt;Dedicated to Szalavalar (Map location B.7)","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-2990,-6502]}},</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1596,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1">
         <v>-2506</v>
@@ -1609,14 +1606,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2506&amp;lat=3038&amp;zoom=8||Abyssal Claw</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H9" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C9&amp;","&amp;D9&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Abyssal Claw","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-2506,3038]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Abyssal Claw&lt;/strong&gt;&lt;br&gt;The location of the Abyssal Claw that was used by Mezrek during the Abyssal Rending to invade Merisyl.","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-2506,3038]}},</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1624,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1">
         <v>-6408</v>
@@ -1641,8 +1638,8 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C10&amp;","&amp;D10&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Park of the Scarlet Dusk","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-6408,10420]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Park of the Scarlet Dusk&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-6408,10420]}},</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1650,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1">
         <v>-1588</v>
@@ -1663,12 +1660,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1588&amp;lat=-11400&amp;zoom=8||Debberoth Mercantile Foundation</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B11&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F11&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C11&amp;","&amp;D11&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Debberoth Mercantile Foundation","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-1588,-11400]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Debberoth Mercantile Foundation&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-1588,-11400]}},</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -1676,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1">
         <v>-3718</v>
@@ -1689,14 +1686,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3718&amp;lat=-3760&amp;zoom=8||Eilendere Trade Consortium Tradehouse</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F12&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C12&amp;","&amp;D12&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Eilendere Trade Consortium Tradehouse","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-3718,-3760]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Eilendere Trade Consortium Tradehouse&lt;/strong&gt;&lt;br&gt;Day clerk is Hollis Keensight (see Merisyl: Political Powers)","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-3718,-3760]}},</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1704,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C13" s="1">
         <v>3020</v>
@@ -1717,12 +1714,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3020&amp;lat=-10090&amp;zoom=8||Monument to Priestess Ziernia</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F13&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C13&amp;","&amp;D13&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Monument to Priestess Ziernia","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [3020,-10090]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Monument to Priestess Ziernia&lt;/strong&gt;&lt;br&gt;","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [3020,-10090]}},</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1730,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
         <v>-15184</v>
@@ -1743,20 +1740,20 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-15184&amp;lat=3472&amp;zoom=8||Plaza of the Setting Sun</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B14&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F14&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C14&amp;","&amp;D14&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Plaza of the Setting Sun","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-15184,3472]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Plaza of the Setting Sun&lt;/strong&gt;&lt;br&gt;","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-15184,3472]}},</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1">
         <v>12710</v>
@@ -1769,20 +1766,20 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12710&amp;lat=7332&amp;zoom=8||Galtiere’s Cheese Factory</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F15&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C15&amp;","&amp;D15&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Galtiere’s Cheese Factory","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12710,7332]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Galtiere’s Cheese Factory&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12710,7332]}},</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1">
         <v>12860</v>
@@ -1795,14 +1792,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12860&amp;lat=7490&amp;zoom=8||The Cheese Hut</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F16&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C16&amp;","&amp;D16&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Cheese Hut","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12860,7490]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Cheese Hut&lt;/strong&gt;&lt;br&gt;Specializing in cheeses of all sorts.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12860,7490]}},</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1810,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1">
         <v>4963</v>
@@ -1823,14 +1820,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4963&amp;lat=11781&amp;zoom=8||Fallen Treasures</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H17" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B17&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F17&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C17&amp;","&amp;D17&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Fallen Treasures","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [4963,11781]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fallen Treasures&lt;/strong&gt;&lt;br&gt;Pawn shop.  Owned and operated by Menk Tornwing","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [4963,11781]}},</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1838,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1">
         <v>-593</v>
@@ -1851,12 +1848,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-593&amp;lat=-10688&amp;zoom=8||Draconic Goods Exchange</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B18&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F18&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C18&amp;","&amp;D18&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Draconic Goods Exchange","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-593,-10688]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Draconic Goods Exchange&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-593,-10688]}},</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1864,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1">
         <v>-10416</v>
@@ -1877,12 +1874,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10416&amp;lat=5061&amp;zoom=8||Wick It</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F19&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C19&amp;","&amp;D19&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Wick It","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-10416,5061]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Wick It&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-10416,5061]}},</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1890,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1">
         <v>10880</v>
@@ -1903,12 +1900,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10880&amp;lat=6020&amp;zoom=8||Press and Play</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F20&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C20&amp;","&amp;D20&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Press and Play","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [10880,6020]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Press and Play&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [10880,6020]}},</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1916,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1">
         <v>-9776</v>
@@ -1929,14 +1926,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9776&amp;lat=4616&amp;zoom=8||The Peak</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F21&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C21&amp;","&amp;D21&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Peak","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-9776,4616]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Peak&lt;/strong&gt;&lt;br&gt;A tavern catering to Ixen","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-9776,4616]}},</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1944,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1">
         <v>-3944</v>
@@ -1957,14 +1954,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=6444&amp;zoom=8||Bread Basket</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B22&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F22&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C22&amp;","&amp;D22&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Bread Basket","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-3944,6444]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bread Basket&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-3944,6444]}},</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1972,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1">
         <v>936</v>
@@ -1985,14 +1982,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=936&amp;lat=2656&amp;zoom=8||Residence: Trinja Whiteice</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B23&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F23&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C23&amp;","&amp;D23&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Residence: Trinja Whiteice","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [936,2656]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Residence: Trinja Whiteice&lt;/strong&gt;&lt;br&gt;See Merisyl: Political Powers","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [936,2656]}},</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2000,7 +1997,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C24" s="1">
         <v>-8969</v>
@@ -2013,14 +2010,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-8969&amp;lat=-3260&amp;zoom=8||Kerowyn's Money Exchange</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B24&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F24&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C24&amp;","&amp;D24&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Kerowyn's Money Exchange","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-8969,-3260]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Kerowyn's Money Exchange&lt;/strong&gt;&lt;br&gt;A moneychanger’s office and home.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-8969,-3260]}},</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2028,7 +2025,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1">
         <v>5656</v>
@@ -2041,14 +2038,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5656&amp;lat=-2988&amp;zoom=8||Medalain Hall</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H25" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B25&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F25&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C25&amp;","&amp;D25&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Medalain Hall","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [5656,-2988]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medalain Hall&lt;/strong&gt;&lt;br&gt;An inn commonly used as a gathering spot for political campaigning.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [5656,-2988]}},</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2056,7 +2053,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
         <v>-1130</v>
@@ -2069,12 +2066,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1130&amp;lat=-12796&amp;zoom=8||Docks</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B26&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F26&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C26&amp;","&amp;D26&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Docks","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-1130,-12796]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Docks&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-1130,-12796]}},</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2082,7 +2079,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C27" s="1">
         <v>8824</v>
@@ -2095,12 +2092,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8824&amp;lat=-9888&amp;zoom=8||Residence: Terkvajkiz</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B27&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F27&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C27&amp;","&amp;D27&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Residence: Terkvajkiz","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [8824,-9888]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Residence: Terkvajkiz&lt;/strong&gt;&lt;br&gt;","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [8824,-9888]}},</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2108,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C28" s="1">
         <v>-1340</v>
@@ -2125,8 +2122,8 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B28&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F28&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C28&amp;","&amp;D28&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Alendy’s Glade","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-1340,9896]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Alendy’s Glade&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-1340,9896]}},</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2134,7 +2131,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C29" s="1">
         <v>-3944</v>
@@ -2147,12 +2144,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=4572&amp;zoom=8||Endless Festival</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B29&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F29&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C29&amp;","&amp;D29&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Endless Festival","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [-3944,4572]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Endless Festival&lt;/strong&gt;&lt;br&gt;","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [-3944,4572]}},</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2160,7 +2157,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1">
         <v>-8520</v>
@@ -2177,8 +2174,8 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B30&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F30&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C30&amp;","&amp;D30&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Celestial Park","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-8520,-6736]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Celestial Park&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-8520,-6736]}},</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2186,7 +2183,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C31" s="1">
         <v>-2288</v>
@@ -2199,14 +2196,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2288&amp;lat=-11592&amp;zoom=8||City Council Complex</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B31&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F31&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C31&amp;","&amp;D31&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "City Council Complex","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-2288,-11592]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;City Council Complex&lt;/strong&gt;&lt;br&gt;Collects taxes and tribute on behalf of the city council.","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-2288,-11592]}},</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2214,7 +2211,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1">
         <v>-6644</v>
@@ -2227,14 +2224,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6644&amp;lat=1244&amp;zoom=8||Tanns’ Tattoos</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B32&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F32&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C32&amp;","&amp;D32&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Tanns’ Tattoos","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-6644,1244]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tanns’ Tattoos&lt;/strong&gt;&lt;br&gt;Offers tattooing","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-6644,1244]}},</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2242,7 +2239,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C33" s="1">
         <v>13062</v>
@@ -2255,14 +2252,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13062&amp;lat=2792&amp;zoom=8||Athear of the Hopeful Dawn</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H33" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B33&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F33&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C33&amp;","&amp;D33&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of the Hopeful Dawn","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [13062,2792]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Hopeful Dawn&lt;/strong&gt;&lt;br&gt;Dedicated to no specific God or Goddess, but instead the concept that Death waits for all living things, and thus is a powerful force deserving of worship.","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [13062,2792]}},</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2270,7 +2267,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C34" s="1">
         <v>-4785</v>
@@ -2283,14 +2280,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-4785&amp;lat=-10604&amp;zoom=8||Wind Rider</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B34&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F34&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C34&amp;","&amp;D34&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Wind Rider","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-4785,-10604]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Wind Rider&lt;/strong&gt;&lt;br&gt;Leatherworker specializing in saddles and riding gear.  Includes exotic items such as harnesses for riding dragons and rocs.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-4785,-10604]}},</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2298,7 +2295,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C35" s="1">
         <v>5910</v>
@@ -2311,14 +2308,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5910&amp;lat=-5364&amp;zoom=8||Lady Roush’s Apothecarium</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B35&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F35&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C35&amp;","&amp;D35&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Lady Roush’s Apothecarium","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [5910,-5364]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Lady Roush’s Apothecarium&lt;/strong&gt;&lt;br&gt;Sells potions.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [5910,-5364]}},</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2326,7 +2323,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1">
         <v>8092</v>
@@ -2339,12 +2336,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8092&amp;lat=-12340&amp;zoom=8||Flowers of the Island Trail</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B36&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F36&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C35&amp;","&amp;D36&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Flowers of the Island Trail","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [5910,-12340]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Flowers of the Island Trail&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [8092,-12340]}},</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2352,7 +2349,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C37" s="1">
         <v>4072</v>
@@ -2365,12 +2362,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4072&amp;lat=-11848&amp;zoom=8||Scales of Trade</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B37&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F37&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C37&amp;","&amp;D37&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Scales of Trade","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [4072,-11848]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Scales of Trade&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [4072,-11848]}},</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2378,7 +2375,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1">
         <v>8553</v>
@@ -2391,12 +2388,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8553&amp;lat=-11097&amp;zoom=8||Exotic Merchandise Combine</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F38&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C38&amp;","&amp;D38&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Exotic Merchandise Combine","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [8553,-11097]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Exotic Merchandise Combine&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [8553,-11097]}},</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2404,7 +2401,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1">
         <v>16461</v>
@@ -2417,12 +2414,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16461&amp;lat=7990&amp;zoom=8||Fenland Trade Association</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F39&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C39&amp;","&amp;D39&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Fenland Trade Association","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [16461,7990]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fenland Trade Association&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [16461,7990]}},</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2430,7 +2427,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C40" s="1">
         <v>4752</v>
@@ -2443,12 +2440,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4752&amp;lat=4398&amp;zoom=8||Arcanea</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F40&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C40&amp;","&amp;D40&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Arcanea","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [4752,4398]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Arcanea&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [4752,4398]}},</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2456,7 +2453,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C41" s="1">
         <v>-14904</v>
@@ -2469,14 +2466,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14904&amp;lat=-6852&amp;zoom=8||Magisterium</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H41" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B41&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F41&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C41&amp;","&amp;D41&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Magisterium","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-14904,-6852]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Magisterium&lt;/strong&gt;&lt;br&gt;The offices, training grounds and compound of the city magistrates.","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-14904,-6852]}},</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2484,7 +2481,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C42" s="1">
         <v>10458</v>
@@ -2497,12 +2494,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10458&amp;lat=2030&amp;zoom=8||Assassin's Guild</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B42&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F42&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C42&amp;","&amp;D42&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Assassin's Guild","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [10458,2030]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Assassin's Guild&lt;/strong&gt;&lt;br&gt;","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [10458,2030]}},</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2510,7 +2507,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C43" s="1">
         <v>2447</v>
@@ -2523,12 +2520,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2447&amp;lat=1074&amp;zoom=8||Mercenary Guild</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B43&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F43&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C43&amp;","&amp;D43&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Mercenary Guild","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [2447,1074]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mercenary Guild&lt;/strong&gt;&lt;br&gt;","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [2447,1074]}},</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2536,21 +2533,27 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7468</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-8852</v>
+      </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sage's Guild</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7468&amp;lat=-8852&amp;zoom=8||Sage's Guild</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="H44" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B44&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F44&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C44&amp;","&amp;D44&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Sage's Guild","marker-group": "Guildhouse","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sage's Guild&lt;/strong&gt;&lt;br&gt;A loosely-organized guild of historians, researchers and others driven by a quest of knowledge.","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [7468,-8852]}},</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2558,21 +2561,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-396</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-496</v>
+      </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Thieves' Guild</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-396&amp;lat=-496&amp;zoom=8||Thieves' Guild</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>26</v>
+        <v>296</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B45&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F45&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C45&amp;","&amp;D45&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Thieves' Guild","marker-group": "Guildhouse","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Thieves' Guild&lt;/strong&gt;&lt;br&gt;","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [-396,-496]}},</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2580,21 +2587,27 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11592</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-408</v>
+      </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Craftsman's Guild</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=11592&amp;lat=-408&amp;zoom=8||Craftsman's Guild</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="H46" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B46&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F46&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C46&amp;","&amp;D46&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Craftsman's Guild","marker-group": "Guildhouse","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Craftsman's Guild&lt;/strong&gt;&lt;br&gt;An organization dedicated to ensuring that tradesmen are fairly treated by the merchant consortiums of the city.","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [11592,-408]}},</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2602,7 +2615,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2611,14 +2624,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Holy Fen of Vivlorean</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H47" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B47&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F47&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C47&amp;","&amp;D47&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Holy Fen of Vivlorean","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Holy Fen of Vivlorean&lt;/strong&gt;&lt;br&gt;This is the temple to Vivlorean, the Korthjach Goddess of life, death, rebirth and renewal. ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2626,7 +2639,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2635,14 +2648,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Brass</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H48" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B48&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F48&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C48&amp;","&amp;D48&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of the Brass","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Brass&lt;/strong&gt;&lt;br&gt;Dedicated to Haryxmi ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2650,7 +2663,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2659,14 +2672,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Forge</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H49" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B49&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F49&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C49&amp;","&amp;D49&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of the Forge","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Forge&lt;/strong&gt;&lt;br&gt;Dedicated to Ator ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2674,7 +2687,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2683,14 +2696,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Deep</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H50" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B50&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F50&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C50&amp;","&amp;D50&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of the Deep","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Deep&lt;/strong&gt;&lt;br&gt;Dedicated to  Khirr ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2698,7 +2711,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2707,14 +2720,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Bounty</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B51&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F51&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C51&amp;","&amp;D51&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of the Bounty","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Bounty&lt;/strong&gt;&lt;br&gt;Dedicated to Premyzic ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -2722,7 +2735,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2731,14 +2744,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of Night</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H52" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B52&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F52&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C52&amp;","&amp;D52&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of Night","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Night&lt;/strong&gt;&lt;br&gt;Dedicated to the dark side of human nature, this temple celebrates hedonistic pleasures, vices and forbidden desires.  Always in conflict with the Athear of Justice and frequently in conflict with the Athear of Trade, the financial power of the Athear of Night gives them significant sway in the city. ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2746,7 +2759,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2755,14 +2768,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of Trade</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H53" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F53&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C53&amp;","&amp;D53&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of Trade","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Trade&lt;/strong&gt;&lt;br&gt;Dedicated to Caltolav ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2770,7 +2783,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2779,14 +2792,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Duality</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H54" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F54&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C54&amp;","&amp;D54&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of the Duality","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Duality&lt;/strong&gt;&lt;br&gt;Dedicated to Endrell ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2794,7 +2807,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2803,14 +2816,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Ninefold</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H55" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F55&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C55&amp;","&amp;D55&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of the Ninefold","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Ninefold&lt;/strong&gt;&lt;br&gt;This Athear is dedicated to the concept of balance, and the importance of avoiding extremes.  Devoted primarily to philosophical musings on this topic, they tend to accumulate the least wealth – and therefore wield the least power.  Their patron Goddess is Nuvria.","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2818,7 +2831,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2827,14 +2840,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of Hate</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H56" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F56&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C56&amp;","&amp;D56&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Athear of Hate","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Hate&lt;/strong&gt;&lt;br&gt;Dedicated to Zelagiur ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2842,7 +2855,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2851,14 +2864,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Temple of Humanity</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H57" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B57&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F57&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C57&amp;","&amp;D57&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Temple of Humanity","marker-group": "Temple","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Temple of Humanity&lt;/strong&gt;&lt;br&gt;This is a temple dedicated not to any deity, but to the concept that the strength and ability of non-draconic races is significant and meaningful, and should be appreciated and celebrated.   Its members are known as the Order of Humanity.  ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2866,7 +2879,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2875,12 +2888,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Main sewer outflow</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F58&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C58&amp;","&amp;D58&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Main sewer outflow","marker-group": "Sewer Outflow","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Main sewer outflow&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2888,7 +2901,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2897,12 +2910,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Tzantor's Broadsheets</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B59&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F59&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C59&amp;","&amp;D59&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Tzantor's Broadsheets","marker-group": "News outlet","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tzantor's Broadsheets&lt;/strong&gt;&lt;br&gt;","marker-group": "News outlet","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2910,7 +2923,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2919,14 +2932,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Council Exchange</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H60" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B60&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F60&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C60&amp;","&amp;D60&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Council Exchange","marker-group": "Government Offices","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Council Exchange&lt;/strong&gt;&lt;br&gt;The Council Exchange is the building in which all government activity for the city takes place.","marker-group": "Government Offices","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2934,7 +2947,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2943,14 +2956,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Tavrix Ulcha</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H61" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B61&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F61&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C61&amp;","&amp;D61&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Tavrix Ulcha","marker-group": "Home (Lavish)","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tavrix Ulcha&lt;/strong&gt;&lt;br&gt;Draconic for “Violet Tower”, this 8 story tower is the home of the mage known as “The Father”.","marker-group": "Home (Lavish)","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2958,7 +2971,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2967,14 +2980,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mistress Capachic's Home for Children</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H62" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B62&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F62&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C62&amp;","&amp;D62&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Mistress Capachic's Home for Children","marker-group": "Orphanage","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mistress Capachic's Home for Children&lt;/strong&gt;&lt;br&gt;15 girls, 12 boys, ages from 0 to 16.","marker-group": "Orphanage","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2982,7 +2995,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2991,12 +3004,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cold Truth</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F63&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C63&amp;","&amp;D63&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Cold Truth","marker-group": "News outlet","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cold Truth&lt;/strong&gt;&lt;br&gt;","marker-group": "News outlet","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3004,7 +3017,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3013,14 +3026,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Perivale's Outfittery</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H64" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C64&amp;","&amp;D64&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Perivale's Outfittery","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Perivale's Outfittery&lt;/strong&gt;&lt;br&gt;Sells weapons and armor.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3028,7 +3041,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3037,14 +3050,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Meyville's Tannery</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H65" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B65&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F65&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C65&amp;","&amp;D65&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Meyville's Tannery","marker-group": "Manufacturing","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Meyville's Tannery&lt;/strong&gt;&lt;br&gt;Cures and tans leather for use by tailors, armorers, etc.","marker-group": "Manufacturing","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3052,7 +3065,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3061,14 +3074,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Leather Goods</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H66" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B66&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F66&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C66&amp;","&amp;D66&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Leather Goods","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="1"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Leather Goods&lt;/strong&gt;&lt;br&gt;Sells leather goods.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3076,21 +3089,21 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="6" t="str">
-        <f t="shared" ref="E67:E130" si="1">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C67&amp;"&amp;lat="&amp;D67&amp;"&amp;zoom=8"&amp;"||"&amp;B67</f>
+        <f t="shared" ref="E67:E130" si="2">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C67&amp;"&amp;lat="&amp;D67&amp;"&amp;zoom=8"&amp;"||"&amp;B67</f>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cresting Wave</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C67&amp;","&amp;D67&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Cresting Wave","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" ref="H67:H130" si="3">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B67&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C67), 0, C67)&amp;","&amp;IF(ISBLANK(D67), 0, D67)&amp;"]}},"</f>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cresting Wave&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3098,23 +3111,23 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Empty Boot Camp</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H68" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F68&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C68&amp;","&amp;D68&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Empty Boot Camp","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Empty Boot Camp&lt;/strong&gt;&lt;br&gt;Caters primarily to Magistrates.","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3122,23 +3135,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Children's Delight</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H69" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F69&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C69&amp;","&amp;D69&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Children's Delight","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Children's Delight&lt;/strong&gt;&lt;br&gt;Toymaker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3146,23 +3159,23 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Pandela's Palace of Pets</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H70" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F70&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C70&amp;","&amp;D70&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Pandela's Palace of Pets","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pandela's Palace of Pets&lt;/strong&gt;&lt;br&gt;Pet shop","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3170,12 +3183,12 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Plaza of the Grand Caravan</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -3183,8 +3196,8 @@
       </c>
       <c r="G71" s="2"/>
       <c r="H71" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B71&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F71&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C71&amp;","&amp;D71&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Plaza of the Grand Caravan","marker-group": "City Square","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Plaza of the Grand Caravan&lt;/strong&gt;&lt;br&gt;","marker-group": "City Square","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3192,21 +3205,21 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dawnbreak</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B72&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F72&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C72&amp;","&amp;D72&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Dawnbreak","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dawnbreak&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3214,23 +3227,23 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Coral Crest</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H73" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B73&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F73&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C73&amp;","&amp;D73&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Coral Crest","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Crest&lt;/strong&gt;&lt;br&gt;This inn/tavern is one of the most expensive in the Free City, catering to the movers and shakers of the city.","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3238,21 +3251,21 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Tippler's Top</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F74&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C74&amp;","&amp;D74&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Tippler's Top","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Tippler's Top&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3260,21 +3273,21 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Brother Camtor's</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B75&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F75&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C75&amp;","&amp;D75&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Brother Camtor's","marker-group": "Boarding House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brother Camtor's&lt;/strong&gt;&lt;br&gt;","marker-group": "Boarding House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3282,21 +3295,21 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Museum of the Winds of Trade</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B76&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F76&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C76&amp;","&amp;D76&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Museum of the Winds of Trade","marker-group": "Museum","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Museum of the Winds of Trade&lt;/strong&gt;&lt;br&gt;","marker-group": "Museum","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3304,21 +3317,21 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sensate Emperium</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B77&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F77&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C77&amp;","&amp;D77&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Sensate Emperium","marker-group": "Brothel","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sensate Emperium&lt;/strong&gt;&lt;br&gt;","marker-group": "Brothel","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3326,23 +3339,23 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Open Crate</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H78" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B78&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F78&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C78&amp;","&amp;D78&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Open Crate","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Open Crate&lt;/strong&gt;&lt;br&gt;Adventuring supplies.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3350,12 +3363,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Flagon Spirits</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -3363,8 +3376,8 @@
       </c>
       <c r="G79" s="2"/>
       <c r="H79" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B79&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F79&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C79&amp;","&amp;D79&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Flagon Spirits","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Flagon Spirits&lt;/strong&gt;&lt;br&gt;","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3372,23 +3385,23 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Unshekvir (“Noble Horse”)</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H80" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B80&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F80&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C80&amp;","&amp;D80&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Unshekvir (“Noble Horse”)","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Unshekvir (“Noble Horse”)&lt;/strong&gt;&lt;br&gt;Unshekvir offers boarding for horses, and rental of horses.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3396,23 +3409,23 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Scriptorium</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H81" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F81&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C81&amp;","&amp;D81&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Scriptorium","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Scriptorium&lt;/strong&gt;&lt;br&gt;Scribing services.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3420,23 +3433,23 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Black Unicorn</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H82" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B82&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F82&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C82&amp;","&amp;D82&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Black Unicorn","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Black Unicorn&lt;/strong&gt;&lt;br&gt;This inn caters primarily to Dwarven customers.","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3444,21 +3457,21 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bastion of Knowledge</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F83&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C83&amp;","&amp;D83&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Bastion of Knowledge","marker-group": "School","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bastion of Knowledge&lt;/strong&gt;&lt;br&gt;","marker-group": "School","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3466,23 +3479,23 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Paedric's Weaving</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H84" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F84&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C84&amp;","&amp;D84&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Paedric's Weaving","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Paedric's Weaving&lt;/strong&gt;&lt;br&gt;Weaving","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3490,21 +3503,21 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Naked Truth</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B85&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F85&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C85&amp;","&amp;D85&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Naked Truth","marker-group": "Brothel","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Naked Truth&lt;/strong&gt;&lt;br&gt;","marker-group": "Brothel","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3512,12 +3525,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Park of the Crest</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -3525,8 +3538,8 @@
       </c>
       <c r="G86" s="2"/>
       <c r="H86" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B86&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F86&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C86&amp;","&amp;D86&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Park of the Crest","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Park of the Crest&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3534,21 +3547,21 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Butcher</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B87&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F87&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C87&amp;","&amp;D87&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Butcher","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Butcher&lt;/strong&gt;&lt;br&gt;","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3556,23 +3569,23 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Starshine</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H88" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B88&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F88&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C88&amp;","&amp;D88&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Starshine","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Starshine&lt;/strong&gt;&lt;br&gt;Silver smith.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3580,23 +3593,23 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bright Morning</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B89&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F89&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C89&amp;","&amp;D89&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Bright Morning","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bright Morning&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3604,21 +3617,21 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Prismatic Arena</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B90&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F90&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C90&amp;","&amp;D90&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Prismatic Arena","marker-group": "Arena","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prismatic Arena&lt;/strong&gt;&lt;br&gt;","marker-group": "Arena","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3626,21 +3639,21 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Victory Cup</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B91&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F91&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C91&amp;","&amp;D91&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Victory Cup","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Victory Cup&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3648,23 +3661,23 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Fergal's Finest</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H92" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B92&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F92&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C92&amp;","&amp;D92&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Fergal's Finest","marker-group": "Manufacturing","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fergal's Finest&lt;/strong&gt;&lt;br&gt;The docks, offices and fishing piers of Fergal's Finest, one of the premier fisheries on the island.","marker-group": "Manufacturing","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -3672,21 +3685,21 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Aodar Mercantile Center for Education</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B93&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F93&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C93&amp;","&amp;D93&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Aodar Mercantile Center for Education","marker-group": "School","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Mercantile Center for Education&lt;/strong&gt;&lt;br&gt;","marker-group": "School","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3694,23 +3707,23 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Metta the Laundress</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H94" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B94&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F94&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C94&amp;","&amp;D94&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Metta the Laundress","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Metta the Laundress&lt;/strong&gt;&lt;br&gt;Launderer","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3718,21 +3731,21 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Aodar Players</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F95&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C95&amp;","&amp;D95&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Aodar Players","marker-group": "Playhouse","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Players&lt;/strong&gt;&lt;br&gt;","marker-group": "Playhouse","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3740,21 +3753,21 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Jester's</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B96&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F96&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C96&amp;","&amp;D96&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Jester's","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jester's&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -3762,21 +3775,21 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Madam Oviovix – Speaker of Dreams</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H97" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B97&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F97&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C97&amp;","&amp;D97&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Madam Oviovix – Speaker of Dreams","marker-group": "","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Madam Oviovix – Speaker of Dreams&lt;/strong&gt;&lt;br&gt;Fortune teller","marker-group": "","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3784,12 +3797,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Grand Yard</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -3797,8 +3810,8 @@
       </c>
       <c r="G98" s="2"/>
       <c r="H98" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B98&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F98&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C98&amp;","&amp;D98&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Grand Yard","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Grand Yard&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3806,23 +3819,23 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Lanthwip's House Broker</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H99" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B99&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F99&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C99&amp;","&amp;D99&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Lanthwip's House Broker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Lanthwip's House Broker&lt;/strong&gt;&lt;br&gt;Lanthwip specializes in facilitating the sale and purchase of homes.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3830,23 +3843,23 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bartur's Wood Carvings</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H100" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B100&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F100&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C100&amp;","&amp;D100&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Bartur's Wood Carvings","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bartur's Wood Carvings&lt;/strong&gt;&lt;br&gt;Wood carvings.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3854,23 +3867,23 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Produce</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H101" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B101&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F101&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C101&amp;","&amp;D101&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Produce","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Produce&lt;/strong&gt;&lt;br&gt;Fresh fruits and vegetables.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3878,19 +3891,19 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Towers of Perault</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B102&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F102&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C102&amp;","&amp;D102&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Towers of Perault","marker-group": "","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Towers of Perault&lt;/strong&gt;&lt;br&gt;","marker-group": "","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3898,23 +3911,23 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dreblin's Stables</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H103" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B103&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F103&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C103&amp;","&amp;D103&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Dreblin's Stables","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dreblin's Stables&lt;/strong&gt;&lt;br&gt;Stables","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3922,23 +3935,23 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Tack-n-Harness</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H104" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B104&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F104&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C104&amp;","&amp;D104&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Tack-n-Harness","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tack-n-Harness&lt;/strong&gt;&lt;br&gt;Saddles, bridles and all other horse related equipment.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3946,12 +3959,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Coral Corner</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -3959,8 +3972,8 @@
       </c>
       <c r="G105" s="2"/>
       <c r="H105" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B105&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F105&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C105&amp;","&amp;D105&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Coral Corner","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Corner&lt;/strong&gt;&lt;br&gt;","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3968,21 +3981,21 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Achuak Hoardland Embassy</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B106&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F106&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C106&amp;","&amp;D106&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Achuak Hoardland Embassy","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Achuak Hoardland Embassy&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3990,21 +4003,21 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Aujir Hoardland</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B107&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F107&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C107&amp;","&amp;D107&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Aujir Hoardland","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aujir Hoardland&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4012,21 +4025,21 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Aurix Reslendancy</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B108&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F108&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C108&amp;","&amp;D108&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Aurix Reslendancy","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aurix Reslendancy&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4034,21 +4047,21 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Azure Sands</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B109&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F109&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C109&amp;","&amp;D109&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Azure Sands","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Azure Sands&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4056,21 +4069,21 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Cerulean Crescent</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B110&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F110&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C110&amp;","&amp;D110&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Cerulean Crescent","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Cerulean Crescent&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4078,21 +4091,21 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Dominion of Rach</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B111&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F111&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C111&amp;","&amp;D111&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Dominion of Rach","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Dominion of Rach&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4100,21 +4113,21 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of the Duchy of Haaven</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B112&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F112&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C112&amp;","&amp;D112&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of the Duchy of Haaven","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Duchy of Haaven&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4122,21 +4135,21 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Emerald Vale</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B113&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F113&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C113&amp;","&amp;D113&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Emerald Vale","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Emerald Vale&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4144,21 +4157,21 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Frostfeld</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B114&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F114&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C114&amp;","&amp;D114&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Frostfeld","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Frostfeld&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4166,21 +4179,21 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Obsidian Fenhold</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B115&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F115&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C115&amp;","&amp;D115&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Obsidian Fenhold","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Obsidian Fenhold&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4188,21 +4201,21 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Ornea</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B116&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F116&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C116&amp;","&amp;D116&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Ornea","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Ornea&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -4210,21 +4223,21 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of the Protectorate of the Black Wyrm</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B117&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F117&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C117&amp;","&amp;D117&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of the Protectorate of the Black Wyrm","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Protectorate of the Black Wyrm&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4232,21 +4245,21 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Verthis</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B118&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F118&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C118&amp;","&amp;D118&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Verthis","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Verthis&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4254,21 +4267,21 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Waterblade</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B119&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F119&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C119&amp;","&amp;D119&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Waterblade","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Waterblade&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4276,21 +4289,21 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Charir</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B120&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F120&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C120&amp;","&amp;D120&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Embassy of Charir","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Charir&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4298,21 +4311,21 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Prison</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B121&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F121&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C121&amp;","&amp;D121&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Prison","marker-group": "Prison","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prison&lt;/strong&gt;&lt;br&gt;","marker-group": "Prison","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4320,23 +4333,23 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Slavery</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H122" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B122&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F122&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C122&amp;","&amp;D122&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Slavery","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Slavery&lt;/strong&gt;&lt;br&gt;Specializes in the slave trade.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4344,23 +4357,23 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Yngrabbok's Pottery</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H123" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B123&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F123&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C123&amp;","&amp;D123&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Yngrabbok's Pottery","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Yngrabbok's Pottery&lt;/strong&gt;&lt;br&gt;Kiln-fired clay goods.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4368,21 +4381,21 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cozy of the Night</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B124&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F124&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C124&amp;","&amp;D124&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Cozy of the Night","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cozy of the Night&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4390,23 +4403,23 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Pyril's</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H125" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B125&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F125&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C125&amp;","&amp;D125&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Pyril's","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pyril's&lt;/strong&gt;&lt;br&gt;Woodworking","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4414,12 +4427,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cover of Dusk</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -4427,8 +4440,8 @@
       </c>
       <c r="G126" s="2"/>
       <c r="H126" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B126&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F126&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C126&amp;","&amp;D126&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Cover of Dusk","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cover of Dusk&lt;/strong&gt;&lt;br&gt;","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4436,23 +4449,23 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sandwiches and Meat Pies</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H127" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B127&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F127&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C127&amp;","&amp;D127&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Sandwiches and Meat Pies","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sandwiches and Meat Pies&lt;/strong&gt;&lt;br&gt;The name says it all...","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4460,23 +4473,23 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Gallery of the Gifted</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H128" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B128&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F128&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C128&amp;","&amp;D128&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Gallery of the Gifted","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gallery of the Gifted&lt;/strong&gt;&lt;br&gt;A collection of booths and display areas for the artists (and those who fancy themselves talented) to display their works for purchase.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4484,23 +4497,23 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sails and Canvas</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H129" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B129&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F129&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C129&amp;","&amp;D129&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Sails and Canvas","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sails and Canvas&lt;/strong&gt;&lt;br&gt;Sales, canvas, and other ship-related goods.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4508,23 +4521,23 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Crenneleth and Sons</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H130" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B130&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F130&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C130&amp;","&amp;D130&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Crenneleth and Sons","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="3"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Crenneleth and Sons&lt;/strong&gt;&lt;br&gt;Shipbuilders","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4532,23 +4545,23 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="6" t="str">
-        <f t="shared" ref="E131:E166" si="2">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C131&amp;"&amp;lat="&amp;D131&amp;"&amp;zoom=8"&amp;"||"&amp;B131</f>
+        <f t="shared" ref="E131:E166" si="4">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C131&amp;"&amp;lat="&amp;D131&amp;"&amp;zoom=8"&amp;"||"&amp;B131</f>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sawmill</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H131" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C131&amp;","&amp;D131&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Sawmill","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" ref="H131:H166" si="5">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B131&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C131), 0, C131)&amp;","&amp;IF(ISBLANK(D131), 0, D131)&amp;"]}},"</f>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sawmill&lt;/strong&gt;&lt;br&gt;Saw mill","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4556,23 +4569,23 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Wagon maker</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H132" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B132&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F132&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C132&amp;","&amp;D132&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Wagon maker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Wagon maker&lt;/strong&gt;&lt;br&gt;Makes wagons, carts, cart wheels and the like.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -4580,23 +4593,23 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Ale Bringer</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H133" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B133&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F133&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C133&amp;","&amp;D133&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Ale Bringer","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Ale Bringer&lt;/strong&gt;&lt;br&gt;A cooper, the proprietor Vandy Precarious, believes that he does the world a great service by providing a means for ale to be brought from one place to another.  To celebrate his contribution he partakes heavily of ale.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4604,23 +4617,23 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Oaken Throne</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H134" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B134&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F134&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C134&amp;","&amp;D134&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Oaken Throne","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Oaken Throne&lt;/strong&gt;&lt;br&gt;Furniture maker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4628,23 +4641,23 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Gnulpund's Smithy</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H135" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B135&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F135&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C135&amp;","&amp;D135&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Gnulpund's Smithy","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gnulpund's Smithy&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4652,23 +4665,23 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Moser's Goldsmithing</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H136" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B136&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F136&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C136&amp;","&amp;D136&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Moser's Goldsmithing","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Moser's Goldsmithing&lt;/strong&gt;&lt;br&gt;Goldsmith","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4676,23 +4689,23 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||A Strong Coil</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H137" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B137&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F137&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C137&amp;","&amp;D137&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "A Strong Coil","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;A Strong Coil&lt;/strong&gt;&lt;br&gt;Ropemaker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4700,23 +4713,23 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Iron Anvil</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H138" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B138&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F138&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C138&amp;","&amp;D138&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Iron Anvil","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Iron Anvil&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4724,23 +4737,23 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sure Step</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H139" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B139&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F139&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C139&amp;","&amp;D139&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Sure Step","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sure Step&lt;/strong&gt;&lt;br&gt;Farrier","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4748,23 +4761,23 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bezyndar's Exotics</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H140" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B140&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F140&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C140&amp;","&amp;D140&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Bezyndar's Exotics","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bezyndar's Exotics&lt;/strong&gt;&lt;br&gt;Pet Shop","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4772,23 +4785,23 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Golden Path</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H141" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B141&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F141&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C141&amp;","&amp;D141&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Golden Path","marker-group": "Arena","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Golden Path&lt;/strong&gt;&lt;br&gt;Racetrack","marker-group": "Arena","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4796,23 +4809,23 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Timrick Mason</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H142" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B142&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F142&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C142&amp;","&amp;D142&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Timrick Mason","marker-group": "Shop/Home","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Timrick Mason&lt;/strong&gt;&lt;br&gt;Home of Timrick, a mason.","marker-group": "Shop/Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4820,23 +4833,23 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bell Tower</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H143" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B143&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F143&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C143&amp;","&amp;D143&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Bell Tower","marker-group": "Tower","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bell Tower&lt;/strong&gt;&lt;br&gt;A 12-story belltower.  The city road runs through the first two stories.","marker-group": "Tower","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4844,23 +4857,23 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mishka's House</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H144" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B144&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F144&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C144&amp;","&amp;D144&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Mishka's House","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mishka's House&lt;/strong&gt;&lt;br&gt;Home of Mishka, daughter of an academic specializing in the study of the Pacantryx.","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4868,23 +4881,23 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Ironguard</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H145" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B145&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F145&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C145&amp;","&amp;D145&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Ironguard","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Ironguard&lt;/strong&gt;&lt;br&gt;Locksmith","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4892,23 +4905,23 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Brinnek Stonewall</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H146" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B146&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F146&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C146&amp;","&amp;D146&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Brinnek Stonewall","marker-group": "Shop/Home","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brinnek Stonewall&lt;/strong&gt;&lt;br&gt;Mason","marker-group": "Shop/Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4916,23 +4929,23 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Vorrus' Bakery</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H147" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B147&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F147&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C147&amp;","&amp;D147&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Vorrus' Bakery","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vorrus' Bakery&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4940,23 +4953,23 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Amaphyra's Sculptures</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H148" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B148&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F148&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C148&amp;","&amp;D148&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Amaphyra's Sculptures","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amaphyra's Sculptures&lt;/strong&gt;&lt;br&gt;Studio and shop selling sculptures.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4964,23 +4977,23 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Fired Earth</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H149" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B149&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F149&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C149&amp;","&amp;D149&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Fired Earth","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fired Earth&lt;/strong&gt;&lt;br&gt;Potter","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4988,21 +5001,21 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mug o' Mud</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B150&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F150&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C150&amp;","&amp;D150&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Mug o' Mud","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mug o' Mud&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5010,23 +5023,23 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||True Lye</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H151" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B151&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F151&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C151&amp;","&amp;D151&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "True Lye","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;True Lye&lt;/strong&gt;&lt;br&gt;Soap maker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5034,23 +5047,23 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Jenlyn's House</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H152" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B152&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F152&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C152&amp;","&amp;D152&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Jenlyn's House","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jenlyn's House&lt;/strong&gt;&lt;br&gt;Jenlyn is a Kobold bartender at the Medelain Hall.","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5058,23 +5071,23 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Home of Wharven Kelsbedder</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H153" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B153&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F153&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C153&amp;","&amp;D153&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Home of Wharven Kelsbedder","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Home of Wharven Kelsbedder&lt;/strong&gt;&lt;br&gt;A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence.","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5082,12 +5095,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Frisky Toad</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -5095,8 +5108,8 @@
       </c>
       <c r="G154" s="2"/>
       <c r="H154" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B154&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F154&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C154&amp;","&amp;D154&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Frisky Toad","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Frisky Toad&lt;/strong&gt;&lt;br&gt;","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5104,23 +5117,23 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bale of Ale</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H155" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B155&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F155&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C155&amp;","&amp;D155&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Bale of Ale","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bale of Ale&lt;/strong&gt;&lt;br&gt;The shopkeeper, Kailen Tapper, has been known to sell minor poisons.","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5128,23 +5141,23 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dapper Dinlyn's</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H156" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B156&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F156&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C156&amp;","&amp;D156&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Dapper Dinlyn's","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dapper Dinlyn's&lt;/strong&gt;&lt;br&gt;Tailor","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5152,23 +5165,23 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Petrov Estate</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H157" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B157&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F157&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C157&amp;","&amp;D157&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Petrov Estate","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Petrov Estate&lt;/strong&gt;&lt;br&gt;This is the Estate of the powerful Wielder Alvyx Petrov.","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5176,21 +5189,21 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Amber Keg</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B158&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F158&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C158&amp;","&amp;D158&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Amber Keg","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amber Keg&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5198,23 +5211,23 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Lucky River</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H159" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B159&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F159&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C159&amp;","&amp;D159&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "The Lucky River","marker-group": "Tavern / Gambling Hall","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Lucky River&lt;/strong&gt;&lt;br&gt;Seedy tavern which fronts high-stakes poker games","marker-group": "Tavern / Gambling Hall","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5222,21 +5235,21 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Empo’s Pet Emporium</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B160&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F160&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C160&amp;","&amp;D160&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Empo’s Pet Emporium","marker-group": "Pet Store","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Empo’s Pet Emporium&lt;/strong&gt;&lt;br&gt;","marker-group": "Pet Store","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5244,23 +5257,23 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Vem the Verminator</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H161" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B161&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F161&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C161&amp;","&amp;D161&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Vem the Verminator","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vem the Verminator&lt;/strong&gt;&lt;br&gt;Wildlife removal services &amp; pest control.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5268,23 +5281,23 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Runeskin</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H162" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B162&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F162&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C162&amp;","&amp;D162&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Runeskin","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Runeskin&lt;/strong&gt;&lt;br&gt;Tattoo parlor","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5292,23 +5305,23 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Evrum’s Bows</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H163" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B163&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F163&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C163&amp;","&amp;D163&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Evrum’s Bows","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Evrum’s Bows&lt;/strong&gt;&lt;br&gt;Bowmaker / Fletcher","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5316,23 +5329,23 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Forever Friends</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H164" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B164&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F164&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C164&amp;","&amp;D164&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Forever Friends","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Forever Friends&lt;/strong&gt;&lt;br&gt;Taxidermy shop run by Cabzel Porlune","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5340,23 +5353,23 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Medelain Hall</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H165" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B165&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F165&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C165&amp;","&amp;D165&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Medelain Hall","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medelain Hall&lt;/strong&gt;&lt;br&gt;Popular hangout of the River of True Blood","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -5364,23 +5377,23 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Arcavictorious</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H166" t="str">
-        <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;",        "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;B166&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F166&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;C166&amp;","&amp;D166&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e",        "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "Arcavictorious","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [,]}},</v>
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Arcavictorious&lt;/strong&gt;&lt;br&gt;This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a Tamgol) and the band of former adventurers he's attracted as regular patrons.","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
   </sheetData>

--- a/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
+++ b/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C503AE-03F5-4B4D-BDD6-C0BD94F2EF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52796A1-FC85-4EE3-83A5-25446D0097C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86C0CD85-1229-4AB4-A667-7C169E5D8340}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="299">
-  <si>
-    <t>This statue honors the god Astilabor</t>
-  </si>
-  <si>
-    <t>City Square</t>
-  </si>
-  <si>
-    <t>Inn</t>
-  </si>
-  <si>
-    <t>Owned by Alain Mudslinger (see Merisyl: Political Powers)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="279">
   <si>
     <t>Park</t>
   </si>
@@ -56,51 +44,27 @@
     <t>Dedicated to Szalavalar (Map location B.7)</t>
   </si>
   <si>
-    <t>Day clerk is Hollis Keensight (see Merisyl: Political Powers)</t>
-  </si>
-  <si>
     <t>14a</t>
   </si>
   <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
     <t>14b</t>
   </si>
   <si>
-    <t>Shop</t>
-  </si>
-  <si>
     <t>Specializing in cheeses of all sorts.</t>
   </si>
   <si>
-    <t>Tavern</t>
-  </si>
-  <si>
     <t>A tavern catering to Ixen</t>
   </si>
   <si>
     <t>Bakery</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>See Merisyl: Political Powers</t>
-  </si>
-  <si>
-    <t>Shop/Home</t>
-  </si>
-  <si>
     <t>A moneychanger’s office and home.</t>
   </si>
   <si>
     <t>Docks</t>
   </si>
   <si>
-    <t>Home (Lavish)</t>
-  </si>
-  <si>
     <t>Collects taxes and tribute on behalf of the city council.</t>
   </si>
   <si>
@@ -113,51 +77,18 @@
     <t>Sells potions.</t>
   </si>
   <si>
-    <t>This is the temple to Vivlorean, the Korthjach Goddess of life, death, rebirth and renewal. </t>
-  </si>
-  <si>
-    <t>Dedicated to Haryxmi </t>
-  </si>
-  <si>
-    <t>Dedicated to Ator </t>
-  </si>
-  <si>
-    <t>Dedicated to  Khirr </t>
-  </si>
-  <si>
-    <t>Dedicated to Premyzic </t>
-  </si>
-  <si>
-    <t>Dedicated to the dark side of human nature, this temple celebrates hedonistic pleasures, vices and forbidden desires.  Always in conflict with the Athear of Justice and frequently in conflict with the Athear of Trade, the financial power of the Athear of Night gives them significant sway in the city. </t>
-  </si>
-  <si>
-    <t>Dedicated to Caltolav </t>
-  </si>
-  <si>
-    <t>Dedicated to Endrell </t>
-  </si>
-  <si>
     <t>Dedicated to Zelagiur </t>
   </si>
   <si>
     <t>This is a temple dedicated not to any deity, but to the concept that the strength and ability of non-draconic races is significant and meaningful, and should be appreciated and celebrated.   Its members are known as the Order of Humanity.  </t>
   </si>
   <si>
-    <t>News outlet</t>
-  </si>
-  <si>
-    <t>Government Offices</t>
-  </si>
-  <si>
     <t>The Council Exchange is the building in which all government activity for the city takes place.</t>
   </si>
   <si>
     <t>Draconic for “Violet Tower”, this 8 story tower is the home of the mage known as “The Father”.</t>
   </si>
   <si>
-    <t>Orphanage</t>
-  </si>
-  <si>
     <t>15 girls, 12 boys, ages from 0 to 16.</t>
   </si>
   <si>
@@ -182,15 +113,6 @@
     <t>This inn/tavern is one of the most expensive in the Free City, catering to the movers and shakers of the city.</t>
   </si>
   <si>
-    <t>Boarding House</t>
-  </si>
-  <si>
-    <t>Museum</t>
-  </si>
-  <si>
-    <t>Brothel</t>
-  </si>
-  <si>
     <t>Adventuring supplies.</t>
   </si>
   <si>
@@ -203,24 +125,15 @@
     <t>This inn caters primarily to Dwarven customers.</t>
   </si>
   <si>
-    <t>School</t>
-  </si>
-  <si>
     <t>Weaving</t>
   </si>
   <si>
     <t>Silver smith.</t>
   </si>
   <si>
-    <t>Arena</t>
-  </si>
-  <si>
     <t>Launderer</t>
   </si>
   <si>
-    <t>Playhouse</t>
-  </si>
-  <si>
     <t>Fortune teller</t>
   </si>
   <si>
@@ -239,9 +152,6 @@
     <t>Saddles, bridles and all other horse related equipment.</t>
   </si>
   <si>
-    <t>Embassy House</t>
-  </si>
-  <si>
     <t>Prison</t>
   </si>
   <si>
@@ -299,9 +209,6 @@
     <t>Home of Timrick, a mason.</t>
   </si>
   <si>
-    <t>Tower</t>
-  </si>
-  <si>
     <t>A 12-story belltower.  The city road runs through the first two stories.</t>
   </si>
   <si>
@@ -335,18 +242,9 @@
     <t>Tailor</t>
   </si>
   <si>
-    <t>This is the Estate of the powerful Wielder Alvyx Petrov.</t>
-  </si>
-  <si>
-    <t>Tavern / Gambling Hall</t>
-  </si>
-  <si>
     <t>Seedy tavern which fronts high-stakes poker games</t>
   </si>
   <si>
-    <t>Pet Store</t>
-  </si>
-  <si>
     <t>Wildlife removal services &amp; pest control.</t>
   </si>
   <si>
@@ -374,9 +272,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>This Athear is dedicated to the concept of balance, and the importance of avoiding extremes.  Devoted primarily to philosophical musings on this topic, they tend to accumulate the least wealth – and therefore wield the least power.  Their patron Goddess is Nuvria.</t>
-  </si>
-  <si>
     <t>The offices, training grounds and compound of the city magistrates.</t>
   </si>
   <si>
@@ -398,9 +293,6 @@
     <t>wpTableURL</t>
   </si>
   <si>
-    <t>Fountain of the Six Shrines</t>
-  </si>
-  <si>
     <t>Trade Plaza</t>
   </si>
   <si>
@@ -455,15 +347,9 @@
     <t>Bread Basket</t>
   </si>
   <si>
-    <t>Residence: Trinja Whiteice</t>
-  </si>
-  <si>
     <t>Medalain Hall</t>
   </si>
   <si>
-    <t>Residence: Terkvajkiz</t>
-  </si>
-  <si>
     <t>Alendy’s Glade</t>
   </si>
   <si>
@@ -933,6 +819,60 @@
   </si>
   <si>
     <t>An organization dedicated to ensuring that tradesmen are fairly treated by the merchant consortiums of the city.</t>
+  </si>
+  <si>
+    <t>Fountain of the Godsmongers</t>
+  </si>
+  <si>
+    <t>This fountain sits at the center of six shrines to the six disciples of Caltolav known as the Godsmongers.</t>
+  </si>
+  <si>
+    <t>This is the Estate of the powerful caster Alvyx Petrov.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>This merchant house is primarily comprised of Elvish traders.</t>
+  </si>
+  <si>
+    <t>The nearby temple to Haryxmi has established these large buildings as venues for all sorts of entertainment, from music to plays to dancing and more. True to its name, it is never closed and never empty.</t>
+  </si>
+  <si>
+    <t>Owned by Alain Mudslinger</t>
+  </si>
+  <si>
+    <t>The home of Trinja Whiteice.</t>
+  </si>
+  <si>
+    <t>The home of Terkvajkiz</t>
+  </si>
+  <si>
+    <t>A temple dedicated to &lt;a href='https://new.merisyl.com/deities/ator/' target='_info'&gt;Ator&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>A temple dedicated &lt;a href='https://new.merisyl.com/deities/khirr/' target='_info'&gt;Khirr&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>A temple dedicated to &lt;a href='https://new.merisyl.com/deities/haryxmi/' target='_info'&gt;Haryxmi&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A temple dedicated to  &lt;a href='https://new.merisyl.com/deities/vivlorean/' target='_info'&gt;Vivlorean&lt;/a&gt;, the Korthjach Goddess of life, death, rebirth and renewal. </t>
+  </si>
+  <si>
+    <t>A temple dedicated to &lt;a href='https://new.merisyl.com/deities/premyzic/' target='_info'&gt;Premyzic&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Dedicated to the dark side of human nature rather than any specific Deity, this temple celebrates hedonistic pleasures, vices and forbidden desires.  Always in conflict with the Athear of Justice and frequently in conflict with the Athear of Trade, the financial power of the Athear of Night gives them significant sway in the city. </t>
+  </si>
+  <si>
+    <t>A temple dedicated to &lt;a href='https://new.merisyl.com/deities/caltolav/' target='_info'&gt;Caltolav&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>A temple dedicated to &lt;a href='https://new.merisyl.com/deities/endrell/' target='_info'&gt;Endrell&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This Athear is dedicated to the concept of balance, and the importance of avoiding extremes.  Devoted primarily to philosophical musings on this topic, they tend to accumulate the least wealth – and therefore wield the least power.  Their patron Goddess is &lt;a href='https://new.merisyl.com/deities/nuvria/' target='_info'&gt;Nuvria&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2D0F7-2CAE-4258-BA35-1571B80E68E7}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H149" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H166"/>
     </sheetView>
   </sheetViews>
@@ -1374,28 +1314,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1403,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1">
         <v>-3004</v>
@@ -1413,17 +1353,17 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C2&amp;"&amp;lat="&amp;D2&amp;"&amp;zoom=8"&amp;"||"&amp;B2</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3004&amp;lat=-2876&amp;zoom=8||Fountain of the Six Shrines</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3004&amp;lat=-2876&amp;zoom=8||Fountain of the Godsmongers</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="H2" t="str">
         <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B2&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C2), 0, C2)&amp;","&amp;IF(ISBLANK(D2), 0, D2)&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fountain of the Six Shrines&lt;/strong&gt;&lt;br&gt;This statue honors the god Astilabor","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-3004,-2876]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fountain of the Godsmongers&lt;/strong&gt;&lt;br&gt;This fountain sits at the center of six shrines to the six disciples of Caltolav known as the Godsmongers.","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-3004,-2876]}},</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1431,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1">
         <v>-5004</v>
@@ -1444,7 +1384,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5004&amp;lat=-6892&amp;zoom=8||Trade Plaza</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" t="str">
@@ -1457,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1">
         <v>-9754</v>
@@ -1470,10 +1410,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9754&amp;lat=-7458&amp;zoom=8||The Little Market</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -1485,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1">
         <v>-684</v>
@@ -1498,14 +1438,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-684&amp;lat=-11224&amp;zoom=8||The Peddlers’ Palliate</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>267</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Peddlers’ Palliate&lt;/strong&gt;&lt;br&gt;Owned by Alain Mudslinger (see Merisyl: Political Powers)","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-684,-11224]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Peddlers’ Palliate&lt;/strong&gt;&lt;br&gt;Owned by Alain Mudslinger","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-684,-11224]}},</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1513,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1">
         <v>-5297</v>
@@ -1526,7 +1466,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5297&amp;lat=-15230&amp;zoom=8||Beacon of Lev Venix</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="str">
@@ -1539,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1">
         <v>13184</v>
@@ -1552,7 +1492,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13184&amp;lat=-4464&amp;zoom=8||Park of the Golden Dawn</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="str">
@@ -1565,7 +1505,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1">
         <v>-2990</v>
@@ -1578,10 +1518,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2990&amp;lat=-6502&amp;zoom=8||Athear of Justice</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1593,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1">
         <v>-2506</v>
@@ -1606,10 +1546,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2506&amp;lat=3038&amp;zoom=8||Abyssal Claw</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1621,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>-6408</v>
@@ -1634,7 +1574,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6408&amp;lat=10420&amp;zoom=8||Park of the Scarlet Dusk</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="str">
@@ -1647,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1">
         <v>-1588</v>
@@ -1660,7 +1600,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1588&amp;lat=-11400&amp;zoom=8||Debberoth Mercantile Foundation</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" t="str">
@@ -1673,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1">
         <v>-3718</v>
@@ -1686,14 +1626,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3718&amp;lat=-3760&amp;zoom=8||Eilendere Trade Consortium Tradehouse</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Eilendere Trade Consortium Tradehouse&lt;/strong&gt;&lt;br&gt;Day clerk is Hollis Keensight (see Merisyl: Political Powers)","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-3718,-3760]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Eilendere Trade Consortium Tradehouse&lt;/strong&gt;&lt;br&gt;This merchant house is primarily comprised of Elvish traders.","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-3718,-3760]}},</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1701,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1">
         <v>3020</v>
@@ -1714,7 +1654,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3020&amp;lat=-10090&amp;zoom=8||Monument to Priestess Ziernia</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="str">
@@ -1727,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1">
         <v>-15184</v>
@@ -1740,7 +1680,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-15184&amp;lat=3472&amp;zoom=8||Plaza of the Setting Sun</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" t="str">
@@ -1750,10 +1690,10 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1">
         <v>12710</v>
@@ -1766,7 +1706,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12710&amp;lat=7332&amp;zoom=8||Galtiere’s Cheese Factory</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" t="str">
@@ -1776,10 +1716,10 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1">
         <v>12860</v>
@@ -1792,10 +1732,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12860&amp;lat=7490&amp;zoom=8||The Cheese Hut</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
@@ -1807,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1">
         <v>4963</v>
@@ -1820,10 +1760,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4963&amp;lat=11781&amp;zoom=8||Fallen Treasures</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
@@ -1835,7 +1775,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1">
         <v>-593</v>
@@ -1848,7 +1788,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-593&amp;lat=-10688&amp;zoom=8||Draconic Goods Exchange</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" t="str">
@@ -1861,7 +1801,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1">
         <v>-10416</v>
@@ -1874,7 +1814,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10416&amp;lat=5061&amp;zoom=8||Wick It</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="str">
@@ -1887,7 +1827,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1">
         <v>10880</v>
@@ -1900,7 +1840,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10880&amp;lat=6020&amp;zoom=8||Press and Play</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="str">
@@ -1913,7 +1853,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1">
         <v>-9776</v>
@@ -1926,10 +1866,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9776&amp;lat=4616&amp;zoom=8||The Peak</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
@@ -1941,7 +1881,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1">
         <v>-3944</v>
@@ -1954,10 +1894,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=6444&amp;zoom=8||Bread Basket</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
@@ -1969,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="C23" s="1">
         <v>936</v>
@@ -1979,17 +1919,17 @@
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=936&amp;lat=2656&amp;zoom=8||Residence: Trinja Whiteice</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=936&amp;lat=2656&amp;zoom=8||Residence</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Residence: Trinja Whiteice&lt;/strong&gt;&lt;br&gt;See Merisyl: Political Powers","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [936,2656]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Residence&lt;/strong&gt;&lt;br&gt;The home of Trinja Whiteice.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [936,2656]}},</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1997,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C24" s="1">
         <v>-8969</v>
@@ -2010,10 +1950,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-8969&amp;lat=-3260&amp;zoom=8||Kerowyn's Money Exchange</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
@@ -2025,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1">
         <v>5656</v>
@@ -2038,10 +1978,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5656&amp;lat=-2988&amp;zoom=8||Medalain Hall</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
@@ -2053,7 +1993,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
         <v>-1130</v>
@@ -2066,7 +2006,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1130&amp;lat=-12796&amp;zoom=8||Docks</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="str">
@@ -2079,7 +2019,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="C27" s="1">
         <v>8824</v>
@@ -2089,15 +2029,17 @@
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8824&amp;lat=-9888&amp;zoom=8||Residence: Terkvajkiz</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8824&amp;lat=-9888&amp;zoom=8||Residence</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Residence: Terkvajkiz&lt;/strong&gt;&lt;br&gt;","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [8824,-9888]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Residence&lt;/strong&gt;&lt;br&gt;The home of Terkvajkiz","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [8824,-9888]}},</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2105,7 +2047,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1">
         <v>-1340</v>
@@ -2118,7 +2060,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1340&amp;lat=9896&amp;zoom=8||Alendy’s Glade</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="str">
@@ -2126,12 +2068,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Alendy’s Glade&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-1340,9896]}},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C29" s="1">
         <v>-3944</v>
@@ -2144,12 +2086,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=4572&amp;zoom=8||Endless Festival</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Endless Festival&lt;/strong&gt;&lt;br&gt;","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [-3944,4572]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Endless Festival&lt;/strong&gt;&lt;br&gt;The nearby temple to Haryxmi has established these large buildings as venues for all sorts of entertainment, from music to plays to dancing and more. True to its name, it is never closed and never empty.","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [-3944,4572]}},</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2157,7 +2101,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1">
         <v>-8520</v>
@@ -2170,7 +2114,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-8520&amp;lat=-6736&amp;zoom=8||Celestial Park</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="str">
@@ -2183,7 +2127,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C31" s="1">
         <v>-2288</v>
@@ -2196,10 +2140,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2288&amp;lat=-11592&amp;zoom=8||City Council Complex</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
@@ -2211,7 +2155,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1">
         <v>-6644</v>
@@ -2224,10 +2168,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6644&amp;lat=1244&amp;zoom=8||Tanns’ Tattoos</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
@@ -2239,7 +2183,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="C33" s="1">
         <v>13062</v>
@@ -2252,10 +2196,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13062&amp;lat=2792&amp;zoom=8||Athear of the Hopeful Dawn</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
@@ -2267,7 +2211,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C34" s="1">
         <v>-4785</v>
@@ -2280,10 +2224,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-4785&amp;lat=-10604&amp;zoom=8||Wind Rider</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
@@ -2295,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1">
         <v>5910</v>
@@ -2308,10 +2252,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5910&amp;lat=-5364&amp;zoom=8||Lady Roush’s Apothecarium</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
@@ -2323,7 +2267,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1">
         <v>8092</v>
@@ -2336,7 +2280,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8092&amp;lat=-12340&amp;zoom=8||Flowers of the Island Trail</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="str">
@@ -2349,7 +2293,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1">
         <v>4072</v>
@@ -2362,7 +2306,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4072&amp;lat=-11848&amp;zoom=8||Scales of Trade</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="str">
@@ -2375,7 +2319,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1">
         <v>8553</v>
@@ -2388,7 +2332,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8553&amp;lat=-11097&amp;zoom=8||Exotic Merchandise Combine</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="str">
@@ -2401,7 +2345,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1">
         <v>16461</v>
@@ -2414,7 +2358,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16461&amp;lat=7990&amp;zoom=8||Fenland Trade Association</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="str">
@@ -2427,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1">
         <v>4752</v>
@@ -2440,7 +2384,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4752&amp;lat=4398&amp;zoom=8||Arcanea</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="str">
@@ -2453,7 +2397,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="C41" s="1">
         <v>-14904</v>
@@ -2466,10 +2410,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14904&amp;lat=-6852&amp;zoom=8||Magisterium</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
@@ -2481,7 +2425,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1">
         <v>10458</v>
@@ -2494,7 +2438,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10458&amp;lat=2030&amp;zoom=8||Assassin's Guild</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="str">
@@ -2507,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1">
         <v>2447</v>
@@ -2520,7 +2464,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2447&amp;lat=1074&amp;zoom=8||Mercenary Guild</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="str">
@@ -2533,7 +2477,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1">
         <v>7468</v>
@@ -2546,10 +2490,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7468&amp;lat=-8852&amp;zoom=8||Sage's Guild</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
@@ -2561,7 +2505,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1">
         <v>-396</v>
@@ -2574,7 +2518,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-396&amp;lat=-496&amp;zoom=8||Thieves' Guild</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" t="str">
@@ -2587,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1">
         <v>11592</v>
@@ -2600,10 +2544,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=11592&amp;lat=-408&amp;zoom=8||Craftsman's Guild</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
@@ -2615,23 +2559,27 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C47" s="1">
+        <v>14550</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4112</v>
+      </c>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Holy Fen of Vivlorean</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=14550&amp;lat=4112&amp;zoom=8||Holy Fen of Vivlorean</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>25</v>
+        <v>240</v>
+      </c>
+      <c r="G47" t="s">
+        <v>273</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Holy Fen of Vivlorean&lt;/strong&gt;&lt;br&gt;This is the temple to Vivlorean, the Korthjach Goddess of life, death, rebirth and renewal. ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Holy Fen of Vivlorean&lt;/strong&gt;&lt;br&gt;A temple dedicated to  &lt;a href='https://new.merisyl.com/deities/vivlorean/' target='_info'&gt;Vivlorean&lt;/a&gt;, the Korthjach Goddess of life, death, rebirth and renewal. ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [14550,4112]}},</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2639,23 +2587,27 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-2896</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5380</v>
+      </c>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Brass</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2896&amp;lat=5380&amp;zoom=8||Athear of the Brass</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>26</v>
+        <v>240</v>
+      </c>
+      <c r="G48" t="s">
+        <v>272</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Brass&lt;/strong&gt;&lt;br&gt;Dedicated to Haryxmi ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Brass&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/haryxmi/' target='_info'&gt;Haryxmi&lt;/a&gt;","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-2896,5380]}},</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2663,23 +2615,27 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2764</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5620</v>
+      </c>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Forge</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2764&amp;lat=5620&amp;zoom=8||Athear of the Forge</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>27</v>
+        <v>240</v>
+      </c>
+      <c r="G49" t="s">
+        <v>270</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Forge&lt;/strong&gt;&lt;br&gt;Dedicated to Ator ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Forge&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/ator/' target='_info'&gt;Ator&lt;/a&gt; ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [2764,5620]}},</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2687,23 +2643,27 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-17872</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-14068</v>
+      </c>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Deep</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17872&amp;lat=-14068&amp;zoom=8||Athear of the Deep</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>28</v>
+        <v>240</v>
+      </c>
+      <c r="G50" t="s">
+        <v>271</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Deep&lt;/strong&gt;&lt;br&gt;Dedicated to  Khirr ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Deep&lt;/strong&gt;&lt;br&gt;A temple dedicated &lt;a href='https://new.merisyl.com/deities/khirr/' target='_info'&gt;Khirr&lt;/a&gt; ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-17872,-14068]}},</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2711,23 +2671,27 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C51" s="1">
+        <v>16204</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4848</v>
+      </c>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Bounty</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16204&amp;lat=4848&amp;zoom=8||Athear of the Bounty</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>29</v>
+        <v>240</v>
+      </c>
+      <c r="G51" t="s">
+        <v>274</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Bounty&lt;/strong&gt;&lt;br&gt;Dedicated to Premyzic ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Bounty&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/premyzic/' target='_info'&gt;Premyzic&lt;/a&gt;","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [16204,4848]}},</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -2735,23 +2699,27 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-9214</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9334</v>
+      </c>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of Night</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9214&amp;lat=9334&amp;zoom=8||Athear of Night</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Night&lt;/strong&gt;&lt;br&gt;Dedicated to the dark side of human nature, this temple celebrates hedonistic pleasures, vices and forbidden desires.  Always in conflict with the Athear of Justice and frequently in conflict with the Athear of Trade, the financial power of the Athear of Night gives them significant sway in the city. ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Night&lt;/strong&gt;&lt;br&gt;Dedicated to the dark side of human nature rather than any specific Deity, this temple celebrates hedonistic pleasures, vices and forbidden desires.  Always in conflict with the Athear of Justice and frequently in conflict with the Athear of Trade, the financial power of the Athear of Night gives them significant sway in the city. ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-9214,9334]}},</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2759,23 +2727,27 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-7192</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-7618</v>
+      </c>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of Trade</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-7192&amp;lat=-7618&amp;zoom=8||Athear of Trade</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>31</v>
+        <v>240</v>
+      </c>
+      <c r="G53" t="s">
+        <v>276</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Trade&lt;/strong&gt;&lt;br&gt;Dedicated to Caltolav ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Trade&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/caltolav/' target='_info'&gt;Caltolav&lt;/a&gt; ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-7192,-7618]}},</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2783,47 +2755,55 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5228</v>
+      </c>
+      <c r="D54" s="1">
+        <v>690</v>
+      </c>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Duality</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5228&amp;lat=690&amp;zoom=8||Athear of the Duality</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>32</v>
+        <v>240</v>
+      </c>
+      <c r="G54" t="s">
+        <v>277</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Duality&lt;/strong&gt;&lt;br&gt;Dedicated to Endrell ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Duality&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/endrell/' target='_info'&gt;Endrell&lt;/a&gt;","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [5228,690]}},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2728</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6400</v>
+      </c>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of the Ninefold</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2728&amp;lat=6400&amp;zoom=8||Athear of the Ninefold</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" t="s">
         <v>278</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Ninefold&lt;/strong&gt;&lt;br&gt;This Athear is dedicated to the concept of balance, and the importance of avoiding extremes.  Devoted primarily to philosophical musings on this topic, they tend to accumulate the least wealth – and therefore wield the least power.  Their patron Goddess is Nuvria.","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Ninefold&lt;/strong&gt;&lt;br&gt;This Athear is dedicated to the concept of balance, and the importance of avoiding extremes.  Devoted primarily to philosophical musings on this topic, they tend to accumulate the least wealth – and therefore wield the least power.  Their patron Goddess is &lt;a href='https://new.merisyl.com/deities/nuvria/' target='_info'&gt;Nuvria&lt;/a&gt;.","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [2728,6400]}},</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2831,7 +2811,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2840,10 +2820,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Athear of Hate</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
@@ -2855,7 +2835,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2864,10 +2844,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Temple of Humanity</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
@@ -2879,7 +2859,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2888,7 +2868,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Main sewer outflow</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" t="str">
@@ -2901,7 +2881,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2910,12 +2890,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Tzantor's Broadsheets</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tzantor's Broadsheets&lt;/strong&gt;&lt;br&gt;","marker-group": "News outlet","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tzantor's Broadsheets&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2923,7 +2903,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2932,14 +2912,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Council Exchange</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Council Exchange&lt;/strong&gt;&lt;br&gt;The Council Exchange is the building in which all government activity for the city takes place.","marker-group": "Government Offices","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Council Exchange&lt;/strong&gt;&lt;br&gt;The Council Exchange is the building in which all government activity for the city takes place.","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2947,7 +2927,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2956,14 +2936,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Tavrix Ulcha</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tavrix Ulcha&lt;/strong&gt;&lt;br&gt;Draconic for “Violet Tower”, this 8 story tower is the home of the mage known as “The Father”.","marker-group": "Home (Lavish)","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tavrix Ulcha&lt;/strong&gt;&lt;br&gt;Draconic for “Violet Tower”, this 8 story tower is the home of the mage known as “The Father”.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -2971,7 +2951,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2980,14 +2960,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mistress Capachic's Home for Children</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mistress Capachic's Home for Children&lt;/strong&gt;&lt;br&gt;15 girls, 12 boys, ages from 0 to 16.","marker-group": "Orphanage","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mistress Capachic's Home for Children&lt;/strong&gt;&lt;br&gt;15 girls, 12 boys, ages from 0 to 16.","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -2995,7 +2975,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3004,12 +2984,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cold Truth</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cold Truth&lt;/strong&gt;&lt;br&gt;","marker-group": "News outlet","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cold Truth&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3017,7 +2997,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3026,14 +3006,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Perivale's Outfittery</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Perivale's Outfittery&lt;/strong&gt;&lt;br&gt;Sells weapons and armor.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Perivale's Outfittery&lt;/strong&gt;&lt;br&gt;Sells weapons and armor.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3041,7 +3021,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3050,14 +3030,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Meyville's Tannery</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Meyville's Tannery&lt;/strong&gt;&lt;br&gt;Cures and tans leather for use by tailors, armorers, etc.","marker-group": "Manufacturing","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Meyville's Tannery&lt;/strong&gt;&lt;br&gt;Cures and tans leather for use by tailors, armorers, etc.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3065,7 +3045,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3074,14 +3054,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Leather Goods</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Leather Goods&lt;/strong&gt;&lt;br&gt;Sells leather goods.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Leather Goods&lt;/strong&gt;&lt;br&gt;Sells leather goods.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3089,7 +3069,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3098,12 +3078,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cresting Wave</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B67&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C67), 0, C67)&amp;","&amp;IF(ISBLANK(D67), 0, D67)&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cresting Wave&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cresting Wave&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3111,7 +3091,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3120,14 +3100,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Empty Boot Camp</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Empty Boot Camp&lt;/strong&gt;&lt;br&gt;Caters primarily to Magistrates.","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Empty Boot Camp&lt;/strong&gt;&lt;br&gt;Caters primarily to Magistrates.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3135,7 +3115,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3144,14 +3124,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Children's Delight</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Children's Delight&lt;/strong&gt;&lt;br&gt;Toymaker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Children's Delight&lt;/strong&gt;&lt;br&gt;Toymaker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3159,7 +3139,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3168,14 +3148,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Pandela's Palace of Pets</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pandela's Palace of Pets&lt;/strong&gt;&lt;br&gt;Pet shop","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pandela's Palace of Pets&lt;/strong&gt;&lt;br&gt;Pet shop","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3183,7 +3163,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3192,12 +3172,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Plaza of the Grand Caravan</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Plaza of the Grand Caravan&lt;/strong&gt;&lt;br&gt;","marker-group": "City Square","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Plaza of the Grand Caravan&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3205,7 +3185,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3214,12 +3194,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dawnbreak</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dawnbreak&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dawnbreak&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3227,7 +3207,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3236,14 +3216,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Coral Crest</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Crest&lt;/strong&gt;&lt;br&gt;This inn/tavern is one of the most expensive in the Free City, catering to the movers and shakers of the city.","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Crest&lt;/strong&gt;&lt;br&gt;This inn/tavern is one of the most expensive in the Free City, catering to the movers and shakers of the city.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3251,7 +3231,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3260,12 +3240,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Tippler's Top</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Tippler's Top&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Tippler's Top&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3273,7 +3253,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3282,12 +3262,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Brother Camtor's</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brother Camtor's&lt;/strong&gt;&lt;br&gt;","marker-group": "Boarding House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brother Camtor's&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3295,7 +3275,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3304,12 +3284,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Museum of the Winds of Trade</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Museum of the Winds of Trade&lt;/strong&gt;&lt;br&gt;","marker-group": "Museum","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Museum of the Winds of Trade&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3317,7 +3297,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3326,12 +3306,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sensate Emperium</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sensate Emperium&lt;/strong&gt;&lt;br&gt;","marker-group": "Brothel","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sensate Emperium&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3339,7 +3319,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3348,14 +3328,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Open Crate</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Open Crate&lt;/strong&gt;&lt;br&gt;Adventuring supplies.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Open Crate&lt;/strong&gt;&lt;br&gt;Adventuring supplies.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3363,7 +3343,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3372,12 +3352,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Flagon Spirits</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Flagon Spirits&lt;/strong&gt;&lt;br&gt;","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Flagon Spirits&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3385,7 +3365,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3394,14 +3374,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Unshekvir (“Noble Horse”)</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Unshekvir (“Noble Horse”)&lt;/strong&gt;&lt;br&gt;Unshekvir offers boarding for horses, and rental of horses.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Unshekvir (“Noble Horse”)&lt;/strong&gt;&lt;br&gt;Unshekvir offers boarding for horses, and rental of horses.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3409,7 +3389,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3418,14 +3398,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Scriptorium</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Scriptorium&lt;/strong&gt;&lt;br&gt;Scribing services.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Scriptorium&lt;/strong&gt;&lt;br&gt;Scribing services.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3433,7 +3413,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3442,14 +3422,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Black Unicorn</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Black Unicorn&lt;/strong&gt;&lt;br&gt;This inn caters primarily to Dwarven customers.","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Black Unicorn&lt;/strong&gt;&lt;br&gt;This inn caters primarily to Dwarven customers.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3457,7 +3437,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3466,12 +3446,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bastion of Knowledge</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bastion of Knowledge&lt;/strong&gt;&lt;br&gt;","marker-group": "School","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bastion of Knowledge&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3479,7 +3459,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3488,14 +3468,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Paedric's Weaving</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Paedric's Weaving&lt;/strong&gt;&lt;br&gt;Weaving","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Paedric's Weaving&lt;/strong&gt;&lt;br&gt;Weaving","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3503,7 +3483,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3512,12 +3492,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Naked Truth</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Naked Truth&lt;/strong&gt;&lt;br&gt;","marker-group": "Brothel","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Naked Truth&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3525,7 +3505,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3534,7 +3514,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Park of the Crest</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" t="str">
@@ -3547,7 +3527,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3556,12 +3536,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Butcher</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Butcher&lt;/strong&gt;&lt;br&gt;","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Butcher&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3569,7 +3549,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3578,14 +3558,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Starshine</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Starshine&lt;/strong&gt;&lt;br&gt;Silver smith.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Starshine&lt;/strong&gt;&lt;br&gt;Silver smith.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3593,7 +3573,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3602,14 +3582,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bright Morning</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bright Morning&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bright Morning&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3617,7 +3597,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3626,12 +3606,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Prismatic Arena</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prismatic Arena&lt;/strong&gt;&lt;br&gt;","marker-group": "Arena","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prismatic Arena&lt;/strong&gt;&lt;br&gt;","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3639,7 +3619,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3648,12 +3628,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Victory Cup</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Victory Cup&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Victory Cup&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3661,7 +3641,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3670,14 +3650,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Fergal's Finest</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fergal's Finest&lt;/strong&gt;&lt;br&gt;The docks, offices and fishing piers of Fergal's Finest, one of the premier fisheries on the island.","marker-group": "Manufacturing","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fergal's Finest&lt;/strong&gt;&lt;br&gt;The docks, offices and fishing piers of Fergal's Finest, one of the premier fisheries on the island.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -3685,7 +3665,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3694,12 +3674,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Aodar Mercantile Center for Education</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Mercantile Center for Education&lt;/strong&gt;&lt;br&gt;","marker-group": "School","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Mercantile Center for Education&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3707,7 +3687,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3716,14 +3696,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Metta the Laundress</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Metta the Laundress&lt;/strong&gt;&lt;br&gt;Launderer","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Metta the Laundress&lt;/strong&gt;&lt;br&gt;Launderer","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3731,7 +3711,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3740,12 +3720,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Aodar Players</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Players&lt;/strong&gt;&lt;br&gt;","marker-group": "Playhouse","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Players&lt;/strong&gt;&lt;br&gt;","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3753,7 +3733,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3762,12 +3742,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Jester's</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jester's&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jester's&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -3775,7 +3755,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3783,13 +3763,15 @@
         <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Madam Oviovix – Speaker of Dreams</v>
       </c>
-      <c r="F97" s="2"/>
+      <c r="F97" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="G97" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Madam Oviovix – Speaker of Dreams&lt;/strong&gt;&lt;br&gt;Fortune teller","marker-group": "","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Madam Oviovix – Speaker of Dreams&lt;/strong&gt;&lt;br&gt;Fortune teller","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3797,7 +3779,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3806,7 +3788,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Grand Yard</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" t="str">
@@ -3819,7 +3801,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3827,15 +3809,15 @@
         <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Lanthwip's House Broker</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>10</v>
+      <c r="F99" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Lanthwip's House Broker&lt;/strong&gt;&lt;br&gt;Lanthwip specializes in facilitating the sale and purchase of homes.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Lanthwip's House Broker&lt;/strong&gt;&lt;br&gt;Lanthwip specializes in facilitating the sale and purchase of homes.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3843,7 +3825,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3851,15 +3833,15 @@
         <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bartur's Wood Carvings</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>10</v>
+      <c r="F100" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bartur's Wood Carvings&lt;/strong&gt;&lt;br&gt;Wood carvings.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bartur's Wood Carvings&lt;/strong&gt;&lt;br&gt;Wood carvings.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3867,7 +3849,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3875,15 +3857,15 @@
         <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Produce</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>10</v>
+      <c r="F101" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Produce&lt;/strong&gt;&lt;br&gt;Fresh fruits and vegetables.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Produce&lt;/strong&gt;&lt;br&gt;Fresh fruits and vegetables.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3891,7 +3873,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3899,11 +3881,13 @@
         <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Towers of Perault</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Towers of Perault&lt;/strong&gt;&lt;br&gt;","marker-group": "","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Towers of Perault&lt;/strong&gt;&lt;br&gt;","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3911,7 +3895,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3919,15 +3903,15 @@
         <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dreblin's Stables</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>10</v>
+      <c r="F103" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dreblin's Stables&lt;/strong&gt;&lt;br&gt;Stables","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dreblin's Stables&lt;/strong&gt;&lt;br&gt;Stables","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3935,7 +3919,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3943,15 +3927,15 @@
         <f t="shared" si="2"/>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Tack-n-Harness</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>10</v>
+      <c r="F104" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tack-n-Harness&lt;/strong&gt;&lt;br&gt;Saddles, bridles and all other horse related equipment.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tack-n-Harness&lt;/strong&gt;&lt;br&gt;Saddles, bridles and all other horse related equipment.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3959,7 +3943,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3968,12 +3952,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Coral Corner</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Corner&lt;/strong&gt;&lt;br&gt;","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Corner&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -3981,7 +3965,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3990,12 +3974,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Achuak Hoardland Embassy</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Achuak Hoardland Embassy&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Achuak Hoardland Embassy&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4003,7 +3987,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4012,12 +3996,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Aujir Hoardland</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aujir Hoardland&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aujir Hoardland&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4025,7 +4009,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4034,12 +4018,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Aurix Reslendancy</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aurix Reslendancy&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aurix Reslendancy&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4047,7 +4031,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4056,12 +4040,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Azure Sands</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Azure Sands&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Azure Sands&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4069,7 +4053,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4078,12 +4062,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Cerulean Crescent</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Cerulean Crescent&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Cerulean Crescent&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4091,7 +4075,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4100,12 +4084,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Dominion of Rach</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Dominion of Rach&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Dominion of Rach&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4113,7 +4097,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4122,12 +4106,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of the Duchy of Haaven</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Duchy of Haaven&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Duchy of Haaven&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4135,7 +4119,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4144,12 +4128,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Emerald Vale</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Emerald Vale&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Emerald Vale&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4157,7 +4141,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4166,12 +4150,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Frostfeld</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Frostfeld&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Frostfeld&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4179,7 +4163,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4188,12 +4172,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Obsidian Fenhold</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Obsidian Fenhold&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Obsidian Fenhold&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4201,7 +4185,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4210,12 +4194,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Ornea</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Ornea&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Ornea&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -4223,7 +4207,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4232,12 +4216,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of the Protectorate of the Black Wyrm</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Protectorate of the Black Wyrm&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Protectorate of the Black Wyrm&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4245,7 +4229,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4254,12 +4238,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Verthis</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Verthis&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Verthis&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4267,7 +4251,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4276,12 +4260,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Waterblade</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Waterblade&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Waterblade&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4289,7 +4273,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4298,12 +4282,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Charir</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Charir&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy House","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Charir&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4311,7 +4295,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4320,12 +4304,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Prison</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prison&lt;/strong&gt;&lt;br&gt;","marker-group": "Prison","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prison&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4333,7 +4317,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4342,14 +4326,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Slavery</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Slavery&lt;/strong&gt;&lt;br&gt;Specializes in the slave trade.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Slavery&lt;/strong&gt;&lt;br&gt;Specializes in the slave trade.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4357,7 +4341,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4366,14 +4350,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Yngrabbok's Pottery</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Yngrabbok's Pottery&lt;/strong&gt;&lt;br&gt;Kiln-fired clay goods.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Yngrabbok's Pottery&lt;/strong&gt;&lt;br&gt;Kiln-fired clay goods.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4381,7 +4365,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4390,12 +4374,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cozy of the Night</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cozy of the Night&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cozy of the Night&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4403,7 +4387,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4412,14 +4396,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Pyril's</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pyril's&lt;/strong&gt;&lt;br&gt;Woodworking","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pyril's&lt;/strong&gt;&lt;br&gt;Woodworking","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4427,7 +4411,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4436,12 +4420,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cover of Dusk</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cover of Dusk&lt;/strong&gt;&lt;br&gt;","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cover of Dusk&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4449,7 +4433,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4458,14 +4442,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sandwiches and Meat Pies</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sandwiches and Meat Pies&lt;/strong&gt;&lt;br&gt;The name says it all...","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sandwiches and Meat Pies&lt;/strong&gt;&lt;br&gt;The name says it all...","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4473,7 +4457,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4482,14 +4466,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Gallery of the Gifted</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gallery of the Gifted&lt;/strong&gt;&lt;br&gt;A collection of booths and display areas for the artists (and those who fancy themselves talented) to display their works for purchase.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gallery of the Gifted&lt;/strong&gt;&lt;br&gt;A collection of booths and display areas for the artists (and those who fancy themselves talented) to display their works for purchase.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4497,7 +4481,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4506,14 +4490,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sails and Canvas</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sails and Canvas&lt;/strong&gt;&lt;br&gt;Sales, canvas, and other ship-related goods.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sails and Canvas&lt;/strong&gt;&lt;br&gt;Sales, canvas, and other ship-related goods.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4521,7 +4505,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4530,14 +4514,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Crenneleth and Sons</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Crenneleth and Sons&lt;/strong&gt;&lt;br&gt;Shipbuilders","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Crenneleth and Sons&lt;/strong&gt;&lt;br&gt;Shipbuilders","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4545,7 +4529,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4554,14 +4538,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sawmill</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H166" si="5">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B131&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C131), 0, C131)&amp;","&amp;IF(ISBLANK(D131), 0, D131)&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sawmill&lt;/strong&gt;&lt;br&gt;Saw mill","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sawmill&lt;/strong&gt;&lt;br&gt;Saw mill","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4569,7 +4553,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4578,14 +4562,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Wagon maker</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Wagon maker&lt;/strong&gt;&lt;br&gt;Makes wagons, carts, cart wheels and the like.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Wagon maker&lt;/strong&gt;&lt;br&gt;Makes wagons, carts, cart wheels and the like.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -4593,7 +4577,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4602,14 +4586,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Ale Bringer</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Ale Bringer&lt;/strong&gt;&lt;br&gt;A cooper, the proprietor Vandy Precarious, believes that he does the world a great service by providing a means for ale to be brought from one place to another.  To celebrate his contribution he partakes heavily of ale.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Ale Bringer&lt;/strong&gt;&lt;br&gt;A cooper, the proprietor Vandy Precarious, believes that he does the world a great service by providing a means for ale to be brought from one place to another.  To celebrate his contribution he partakes heavily of ale.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4617,7 +4601,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4626,14 +4610,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Oaken Throne</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Oaken Throne&lt;/strong&gt;&lt;br&gt;Furniture maker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Oaken Throne&lt;/strong&gt;&lt;br&gt;Furniture maker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4641,7 +4625,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4650,14 +4634,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Gnulpund's Smithy</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gnulpund's Smithy&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gnulpund's Smithy&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4665,7 +4649,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4674,14 +4658,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Moser's Goldsmithing</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Moser's Goldsmithing&lt;/strong&gt;&lt;br&gt;Goldsmith","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Moser's Goldsmithing&lt;/strong&gt;&lt;br&gt;Goldsmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4689,7 +4673,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4698,14 +4682,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||A Strong Coil</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;A Strong Coil&lt;/strong&gt;&lt;br&gt;Ropemaker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;A Strong Coil&lt;/strong&gt;&lt;br&gt;Ropemaker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4713,7 +4697,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4722,14 +4706,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Iron Anvil</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Iron Anvil&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Iron Anvil&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4737,7 +4721,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4746,14 +4730,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sure Step</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sure Step&lt;/strong&gt;&lt;br&gt;Farrier","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sure Step&lt;/strong&gt;&lt;br&gt;Farrier","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4761,7 +4745,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4770,14 +4754,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bezyndar's Exotics</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bezyndar's Exotics&lt;/strong&gt;&lt;br&gt;Pet Shop","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bezyndar's Exotics&lt;/strong&gt;&lt;br&gt;Pet Shop","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4785,7 +4769,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4794,14 +4778,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Golden Path</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Golden Path&lt;/strong&gt;&lt;br&gt;Racetrack","marker-group": "Arena","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Golden Path&lt;/strong&gt;&lt;br&gt;Racetrack","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4809,7 +4793,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4818,14 +4802,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Timrick Mason</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Timrick Mason&lt;/strong&gt;&lt;br&gt;Home of Timrick, a mason.","marker-group": "Shop/Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Timrick Mason&lt;/strong&gt;&lt;br&gt;Home of Timrick, a mason.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4833,7 +4817,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4842,14 +4826,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bell Tower</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bell Tower&lt;/strong&gt;&lt;br&gt;A 12-story belltower.  The city road runs through the first two stories.","marker-group": "Tower","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bell Tower&lt;/strong&gt;&lt;br&gt;A 12-story belltower.  The city road runs through the first two stories.","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4857,7 +4841,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4866,14 +4850,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mishka's House</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mishka's House&lt;/strong&gt;&lt;br&gt;Home of Mishka, daughter of an academic specializing in the study of the Pacantryx.","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mishka's House&lt;/strong&gt;&lt;br&gt;Home of Mishka, daughter of an academic specializing in the study of the Pacantryx.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4881,7 +4865,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4890,14 +4874,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Ironguard</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Ironguard&lt;/strong&gt;&lt;br&gt;Locksmith","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Ironguard&lt;/strong&gt;&lt;br&gt;Locksmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4905,7 +4889,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4914,14 +4898,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Brinnek Stonewall</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brinnek Stonewall&lt;/strong&gt;&lt;br&gt;Mason","marker-group": "Shop/Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brinnek Stonewall&lt;/strong&gt;&lt;br&gt;Mason","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4929,7 +4913,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4938,14 +4922,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Vorrus' Bakery</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vorrus' Bakery&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vorrus' Bakery&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4953,7 +4937,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4962,14 +4946,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Amaphyra's Sculptures</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amaphyra's Sculptures&lt;/strong&gt;&lt;br&gt;Studio and shop selling sculptures.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amaphyra's Sculptures&lt;/strong&gt;&lt;br&gt;Studio and shop selling sculptures.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -4977,7 +4961,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4986,14 +4970,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Fired Earth</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fired Earth&lt;/strong&gt;&lt;br&gt;Potter","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fired Earth&lt;/strong&gt;&lt;br&gt;Potter","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5001,7 +4985,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5010,12 +4994,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mug o' Mud</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mug o' Mud&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mug o' Mud&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5023,7 +5007,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5032,14 +5016,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||True Lye</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;True Lye&lt;/strong&gt;&lt;br&gt;Soap maker","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;True Lye&lt;/strong&gt;&lt;br&gt;Soap maker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5047,7 +5031,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5056,14 +5040,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Jenlyn's House</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jenlyn's House&lt;/strong&gt;&lt;br&gt;Jenlyn is a Kobold bartender at the Medelain Hall.","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jenlyn's House&lt;/strong&gt;&lt;br&gt;Jenlyn is a Kobold bartender at the Medelain Hall.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5071,7 +5055,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5080,14 +5064,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Home of Wharven Kelsbedder</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Home of Wharven Kelsbedder&lt;/strong&gt;&lt;br&gt;A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence.","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Home of Wharven Kelsbedder&lt;/strong&gt;&lt;br&gt;A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5095,7 +5079,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5104,12 +5088,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Frisky Toad</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Frisky Toad&lt;/strong&gt;&lt;br&gt;","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Frisky Toad&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5117,7 +5101,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5126,14 +5110,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bale of Ale</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bale of Ale&lt;/strong&gt;&lt;br&gt;The shopkeeper, Kailen Tapper, has been known to sell minor poisons.","marker-group": "Inn","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bale of Ale&lt;/strong&gt;&lt;br&gt;The shopkeeper, Kailen Tapper, has been known to sell minor poisons.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5141,7 +5125,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5150,14 +5134,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dapper Dinlyn's</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dapper Dinlyn's&lt;/strong&gt;&lt;br&gt;Tailor","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dapper Dinlyn's&lt;/strong&gt;&lt;br&gt;Tailor","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5165,7 +5149,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5174,14 +5158,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Petrov Estate</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Petrov Estate&lt;/strong&gt;&lt;br&gt;This is the Estate of the powerful Wielder Alvyx Petrov.","marker-group": "Home","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Petrov Estate&lt;/strong&gt;&lt;br&gt;This is the Estate of the powerful caster Alvyx Petrov.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5189,7 +5173,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5198,12 +5182,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Amber Keg</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amber Keg&lt;/strong&gt;&lt;br&gt;","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amber Keg&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5211,7 +5195,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5220,14 +5204,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Lucky River</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Lucky River&lt;/strong&gt;&lt;br&gt;Seedy tavern which fronts high-stakes poker games","marker-group": "Tavern / Gambling Hall","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Lucky River&lt;/strong&gt;&lt;br&gt;Seedy tavern which fronts high-stakes poker games","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5235,7 +5219,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5244,12 +5228,12 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Empo’s Pet Emporium</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Empo’s Pet Emporium&lt;/strong&gt;&lt;br&gt;","marker-group": "Pet Store","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Empo’s Pet Emporium&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5257,7 +5241,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5266,14 +5250,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Vem the Verminator</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vem the Verminator&lt;/strong&gt;&lt;br&gt;Wildlife removal services &amp; pest control.","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vem the Verminator&lt;/strong&gt;&lt;br&gt;Wildlife removal services &amp; pest control.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5281,7 +5265,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5290,14 +5274,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Runeskin</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Runeskin&lt;/strong&gt;&lt;br&gt;Tattoo parlor","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Runeskin&lt;/strong&gt;&lt;br&gt;Tattoo parlor","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5305,7 +5289,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5314,14 +5298,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Evrum’s Bows</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Evrum’s Bows&lt;/strong&gt;&lt;br&gt;Bowmaker / Fletcher","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Evrum’s Bows&lt;/strong&gt;&lt;br&gt;Bowmaker / Fletcher","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5329,7 +5313,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5338,14 +5322,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Forever Friends</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Forever Friends&lt;/strong&gt;&lt;br&gt;Taxidermy shop run by Cabzel Porlune","marker-group": "Shop","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Forever Friends&lt;/strong&gt;&lt;br&gt;Taxidermy shop run by Cabzel Porlune","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5353,7 +5337,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5362,14 +5346,14 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Medelain Hall</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medelain Hall&lt;/strong&gt;&lt;br&gt;Popular hangout of the River of True Blood","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medelain Hall&lt;/strong&gt;&lt;br&gt;Popular hangout of the River of True Blood","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.25">
@@ -5377,7 +5361,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -5386,30 +5370,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Arcavictorious</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Arcavictorious&lt;/strong&gt;&lt;br&gt;This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a Tamgol) and the band of former adventurers he's attracted as regular patrons.","marker-group": "Tavern","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Arcavictorious&lt;/strong&gt;&lt;br&gt;This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a Tamgol) and the band of former adventurers he's attracted as regular patrons.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G47" r:id="rId1" xr:uid="{1CE96705-EF77-448A-9E46-BCFD317ED9E8}"/>
-    <hyperlink ref="G48" r:id="rId2" xr:uid="{E76D08C9-D352-4FEA-9935-DB7148F236E2}"/>
-    <hyperlink ref="G49" r:id="rId3" xr:uid="{9602D009-9CB7-4E39-893C-9122FFEF287B}"/>
-    <hyperlink ref="G50" r:id="rId4" xr:uid="{6DC73844-2EC9-4E0E-8201-B1549D9AD298}"/>
-    <hyperlink ref="G51" r:id="rId5" xr:uid="{DD047BA8-1983-48DB-AF76-96EC144C462F}"/>
-    <hyperlink ref="G53" r:id="rId6" xr:uid="{98164328-6AE3-482B-9141-4E331C4A4B35}"/>
-    <hyperlink ref="G54" r:id="rId7" xr:uid="{DD48FE7C-C23D-463E-B4F7-4EF79FA1CA4D}"/>
-    <hyperlink ref="G55" r:id="rId8" display="This Athear is dedicated to the concept that each of the nine zones of alignment (the matrix of Law, Neutrality, Chaos coupled with Good, Neutrality and Evil) plays an important role in the balance of Merisyl.  Devoted primarily to philosophical musings on this topic, they tend to accumulate the least wealth – and therefore wield the least power.  Their patron Goddess is Nuvria." xr:uid="{A3BD91A5-F91F-45BE-9132-DDA520916261}"/>
-    <hyperlink ref="G56" r:id="rId9" xr:uid="{9D7089CF-E34D-4A93-8583-5971B561B666}"/>
-    <hyperlink ref="G8" r:id="rId10" xr:uid="{7E28E348-28D5-4901-BF7C-DECD9FB3057B}"/>
+    <hyperlink ref="G56" r:id="rId1" xr:uid="{9D7089CF-E34D-4A93-8583-5971B561B666}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{7E28E348-28D5-4901-BF7C-DECD9FB3057B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
+++ b/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D373F13-47D8-45E8-A403-CAAFB733107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD1BB3F-B0E4-4430-83C9-2CA7538D523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{86C0CD85-1229-4AB4-A667-7C169E5D8340}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="306">
   <si>
     <t>Park</t>
   </si>
@@ -80,9 +81,6 @@
     <t>This is a temple dedicated not to any deity, but to the concept that the strength and ability of non-draconic races is significant and meaningful, and should be appreciated and celebrated.   Its members are known as the Order of Humanity.  </t>
   </si>
   <si>
-    <t>Draconic for “Violet Tower”, this 8 story tower is the home of the mage known as “The Father”.</t>
-  </si>
-  <si>
     <t>Sells weapons and armor.</t>
   </si>
   <si>
@@ -110,9 +108,6 @@
     <t>This inn caters primarily to Dwarven customers.</t>
   </si>
   <si>
-    <t>Weaving</t>
-  </si>
-  <si>
     <t>Silver smith.</t>
   </si>
   <si>
@@ -125,30 +120,18 @@
     <t>Lanthwip specializes in facilitating the sale and purchase of homes.</t>
   </si>
   <si>
-    <t>Wood carvings.</t>
-  </si>
-  <si>
     <t>Fresh fruits and vegetables.</t>
   </si>
   <si>
-    <t>Stables</t>
-  </si>
-  <si>
     <t>Saddles, bridles and all other horse related equipment.</t>
   </si>
   <si>
     <t>Prison</t>
   </si>
   <si>
-    <t>Specializes in the slave trade.</t>
-  </si>
-  <si>
     <t>Kiln-fired clay goods.</t>
   </si>
   <si>
-    <t>Woodworking</t>
-  </si>
-  <si>
     <t>The name says it all...</t>
   </si>
   <si>
@@ -161,9 +144,6 @@
     <t>Shipbuilders</t>
   </si>
   <si>
-    <t>Saw mill</t>
-  </si>
-  <si>
     <t>Makes wagons, carts, cart wheels and the like.</t>
   </si>
   <si>
@@ -185,9 +165,6 @@
     <t>Farrier</t>
   </si>
   <si>
-    <t>Pet Shop</t>
-  </si>
-  <si>
     <t>Racetrack</t>
   </si>
   <si>
@@ -491,9 +468,6 @@
     <t>Park of the Crest</t>
   </si>
   <si>
-    <t>Butcher</t>
-  </si>
-  <si>
     <t>Starshine</t>
   </si>
   <si>
@@ -518,9 +492,6 @@
     <t>Aodar Players</t>
   </si>
   <si>
-    <t>Jester's</t>
-  </si>
-  <si>
     <t>Madam Oviovix – Speaker of Dreams</t>
   </si>
   <si>
@@ -533,12 +504,6 @@
     <t>Bartur's Wood Carvings</t>
   </si>
   <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Towers of Perault</t>
-  </si>
-  <si>
     <t>Dreblin's Stables</t>
   </si>
   <si>
@@ -548,15 +513,6 @@
     <t>Coral Corner</t>
   </si>
   <si>
-    <t>Achuak Hoardland Embassy</t>
-  </si>
-  <si>
-    <t>Embassy of Aujir Hoardland</t>
-  </si>
-  <si>
-    <t>Embassy of Aurix Reslendancy</t>
-  </si>
-  <si>
     <t>Embassy of Azure Sands</t>
   </si>
   <si>
@@ -593,18 +549,12 @@
     <t>Embassy of Charir</t>
   </si>
   <si>
-    <t>Slavery</t>
-  </si>
-  <si>
     <t>Yngrabbok's Pottery</t>
   </si>
   <si>
     <t>Cozy of the Night</t>
   </si>
   <si>
-    <t>Pyril's</t>
-  </si>
-  <si>
     <t>Cover of Dusk</t>
   </si>
   <si>
@@ -620,12 +570,6 @@
     <t>Crenneleth and Sons</t>
   </si>
   <si>
-    <t>Sawmill</t>
-  </si>
-  <si>
-    <t>Wagon maker</t>
-  </si>
-  <si>
     <t>The Ale Bringer</t>
   </si>
   <si>
@@ -887,9 +831,6 @@
     <t>A quiet tavern which caters primarily to Magistrates.</t>
   </si>
   <si>
-    <t>A small but well-known open-air marketplace. To attract customers they make a weekly "parade" of their restocking from the Aodar docks, with musicians, entertainers, and candies for the children.</t>
-  </si>
-  <si>
     <t>This inn offers a spectacular sunrise view, and one of the most highly touted breakfasts in the city.</t>
   </si>
   <si>
@@ -897,13 +838,130 @@
   </si>
   <si>
     <t>The drinks and service here are mediocre, but the outdoor seating and Brother Camtor's riveting tales keep business high.</t>
+  </si>
+  <si>
+    <t>A tribute to the naval and trade history of Aodar, with historical artifacts from the early days of various trade houses and shipping companies.</t>
+  </si>
+  <si>
+    <t>An expensive establishment specializing in sensory experiences. Patrons might visit to indulge in luxurious baths infused with magical oils, partake in exquisite feasts that tantalize all five senses, or even undergo enchantments that heighten their perception of the world around them. It is a place where the boundaries between reality and fantasy blur, offering an escape from the mundane into a realm of heightened sensations.</t>
+  </si>
+  <si>
+    <t>Their sign proudly proclaims 'When ye have flagging spirits you need Flagon Spirits.'</t>
+  </si>
+  <si>
+    <t>Draconic for 'Violet Tower', this 8 story tower is the home of the mage known as 'The Father'.</t>
+  </si>
+  <si>
+    <t>A small but well-known open-air marketplace. To attract customers they make a weekly 'parade' of their restocking from the Aodar docks, with musicians, entertainers, and candies for the children.</t>
+  </si>
+  <si>
+    <t>A private library curated by a small group of wealthy retirees who call themselves the 'Liberators of Knowledge'. They strive to acquire rare or out print books, copy them, and make the copies available for loan.</t>
+  </si>
+  <si>
+    <t>Paedric's stands out with its colorful array of fabrics and intricate tapestries. The air is filled with the rhythmic clacking of looms, as his skilled children create masterpieces of cloth and thread, offering a glimpse into the rich tapestry of life in Aodar.</t>
+  </si>
+  <si>
+    <t>A unique combination of erotic dancing and fortune telling. By appointment only.</t>
+  </si>
+  <si>
+    <t>A delightful park behind the Tradesmen's Crest inn, a peaceful refuge for wealthy travelling merchants.</t>
+  </si>
+  <si>
+    <t>The Giving Blade</t>
+  </si>
+  <si>
+    <t>Tser Vroy's butcher shop, devoted to honoring the sacrafice made by the animal whose meat is taken.</t>
+  </si>
+  <si>
+    <t>A venue jointly owned by a number of trading houses, available for concerts, plays, combat tournaments and more.</t>
+  </si>
+  <si>
+    <t>A tavern primarily serving the patrons of the nearby Prismatic Arena.</t>
+  </si>
+  <si>
+    <t>A school funded by the trade consortiums of Aodar</t>
+  </si>
+  <si>
+    <t>A community theatre funded by a wealthy but mysterious donor.</t>
+  </si>
+  <si>
+    <t>Jester's Juice</t>
+  </si>
+  <si>
+    <t>Elegant jousting lists overlooking the ocean. The amazing view inspires frequent sunrise matches.</t>
+  </si>
+  <si>
+    <t>Elegant and life-like wood carvings by Ulare Bartur.</t>
+  </si>
+  <si>
+    <t>Plentiful Basket</t>
+  </si>
+  <si>
+    <t>Tower of Perault</t>
+  </si>
+  <si>
+    <t>The windows of this 100 foot tower glow with an eerie light most evenings. More myths than facts surround Fangor Perault and his mysterious tower.</t>
+  </si>
+  <si>
+    <t>A seedy, run-down stable badly in need of repairs.</t>
+  </si>
+  <si>
+    <t>An inn decorated in a nautical theme, renowned for its wide selection of beer.</t>
+  </si>
+  <si>
+    <t>A tavern and boarding house run by Jesira Terrum, aka 'Jester'.</t>
+  </si>
+  <si>
+    <t>Embassy of the Achuak Hoardland</t>
+  </si>
+  <si>
+    <t>Embassy of Aujir Homeland</t>
+  </si>
+  <si>
+    <t>Embassy of Aurix Resplendancy</t>
+  </si>
+  <si>
+    <t>Embassy</t>
+  </si>
+  <si>
+    <t>Hoyra's Helping Hands</t>
+  </si>
+  <si>
+    <t>Helps the underemployed find work while providing needed manual labor to the wealthy (while taking a healthy commission).</t>
+  </si>
+  <si>
+    <t>Pyril's Oaklore</t>
+  </si>
+  <si>
+    <t>Ornate decorative oaken wordwork.</t>
+  </si>
+  <si>
+    <t>A delightful tavern on the Plaza of the Setting Sun, renowned for its creative yet affordable alcoholic creations.</t>
+  </si>
+  <si>
+    <t>A simple inn, guaranteed for a clean bed and decent meal, with no frills.</t>
+  </si>
+  <si>
+    <t>Timberhold Millworks</t>
+  </si>
+  <si>
+    <t>Timberhold Millworks is a bustling sawmill on the east shore of Aodar, where skilled woodcutters and craftsmen produce fine lumber and enchanted wooden artifacts. The mill is renowned for its ability to imbue wood with magical properties, creating sought-after items for adventurers and wizards alike.</t>
+  </si>
+  <si>
+    <t>Long Haul Wagons</t>
+  </si>
+  <si>
+    <t>This former smithy was converted to a Tavern by Suros Umvyellyn, a retired merchant who always dreamed of owning his own tavern and is wealthy enough that he's not concerned with how much money he makes. It is a popular neighborhood gathering spot, featuring live music, the star of whom is Gahzrok Furstom, a talented percussionist who uses the old iron anvil on the grounds to produce amazing rhythyms.</t>
+  </si>
+  <si>
+    <t>A massive pet shop with merchandise that ranges from the commonplace to the exotic to the rare and magical. While commonfolk are welcome, and do a steady business, the opulence of the place is funded by the more esoteric requests, which Bezyndar's team of unparalled hunters will obtain.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +1025,18 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -995,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1012,19 +1082,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1364,16 +1436,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2D0F7-2CAE-4258-BA35-1571B80E68E7}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="H138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="110.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="251.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1381,38 +1453,38 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C2" s="7">
         <v>-3004</v>
@@ -1425,22 +1497,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3004&amp;lat=-2876&amp;zoom=8||Fountain of the Godsmongers</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B2&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C2), 0, C2)&amp;","&amp;IF(ISBLANK(D2), 0, D2)&amp;"]}},"</f>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fountain of the Godsmongers&lt;/strong&gt;&lt;br&gt;This fountain sits at the center of six shrines to the six disciples of Caltolav known as the Godsmongers.","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-3004,-2876]}},</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C3" s="7">
         <v>-5004</v>
@@ -1453,7 +1525,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5004&amp;lat=-6892&amp;zoom=8||Trade Plaza</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="2" t="str">
@@ -1461,12 +1533,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Trade Plaza&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-5004,-6892]}},</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C4" s="7">
         <v>-9754</v>
@@ -1479,22 +1551,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9754&amp;lat=-7458&amp;zoom=8||The Little Market</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Little Market&lt;/strong&gt;&lt;br&gt;A collection of small booths and display areas available for rent by the day, week or month for asporint tradespersons or crafters to display their wares.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-9754,-7458]}},</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7">
         <v>-684</v>
@@ -1507,22 +1579,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-684&amp;lat=-11224&amp;zoom=8||The Peddlers’ Palliate</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Peddlers’ Palliate&lt;/strong&gt;&lt;br&gt;Owned by Alain Mudslinger","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-684,-11224]}},</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6" s="7">
         <v>-5297</v>
@@ -1535,7 +1607,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5297&amp;lat=-15230&amp;zoom=8||Beacon of Lev Venix</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="str">
@@ -1543,12 +1615,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Beacon of Lev Venix&lt;/strong&gt;&lt;br&gt;","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-5297,-15230]}},</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7">
         <v>13184</v>
@@ -1569,12 +1641,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Park of the Golden Dawn&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [13184,-4464]}},</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C8" s="7">
         <v>-2990</v>
@@ -1587,7 +1659,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2990&amp;lat=-6502&amp;zoom=8||Athear of Justice</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>1</v>
@@ -1597,12 +1669,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Justice&lt;/strong&gt;&lt;br&gt;Dedicated to Szalavalar (Map location B.7)","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-2990,-6502]}},</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C9" s="7">
         <v>-2506</v>
@@ -1615,22 +1687,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2506&amp;lat=3038&amp;zoom=8||Abyssal Claw</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Abyssal Claw&lt;/strong&gt;&lt;br&gt;The location of the Abyssal Claw that was used by Mezrek during the Abyssal Rending to invade Merisyl.","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-2506,3038]}},</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C10" s="7">
         <v>-6408</v>
@@ -1651,12 +1723,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Park of the Scarlet Dusk&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-6408,10420]}},</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7">
         <v>-1588</v>
@@ -1669,7 +1741,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1588&amp;lat=-11400&amp;zoom=8||Debberoth Mercantile Foundation</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="str">
@@ -1677,12 +1749,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Debberoth Mercantile Foundation&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-1588,-11400]}},</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C12" s="7">
         <v>-3718</v>
@@ -1695,22 +1767,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3718&amp;lat=-3760&amp;zoom=8||Eilendere Trade Consortium Tradehouse</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Eilendere Trade Consortium Tradehouse&lt;/strong&gt;&lt;br&gt;This merchant house is primarily comprised of Elvish traders.","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-3718,-3760]}},</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C13" s="7">
         <v>3020</v>
@@ -1723,7 +1795,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3020&amp;lat=-10090&amp;zoom=8||Monument to Priestess Ziernia</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="str">
@@ -1731,12 +1803,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Monument to Priestess Ziernia&lt;/strong&gt;&lt;br&gt;","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [3020,-10090]}},</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C14" s="7">
         <v>-15184</v>
@@ -1749,7 +1821,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-15184&amp;lat=3472&amp;zoom=8||Plaza of the Setting Sun</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="str">
@@ -1757,12 +1829,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Plaza of the Setting Sun&lt;/strong&gt;&lt;br&gt;","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-15184,3472]}},</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C15" s="7">
         <v>12710</v>
@@ -1775,7 +1847,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12710&amp;lat=7332&amp;zoom=8||Galtiere’s Cheese Factory</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="str">
@@ -1783,12 +1855,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Galtiere’s Cheese Factory&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12710,7332]}},</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C16" s="7">
         <v>12860</v>
@@ -1801,7 +1873,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12860&amp;lat=7490&amp;zoom=8||The Cheese Hut</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>4</v>
@@ -1811,12 +1883,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Cheese Hut&lt;/strong&gt;&lt;br&gt;Specializing in cheeses of all sorts.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12860,7490]}},</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C17" s="7">
         <v>4963</v>
@@ -1829,22 +1901,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4963&amp;lat=11781&amp;zoom=8||Fallen Treasures</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fallen Treasures&lt;/strong&gt;&lt;br&gt;Pawn shop.  Owned and operated by Menk Tornwing","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [4963,11781]}},</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C18" s="7">
         <v>-593</v>
@@ -1857,7 +1929,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-593&amp;lat=-10688&amp;zoom=8||Draconic Goods Exchange</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="str">
@@ -1865,12 +1937,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Draconic Goods Exchange&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [-593,-10688]}},</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C19" s="7">
         <v>-10416</v>
@@ -1883,7 +1955,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10416&amp;lat=5061&amp;zoom=8||Wick It</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="str">
@@ -1891,12 +1963,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Wick It&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-10416,5061]}},</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C20" s="7">
         <v>10880</v>
@@ -1909,7 +1981,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10880&amp;lat=6020&amp;zoom=8||Press and Play</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2" t="str">
@@ -1917,12 +1989,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Press and Play&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [10880,6020]}},</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C21" s="7">
         <v>-9776</v>
@@ -1935,7 +2007,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9776&amp;lat=4616&amp;zoom=8||The Peak</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
@@ -1945,12 +2017,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Peak&lt;/strong&gt;&lt;br&gt;A tavern catering to Ixen","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-9776,4616]}},</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C22" s="7">
         <v>-3944</v>
@@ -1963,7 +2035,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=6444&amp;zoom=8||Bread Basket</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>6</v>
@@ -1973,12 +2045,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bread Basket&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-3944,6444]}},</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C23" s="7">
         <v>936</v>
@@ -1991,22 +2063,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=936&amp;lat=2656&amp;zoom=8||Residence</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Residence&lt;/strong&gt;&lt;br&gt;The home of Trinja Whiteice.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [936,2656]}},</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C24" s="7">
         <v>-8969</v>
@@ -2019,7 +2091,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-8969&amp;lat=-3260&amp;zoom=8||Kerowyn's Money Exchange</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>7</v>
@@ -2029,12 +2101,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Kerowyn's Money Exchange&lt;/strong&gt;&lt;br&gt;A moneychanger’s office and home.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-8969,-3260]}},</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C25" s="7">
         <v>5656</v>
@@ -2047,17 +2119,17 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5656&amp;lat=-2988&amp;zoom=8||Medalain Hall</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medalain Hall&lt;/strong&gt;&lt;br&gt;An inn commonly used as a gathering spot for political campaigning.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [5656,-2988]}},</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2075,7 +2147,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1130&amp;lat=-12796&amp;zoom=8||Docks</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="str">
@@ -2083,12 +2155,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Docks&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-1130,-12796]}},</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C27" s="7">
         <v>8824</v>
@@ -2101,22 +2173,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8824&amp;lat=-9888&amp;zoom=8||Residence</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Residence&lt;/strong&gt;&lt;br&gt;The home of Terkvajkiz","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [8824,-9888]}},</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C28" s="7">
         <v>-1340</v>
@@ -2137,12 +2209,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Alendy’s Glade&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-1340,9896]}},</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C29" s="7">
         <v>-3944</v>
@@ -2155,22 +2227,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=4572&amp;zoom=8||Endless Festival</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Endless Festival&lt;/strong&gt;&lt;br&gt;The nearby temple to Haryxmi has established these large buildings as venues for all sorts of entertainment, from music to plays to dancing and more. True to its name, it is never closed and never empty.","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [-3944,4572]}},</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C30" s="7">
         <v>-8520</v>
@@ -2191,12 +2263,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Celestial Park&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-8520,-6736]}},</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C31" s="7">
         <v>-2288</v>
@@ -2209,7 +2281,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2288&amp;lat=-11592&amp;zoom=8||City Council Complex</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>9</v>
@@ -2219,12 +2291,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;City Council Complex&lt;/strong&gt;&lt;br&gt;Collects taxes and tribute on behalf of the city council.","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-2288,-11592]}},</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C32" s="7">
         <v>-6644</v>
@@ -2237,7 +2309,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6644&amp;lat=1244&amp;zoom=8||Tanns’ Tattoos</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>10</v>
@@ -2247,12 +2319,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tanns’ Tattoos&lt;/strong&gt;&lt;br&gt;Offers tattooing","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-6644,1244]}},</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C33" s="7">
         <v>13062</v>
@@ -2265,22 +2337,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13062&amp;lat=2792&amp;zoom=8||Athear of the Hopeful Dawn</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Hopeful Dawn&lt;/strong&gt;&lt;br&gt;Dedicated to no specific God or Goddess, but instead the concept that Death waits for all living things, and thus is a powerful force deserving of worship.","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [13062,2792]}},</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C34" s="7">
         <v>-4785</v>
@@ -2293,7 +2365,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-4785&amp;lat=-10604&amp;zoom=8||Wind Rider</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>11</v>
@@ -2303,12 +2375,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Wind Rider&lt;/strong&gt;&lt;br&gt;Leatherworker specializing in saddles and riding gear.  Includes exotic items such as harnesses for riding dragons and rocs.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-4785,-10604]}},</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C35" s="7">
         <v>5910</v>
@@ -2321,7 +2393,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5910&amp;lat=-5364&amp;zoom=8||Lady Roush’s Apothecarium</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
@@ -2331,12 +2403,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Lady Roush’s Apothecarium&lt;/strong&gt;&lt;br&gt;Sells potions.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [5910,-5364]}},</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C36" s="7">
         <v>8092</v>
@@ -2349,7 +2421,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8092&amp;lat=-12340&amp;zoom=8||Flowers of the Island Trail</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2" t="str">
@@ -2357,12 +2429,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Flowers of the Island Trail&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [8092,-12340]}},</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C37" s="7">
         <v>4072</v>
@@ -2375,7 +2447,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4072&amp;lat=-11848&amp;zoom=8||Scales of Trade</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="2" t="str">
@@ -2383,12 +2455,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Scales of Trade&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [4072,-11848]}},</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C38" s="7">
         <v>8553</v>
@@ -2401,7 +2473,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8553&amp;lat=-11097&amp;zoom=8||Exotic Merchandise Combine</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="2" t="str">
@@ -2409,12 +2481,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Exotic Merchandise Combine&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [8553,-11097]}},</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C39" s="7">
         <v>16461</v>
@@ -2427,7 +2499,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16461&amp;lat=7990&amp;zoom=8||Fenland Trade Association</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="2" t="str">
@@ -2435,12 +2507,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fenland Trade Association&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [16461,7990]}},</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C40" s="7">
         <v>4752</v>
@@ -2453,7 +2525,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4752&amp;lat=4398&amp;zoom=8||Arcanea</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2" t="str">
@@ -2461,12 +2533,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Arcanea&lt;/strong&gt;&lt;br&gt;","marker-group": "Consortium","ID": "1" },"geometry": {"type": "Point","coordinates": [4752,4398]}},</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C41" s="7">
         <v>-14904</v>
@@ -2479,22 +2551,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14904&amp;lat=-6852&amp;zoom=8||Magisterium</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Magisterium&lt;/strong&gt;&lt;br&gt;The offices, training grounds and compound of the city magistrates.","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-14904,-6852]}},</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C42" s="7">
         <v>10458</v>
@@ -2507,7 +2579,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10458&amp;lat=2030&amp;zoom=8||Assassin's Guild</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="2" t="str">
@@ -2515,12 +2587,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Assassin's Guild&lt;/strong&gt;&lt;br&gt;","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [10458,2030]}},</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C43" s="7">
         <v>2447</v>
@@ -2533,7 +2605,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2447&amp;lat=1074&amp;zoom=8||Mercenary Guild</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="str">
@@ -2541,12 +2613,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mercenary Guild&lt;/strong&gt;&lt;br&gt;","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [2447,1074]}},</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C44" s="7">
         <v>7468</v>
@@ -2559,22 +2631,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7468&amp;lat=-8852&amp;zoom=8||Sage's Guild</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sage's Guild&lt;/strong&gt;&lt;br&gt;A loosely-organized guild of historians, researchers and others driven by a quest of knowledge.","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [7468,-8852]}},</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C45" s="7">
         <v>-396</v>
@@ -2587,7 +2659,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-396&amp;lat=-496&amp;zoom=8||Thieves' Guild</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2" t="str">
@@ -2595,12 +2667,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Thieves' Guild&lt;/strong&gt;&lt;br&gt;","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [-396,-496]}},</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C46" s="7">
         <v>11592</v>
@@ -2613,22 +2685,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=11592&amp;lat=-408&amp;zoom=8||Craftsman's Guild</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Craftsman's Guild&lt;/strong&gt;&lt;br&gt;An organization dedicated to ensuring that tradesmen are fairly treated by the merchant consortiums of the city.","marker-group": "Guild","ID": "1" },"geometry": {"type": "Point","coordinates": [11592,-408]}},</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C47" s="7">
         <v>14550</v>
@@ -2641,22 +2713,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=14550&amp;lat=4112&amp;zoom=8||Holy Fen of Vivlorean</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Holy Fen of Vivlorean&lt;/strong&gt;&lt;br&gt;A temple dedicated to  &lt;a href='https://new.merisyl.com/deities/vivlorean/' target='_info'&gt;Vivlorean&lt;/a&gt;, the Korthjach Goddess of life, death, rebirth and renewal. ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [14550,4112]}},</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C48" s="7">
         <v>-2896</v>
@@ -2669,22 +2741,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2896&amp;lat=5380&amp;zoom=8||Athear of the Brass</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Brass&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/haryxmi/' target='_info'&gt;Haryxmi&lt;/a&gt;","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-2896,5380]}},</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C49" s="7">
         <v>2764</v>
@@ -2697,22 +2769,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2764&amp;lat=5620&amp;zoom=8||Athear of the Forge</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Forge&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/ator/' target='_info'&gt;Ator&lt;/a&gt; ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [2764,5620]}},</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C50" s="7">
         <v>-17872</v>
@@ -2725,22 +2797,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17872&amp;lat=-14068&amp;zoom=8||Athear of the Deep</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Deep&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/khirr/' target='_info'&gt;Khirr&lt;/a&gt; ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-17872,-14068]}},</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C51" s="7">
         <v>16204</v>
@@ -2753,10 +2825,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16204&amp;lat=4848&amp;zoom=8||Athear of the Bounty</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2768,7 +2840,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C52" s="7">
         <v>-9214</v>
@@ -2781,22 +2853,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9214&amp;lat=9334&amp;zoom=8||Athear of Night</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Night&lt;/strong&gt;&lt;br&gt;Dedicated to the dark side of human nature rather than any specific Deity, this temple celebrates hedonistic pleasures, vices and forbidden desires.  Always in conflict with the Athear of Justice and frequently in conflict with the Athear of Trade, the financial power of the Athear of Night gives them significant sway in the city. ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-9214,9334]}},</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C53" s="7">
         <v>-7192</v>
@@ -2809,22 +2881,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-7192&amp;lat=-7618&amp;zoom=8||Athear of Trade</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Trade&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/caltolav/' target='_info'&gt;Caltolav&lt;/a&gt; ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-7192,-7618]}},</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C54" s="7">
         <v>5228</v>
@@ -2837,22 +2909,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5228&amp;lat=690&amp;zoom=8||Athear of the Duality</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Duality&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/endrell/' target='_info'&gt;Endrell&lt;/a&gt;","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [5228,690]}},</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C55" s="7">
         <v>2728</v>
@@ -2865,22 +2937,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2728&amp;lat=6400&amp;zoom=8||Athear of the Ninefold</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of the Ninefold&lt;/strong&gt;&lt;br&gt;This Athear is dedicated to the concept of balance, and the importance of avoiding extremes.  Devoted primarily to philosophical musings on this topic, they tend to accumulate the least wealth – and therefore wield the least power.  Their patron Goddess is &lt;a href='https://new.merisyl.com/deities/nuvria/' target='_info'&gt;Nuvria&lt;/a&gt;.","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [2728,6400]}},</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C56" s="8">
         <v>-16343</v>
@@ -2893,22 +2965,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-16343&amp;lat=-4445&amp;zoom=8||Athear of Hate</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="H56" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Athear of Hate&lt;/strong&gt;&lt;br&gt;A temple dedicated to &lt;a href='https://new.merisyl.com/deities/zelagiur/' target='_info'&gt;Zelagiur&lt;/a&gt;","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [-16343,-4445]}},</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C57" s="8">
         <v>13810</v>
@@ -2921,7 +2993,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13810&amp;lat=-1888&amp;zoom=8||Temple of Humanity</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>13</v>
@@ -2931,12 +3003,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Temple of Humanity&lt;/strong&gt;&lt;br&gt;This is a temple dedicated not to any deity, but to the concept that the strength and ability of non-draconic races is significant and meaningful, and should be appreciated and celebrated.   Its members are known as the Order of Humanity.  ","marker-group": "Religious","ID": "1" },"geometry": {"type": "Point","coordinates": [13810,-1888]}},</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C58" s="9">
         <v>-3820</v>
@@ -2952,19 +3024,19 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="H58" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Lake Verrisima&lt;/strong&gt;&lt;br&gt;This deligntful park is a common destination for those who seek a brief respite from the bustle of Aodar.","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-3820,12580]}},</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C59" s="9">
         <v>3430</v>
@@ -2977,22 +3049,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3430&amp;lat=-7124&amp;zoom=8||Tzantor's Broadsheets</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="H59" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tzantor's Broadsheets&lt;/strong&gt;&lt;br&gt;Fegrin Tzantor and a small staff produce a weekly newsheet with a modest but dedicated readership.","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [3430,-7124]}},</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C60" s="9">
         <v>-14032</v>
@@ -3005,22 +3077,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14032&amp;lat=-8180&amp;zoom=8||Council Exchange</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H60" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Council Exchange&lt;/strong&gt;&lt;br&gt;The Council Exchange is the building in which all legislative activity for the city takes place.","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-14032,-8180]}},</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C61" s="9">
         <v>-10784</v>
@@ -3033,22 +3105,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10784&amp;lat=-13024&amp;zoom=8||Tavrix Ulcha</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="H61" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tavrix Ulcha&lt;/strong&gt;&lt;br&gt;Draconic for “Violet Tower”, this 8 story tower is the home of the mage known as “The Father”.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [-10784,-13024]}},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tavrix Ulcha&lt;/strong&gt;&lt;br&gt;Draconic for 'Violet Tower', this 8 story tower is the home of the mage known as 'The Father'.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [-10784,-13024]}},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C62" s="9">
         <v>-12018</v>
@@ -3061,22 +3133,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12018&amp;lat=-7320&amp;zoom=8||Mistress Capachic's Home for Children</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="H62" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mistress Capachic's Home for Children&lt;/strong&gt;&lt;br&gt;Mistress Capachic runs an orphanage supported by wealthy donors. She is both a skilled caretaker and a skilled fundraiser.","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [-12018,-7320]}},</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C63" s="9">
         <v>4044</v>
@@ -3089,22 +3161,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4044&amp;lat=-6791&amp;zoom=8||Cold Truth</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="H63" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cold Truth&lt;/strong&gt;&lt;br&gt;A daily paper run by Saolo Deronda, a former member of a major merchant house. The paper is a forum for nurturing their many grudges.","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [4044,-6791]}},</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C64" s="9">
         <v>-16562</v>
@@ -3117,22 +3189,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-16562&amp;lat=-4718&amp;zoom=8||Perivale's Outfittery</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64" s="2" t="str">
         <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B64&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F64&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C64), 0, C64)&amp;","&amp;IF(ISBLANK(D64), 0, D64)&amp;"]}},"</f>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Perivale's Outfittery&lt;/strong&gt;&lt;br&gt;Sells weapons and armor.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-16562,-4718]}},</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C65" s="9">
         <v>-1937</v>
@@ -3145,22 +3217,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1937&amp;lat=-9379&amp;zoom=8||Meyville's Tannery</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H65" s="2" t="str">
         <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B65&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G65&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F65&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C65), 0, C65)&amp;","&amp;IF(ISBLANK(D65), 0, D65)&amp;"]}},"</f>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Meyville's Tannery&lt;/strong&gt;&lt;br&gt;Cures and tans leather for use by tailors, armorers, etc.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-1937,-9379]}},</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C66" s="9">
         <v>12020</v>
@@ -3173,22 +3245,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12020&amp;lat=-4110&amp;zoom=8||Thickstitched</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="H66" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Thickstitched&lt;/strong&gt;&lt;br&gt;Gon Thickstitch creates and sells finely crafted leather goods.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12020,-4110]}},</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C67" s="9">
         <v>18124</v>
@@ -3201,22 +3273,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=18124&amp;lat=8600&amp;zoom=8||Cresting Wave</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="H67" s="2" t="str">
         <f t="shared" ref="H67:H130" si="3">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B67&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C67), 0, C67)&amp;","&amp;IF(ISBLANK(D67), 0, D67)&amp;"]}},"</f>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cresting Wave&lt;/strong&gt;&lt;br&gt;An upscale tavern that caters to the patrons of the nearby tournament grounds.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [18124,8600]}},</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C68" s="9">
         <v>-13389</v>
@@ -3229,22 +3301,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13389&amp;lat=-7775&amp;zoom=8||The Empty Boot Camp</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="H68" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Empty Boot Camp&lt;/strong&gt;&lt;br&gt;A quiet tavern which caters primarily to Magistrates.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-13389,-7775]}},</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C69" s="9">
         <v>92</v>
@@ -3257,22 +3329,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=92&amp;lat=6099&amp;zoom=8||Children's Delight</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Children's Delight&lt;/strong&gt;&lt;br&gt;Toymaker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [92,6099]}},</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C70" s="9">
         <v>9239</v>
@@ -3285,22 +3357,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=9239&amp;lat=10433&amp;zoom=8||Pandela's Palace of Pets</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H70" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pandela's Palace of Pets&lt;/strong&gt;&lt;br&gt;Pet shop","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [9239,10433]}},</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C71" s="9">
         <v>8650</v>
@@ -3313,22 +3385,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8650&amp;lat=8413&amp;zoom=8||Plaza of the Grand Caravan</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="H71" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Plaza of the Grand Caravan&lt;/strong&gt;&lt;br&gt;A small but well-known open-air marketplace. To attract customers they make a weekly "parade" of their restocking from the Aodar docks, with musicians, entertainers, and candies for the children.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [8650,8413]}},</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Plaza of the Grand Caravan&lt;/strong&gt;&lt;br&gt;A small but well-known open-air marketplace. To attract customers they make a weekly 'parade' of their restocking from the Aodar docks, with musicians, entertainers, and candies for the children.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [8650,8413]}},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C72" s="9">
         <v>15124</v>
@@ -3341,22 +3413,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=15124&amp;lat=-2204&amp;zoom=8||Dawnbreak</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="H72" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dawnbreak&lt;/strong&gt;&lt;br&gt;This inn offers a spectacular sunrise view, and one of the most highly touted breakfasts in the city.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [15124,-2204]}},</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C73" s="9">
         <v>-11632</v>
@@ -3369,22 +3441,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-11632&amp;lat=-6572&amp;zoom=8||Coral Crest</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Crest&lt;/strong&gt;&lt;br&gt;This inn/tavern is one of the most expensive in the Free City, catering to the movers and shakers of the city.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-11632,-6572]}},</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C74" s="9">
         <v>7623</v>
@@ -3397,22 +3469,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7623&amp;lat=11047&amp;zoom=8||The Tippler's Top</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="H74" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Tippler's Top&lt;/strong&gt;&lt;br&gt;A cozy tavern offering hearty fare, fine drinks, and tales of adventure.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [7623,11047]}},</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C75" s="9">
         <v>-422</v>
@@ -3425,946 +3497,1140 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-422&amp;lat=13054&amp;zoom=8||Brother Camtor's</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="H75" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brother Camtor's&lt;/strong&gt;&lt;br&gt;The drinks and service here are mediocre, but the outdoor seating and Brother Camtor's riveting tales keep business high.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-422,13054]}},</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="C76" s="9">
+        <v>2806</v>
+      </c>
+      <c r="D76" s="9">
+        <v>-12004</v>
+      </c>
       <c r="E76" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Museum of the Winds of Trade</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2806&amp;lat=-12004&amp;zoom=8||Museum of the Winds of Trade</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G76" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="H76" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Museum of the Winds of Trade&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Museum of the Winds of Trade&lt;/strong&gt;&lt;br&gt;A tribute to the naval and trade history of Aodar, with historical artifacts from the early days of various trade houses and shipping companies.","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [2806,-12004]}},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="C77" s="9">
+        <v>7107</v>
+      </c>
+      <c r="D77" s="9">
+        <v>2959</v>
+      </c>
       <c r="E77" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sensate Emperium</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7107&amp;lat=2959&amp;zoom=8||Sensate Emperium</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G77" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="H77" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sensate Emperium&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sensate Emperium&lt;/strong&gt;&lt;br&gt;An expensive establishment specializing in sensory experiences. Patrons might visit to indulge in luxurious baths infused with magical oils, partake in exquisite feasts that tantalize all five senses, or even undergo enchantments that heighten their perception of the world around them. It is a place where the boundaries between reality and fantasy blur, offering an escape from the mundane into a realm of heightened sensations.","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [7107,2959]}},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="C78" s="9">
+        <v>4868</v>
+      </c>
+      <c r="D78" s="9">
+        <v>6790</v>
+      </c>
       <c r="E78" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Open Crate</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4868&amp;lat=6790&amp;zoom=8||Open Crate</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Open Crate&lt;/strong&gt;&lt;br&gt;Adventuring supplies.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Open Crate&lt;/strong&gt;&lt;br&gt;Adventuring supplies.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [4868,6790]}},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="C79" s="9">
+        <v>-12880</v>
+      </c>
+      <c r="D79" s="9">
+        <v>3066</v>
+      </c>
       <c r="E79" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Flagon Spirits</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12880&amp;lat=3066&amp;zoom=8||Flagon Spirits</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G79" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="H79" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Flagon Spirits&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Flagon Spirits&lt;/strong&gt;&lt;br&gt;Their sign proudly proclaims 'When ye have flagging spirits you need Flagon Spirits.'","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-12880,3066]}},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="C80" s="9">
+        <v>-10430</v>
+      </c>
+      <c r="D80" s="9">
+        <v>-1265</v>
+      </c>
       <c r="E80" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Unshekvir (“Noble Horse”)</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10430&amp;lat=-1265&amp;zoom=8||Unshekvir (“Noble Horse”)</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H80" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Unshekvir (“Noble Horse”)&lt;/strong&gt;&lt;br&gt;Unshekvir offers boarding for horses, and rental of horses.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Unshekvir (“Noble Horse”)&lt;/strong&gt;&lt;br&gt;Unshekvir offers boarding for horses, and rental of horses.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-10430,-1265]}},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1396</v>
+      </c>
+      <c r="D81" s="9">
+        <v>-5776</v>
+      </c>
       <c r="E81" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Scriptorium</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=1396&amp;lat=-5776&amp;zoom=8||Scriptorium</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H81" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Scriptorium&lt;/strong&gt;&lt;br&gt;Scribing services.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Scriptorium&lt;/strong&gt;&lt;br&gt;Scribing services.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [1396,-5776]}},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="C82" s="9">
+        <v>9004</v>
+      </c>
+      <c r="D82" s="9">
+        <v>9887</v>
+      </c>
       <c r="E82" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Black Unicorn</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=9004&amp;lat=9887&amp;zoom=8||The Black Unicorn</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H82" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Black Unicorn&lt;/strong&gt;&lt;br&gt;This inn caters primarily to Dwarven customers.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Black Unicorn&lt;/strong&gt;&lt;br&gt;This inn caters primarily to Dwarven customers.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [9004,9887]}},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="C83" s="9">
+        <v>8648</v>
+      </c>
+      <c r="D83" s="9">
+        <v>-1844</v>
+      </c>
       <c r="E83" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bastion of Knowledge</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8648&amp;lat=-1844&amp;zoom=8||Bastion of Knowledge</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G83" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="H83" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bastion of Knowledge&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bastion of Knowledge&lt;/strong&gt;&lt;br&gt;A private library curated by a small group of wealthy retirees who call themselves the 'Liberators of Knowledge'. They strive to acquire rare or out print books, copy them, and make the copies available for loan.","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [8648,-1844]}},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="C84" s="9">
+        <v>-2712</v>
+      </c>
+      <c r="D84" s="9">
+        <v>12702</v>
+      </c>
       <c r="E84" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Paedric's Weaving</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2712&amp;lat=12702&amp;zoom=8||Paedric's Weaving</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="H84" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Paedric's Weaving&lt;/strong&gt;&lt;br&gt;Weaving","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Paedric's Weaving&lt;/strong&gt;&lt;br&gt;Paedric's stands out with its colorful array of fabrics and intricate tapestries. The air is filled with the rhythmic clacking of looms, as his skilled children create masterpieces of cloth and thread, offering a glimpse into the rich tapestry of life in Aodar.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-2712,12702]}},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="C85" s="9">
+        <v>7996</v>
+      </c>
+      <c r="D85" s="11">
+        <v>-5666</v>
+      </c>
       <c r="E85" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Naked Truth</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7996&amp;lat=-5666&amp;zoom=8||The Naked Truth</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G85" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="H85" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Naked Truth&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Naked Truth&lt;/strong&gt;&lt;br&gt;A unique combination of erotic dancing and fortune telling. By appointment only.","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [7996,-5666]}},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="C86" s="9">
+        <v>-7146</v>
+      </c>
+      <c r="D86" s="9">
+        <v>-9228</v>
+      </c>
       <c r="E86" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Park of the Crest</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-7146&amp;lat=-9228&amp;zoom=8||Park of the Crest</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G86" s="3"/>
+      <c r="G86" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="H86" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Park of the Crest&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Park of the Crest&lt;/strong&gt;&lt;br&gt;A delightful park behind the Tradesmen's Crest inn, a peaceful refuge for wealthy travelling merchants.","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [-7146,-9228]}},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+        <v>276</v>
+      </c>
+      <c r="C87" s="9">
+        <v>-5774</v>
+      </c>
+      <c r="D87" s="9">
+        <v>7690</v>
+      </c>
       <c r="E87" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Butcher</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5774&amp;lat=7690&amp;zoom=8||The Giving Blade</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G87" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="H87" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Butcher&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Giving Blade&lt;/strong&gt;&lt;br&gt;Tser Vroy's butcher shop, devoted to honoring the sacrafice made by the animal whose meat is taken.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-5774,7690]}},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="C88" s="9">
+        <v>-3622</v>
+      </c>
+      <c r="D88" s="10">
+        <v>-1424</v>
+      </c>
       <c r="E88" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Starshine</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3622&amp;lat=-1424&amp;zoom=8||Starshine</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H88" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Starshine&lt;/strong&gt;&lt;br&gt;Silver smith.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Starshine&lt;/strong&gt;&lt;br&gt;Silver smith.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-3622,-1424]}},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="C89" s="9">
+        <v>-15024</v>
+      </c>
+      <c r="D89" s="9">
+        <v>-164</v>
+      </c>
       <c r="E89" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bright Morning</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-15024&amp;lat=-164&amp;zoom=8||Bright Morning</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H89" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bright Morning&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bright Morning&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-15024,-164]}},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="C90" s="9">
+        <v>-5726</v>
+      </c>
+      <c r="D90" s="9">
+        <v>-1498</v>
+      </c>
       <c r="E90" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Prismatic Arena</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5726&amp;lat=-1498&amp;zoom=8||Prismatic Arena</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G90" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="H90" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prismatic Arena&lt;/strong&gt;&lt;br&gt;","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prismatic Arena&lt;/strong&gt;&lt;br&gt;A venue jointly owned by a number of trading houses, available for concerts, plays, combat tournaments and more.","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [-5726,-1498]}},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="C91" s="9">
+        <v>-5084</v>
+      </c>
+      <c r="D91" s="9">
+        <v>-904</v>
+      </c>
       <c r="E91" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Victory Cup</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5084&amp;lat=-904&amp;zoom=8||The Victory Cup</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G91" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="H91" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Victory Cup&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Victory Cup&lt;/strong&gt;&lt;br&gt;A tavern primarily serving the patrons of the nearby Prismatic Arena.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-5084,-904]}},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+        <v>147</v>
+      </c>
+      <c r="C92" s="9">
+        <v>16402</v>
+      </c>
+      <c r="D92" s="9">
+        <v>1440</v>
+      </c>
       <c r="E92" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Fergal's Finest</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16402&amp;lat=1440&amp;zoom=8||Fergal's Finest</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H92" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fergal's Finest&lt;/strong&gt;&lt;br&gt;The docks, offices and fishing piers of Fergal's Finest, one of the premier fisheries on the island.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fergal's Finest&lt;/strong&gt;&lt;br&gt;The docks, offices and fishing piers of Fergal's Finest, one of the premier fisheries on the island.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [16402,1440]}},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="C93" s="9">
+        <v>-13360</v>
+      </c>
+      <c r="D93" s="9">
+        <v>1310</v>
+      </c>
       <c r="E93" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Aodar Mercantile Center for Education</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13360&amp;lat=1310&amp;zoom=8||Aodar Mercantile Center for Education</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G93" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="H93" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Mercantile Center for Education&lt;/strong&gt;&lt;br&gt;","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Mercantile Center for Education&lt;/strong&gt;&lt;br&gt;A school funded by the trade consortiums of Aodar","marker-group": "Other","ID": "1" },"geometry": {"type": "Point","coordinates": [-13360,1310]}},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="C94" s="9">
+        <v>10206</v>
+      </c>
+      <c r="D94" s="9">
+        <v>10804</v>
+      </c>
       <c r="E94" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Metta the Laundress</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10206&amp;lat=10804&amp;zoom=8||Metta the Laundress</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H94" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Metta the Laundress&lt;/strong&gt;&lt;br&gt;Launderer","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Metta the Laundress&lt;/strong&gt;&lt;br&gt;Launderer","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [10206,10804]}},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="C95" s="9">
+        <v>6839</v>
+      </c>
+      <c r="D95" s="9">
+        <v>5565</v>
+      </c>
       <c r="E95" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Aodar Players</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6839&amp;lat=5565&amp;zoom=8||Aodar Players</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G95" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="H95" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Players&lt;/strong&gt;&lt;br&gt;","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Aodar Players&lt;/strong&gt;&lt;br&gt;A community theatre funded by a wealthy but mysterious donor.","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [6839,5565]}},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+        <v>282</v>
+      </c>
+      <c r="C96" s="9">
+        <v>6582</v>
+      </c>
+      <c r="D96" s="9">
+        <v>4742</v>
+      </c>
       <c r="E96" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Jester's</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6582&amp;lat=4742&amp;zoom=8||Jester's Juice</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G96" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="H96" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jester's&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jester's Juice&lt;/strong&gt;&lt;br&gt;A tavern and boarding house run by Jesira Terrum, aka 'Jester'.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [6582,4742]}},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="C97" s="9">
+        <v>-10768</v>
+      </c>
+      <c r="D97" s="9">
+        <v>-9054</v>
+      </c>
       <c r="E97" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Madam Oviovix – Speaker of Dreams</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10768&amp;lat=-9054&amp;zoom=8||Madam Oviovix – Speaker of Dreams</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H97" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Madam Oviovix – Speaker of Dreams&lt;/strong&gt;&lt;br&gt;Fortune teller","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Madam Oviovix – Speaker of Dreams&lt;/strong&gt;&lt;br&gt;Fortune teller","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-10768,-9054]}},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="C98" s="9">
+        <v>17446</v>
+      </c>
+      <c r="D98" s="9">
+        <v>7596</v>
+      </c>
       <c r="E98" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Grand Yard</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=17446&amp;lat=7596&amp;zoom=8||Grand Yard</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="H98" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Grand Yard&lt;/strong&gt;&lt;br&gt;","marker-group": "Park","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Grand Yard&lt;/strong&gt;&lt;br&gt;Elegant jousting lists overlooking the ocean. The amazing view inspires frequent sunrise matches.","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [17446,7596]}},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="C99" s="9">
+        <v>-3594</v>
+      </c>
+      <c r="D99" s="9">
+        <v>8910</v>
+      </c>
       <c r="E99" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Lanthwip's House Broker</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3594&amp;lat=8910&amp;zoom=8||Lanthwip's House Broker</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H99" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Lanthwip's House Broker&lt;/strong&gt;&lt;br&gt;Lanthwip specializes in facilitating the sale and purchase of homes.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Lanthwip's House Broker&lt;/strong&gt;&lt;br&gt;Lanthwip specializes in facilitating the sale and purchase of homes.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-3594,8910]}},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="C100" s="9">
+        <v>4455</v>
+      </c>
+      <c r="D100" s="9">
+        <v>-3558</v>
+      </c>
       <c r="E100" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bartur's Wood Carvings</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4455&amp;lat=-3558&amp;zoom=8||Bartur's Wood Carvings</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="H100" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bartur's Wood Carvings&lt;/strong&gt;&lt;br&gt;Wood carvings.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bartur's Wood Carvings&lt;/strong&gt;&lt;br&gt;Elegant and life-like wood carvings by Ulare Bartur.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [4455,-3558]}},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+        <v>285</v>
+      </c>
+      <c r="C101" s="9">
+        <v>13331</v>
+      </c>
+      <c r="D101" s="9">
+        <v>1260</v>
+      </c>
       <c r="E101" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Produce</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13331&amp;lat=1260&amp;zoom=8||Plentiful Basket</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H101" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Produce&lt;/strong&gt;&lt;br&gt;Fresh fruits and vegetables.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Plentiful Basket&lt;/strong&gt;&lt;br&gt;Fresh fruits and vegetables.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [13331,1260]}},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
+        <v>286</v>
+      </c>
+      <c r="C102" s="9">
+        <v>-6006</v>
+      </c>
+      <c r="D102" s="9">
+        <v>13045</v>
+      </c>
       <c r="E102" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Towers of Perault</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6006&amp;lat=13045&amp;zoom=8||Tower of Perault</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G102" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="H102" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Towers of Perault&lt;/strong&gt;&lt;br&gt;","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tower of Perault&lt;/strong&gt;&lt;br&gt;The windows of this 100 foot tower glow with an eerie light most evenings. More myths than facts surround Fangor Perault and his mysterious tower.","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-6006,13045]}},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="C103" s="9">
+        <v>8566</v>
+      </c>
+      <c r="D103" s="9">
+        <v>-1179</v>
+      </c>
       <c r="E103" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dreblin's Stables</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8566&amp;lat=-1179&amp;zoom=8||Dreblin's Stables</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="H103" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dreblin's Stables&lt;/strong&gt;&lt;br&gt;Stables","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dreblin's Stables&lt;/strong&gt;&lt;br&gt;A seedy, run-down stable badly in need of repairs.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [8566,-1179]}},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="C104" s="9">
+        <v>-1293</v>
+      </c>
+      <c r="D104" s="9">
+        <v>-2084</v>
+      </c>
       <c r="E104" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Tack-n-Harness</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1293&amp;lat=-2084&amp;zoom=8||Tack-n-Harness</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H104" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tack-n-Harness&lt;/strong&gt;&lt;br&gt;Saddles, bridles and all other horse related equipment.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Tack-n-Harness&lt;/strong&gt;&lt;br&gt;Saddles, bridles and all other horse related equipment.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-1293,-2084]}},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="C105" s="9">
+        <v>13092</v>
+      </c>
+      <c r="D105" s="9">
+        <v>161</v>
+      </c>
       <c r="E105" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Coral Corner</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13092&amp;lat=161&amp;zoom=8||Coral Corner</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G105" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H105" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Corner&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Coral Corner&lt;/strong&gt;&lt;br&gt;An inn decorated in a nautical theme, renowned for its wide selection of beer.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [13092,161]}},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
+        <v>291</v>
+      </c>
+      <c r="C106" s="9">
+        <v>-13815</v>
+      </c>
+      <c r="D106" s="9">
+        <v>-5448</v>
+      </c>
       <c r="E106" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Achuak Hoardland Embassy</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13815&amp;lat=-5448&amp;zoom=8||Embassy of the Achuak Hoardland</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Achuak Hoardland Embassy&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Achuak Hoardland&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-13815,-5448]}},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
+        <v>292</v>
+      </c>
+      <c r="C107" s="9">
+        <v>-11002</v>
+      </c>
+      <c r="D107" s="9">
+        <v>-10146</v>
+      </c>
       <c r="E107" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Aujir Hoardland</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-11002&amp;lat=-10146&amp;zoom=8||Embassy of Aujir Homeland</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aujir Hoardland&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aujir Homeland&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-11002,-10146]}},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
+        <v>293</v>
+      </c>
+      <c r="C108" s="9">
+        <v>-12717</v>
+      </c>
+      <c r="D108" s="9">
+        <v>-8249</v>
+      </c>
       <c r="E108" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Aurix Reslendancy</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12717&amp;lat=-8249&amp;zoom=8||Embassy of Aurix Resplendancy</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aurix Reslendancy&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Aurix Resplendancy&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-12717,-8249]}},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+        <v>158</v>
+      </c>
+      <c r="C109" s="9">
+        <v>-17166</v>
+      </c>
+      <c r="D109" s="9">
+        <v>-6796</v>
+      </c>
       <c r="E109" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Azure Sands</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17166&amp;lat=-6796&amp;zoom=8||Embassy of Azure Sands</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Azure Sands&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Azure Sands&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-17166,-6796]}},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="C110" s="9">
+        <v>-17432</v>
+      </c>
+      <c r="D110" s="9">
+        <v>-5688</v>
+      </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Cerulean Crescent</v>
+        <f>"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C110&amp;"&amp;lat="&amp;D110&amp;"&amp;zoom=8"&amp;"||"&amp;B110</f>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17432&amp;lat=-5688&amp;zoom=8||Embassy of Cerulean Crescent</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Cerulean Crescent&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Cerulean Crescent&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-17432,-5688]}},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+        <v>160</v>
+      </c>
+      <c r="C111" s="9">
+        <v>-14236</v>
+      </c>
+      <c r="D111" s="9">
+        <v>-5768</v>
+      </c>
       <c r="E111" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Dominion of Rach</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14236&amp;lat=-5768&amp;zoom=8||Embassy of Dominion of Rach</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Dominion of Rach&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Dominion of Rach&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-14236,-5768]}},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+        <v>161</v>
+      </c>
+      <c r="C112" s="9">
+        <v>-12363</v>
+      </c>
+      <c r="D112" s="9">
+        <v>-5638</v>
+      </c>
       <c r="E112" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of the Duchy of Haaven</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12363&amp;lat=-5638&amp;zoom=8||Embassy of the Duchy of Haaven</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Duchy of Haaven&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Duchy of Haaven&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-12363,-5638]}},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="C113" s="9">
+        <v>-16888</v>
+      </c>
+      <c r="D113" s="9">
+        <v>-5200</v>
+      </c>
       <c r="E113" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Emerald Vale</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-16888&amp;lat=-5200&amp;zoom=8||Embassy of Emerald Vale</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Emerald Vale&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Emerald Vale&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-16888,-5200]}},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
+        <v>163</v>
+      </c>
+      <c r="C114" s="9">
+        <v>-13863</v>
+      </c>
+      <c r="D114" s="9">
+        <v>-5060</v>
+      </c>
       <c r="E114" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Frostfeld</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13863&amp;lat=-5060&amp;zoom=8||Embassy of Frostfeld</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Frostfeld&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Frostfeld&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-13863,-5060]}},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="C115" s="9">
+        <v>-17220</v>
+      </c>
+      <c r="D115" s="9">
+        <v>-6330</v>
+      </c>
       <c r="E115" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Obsidian Fenhold</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17220&amp;lat=-6330&amp;zoom=8||Embassy of Obsidian Fenhold</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Obsidian Fenhold&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Obsidian Fenhold&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-17220,-6330]}},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="C116" s="9">
+        <v>-18028</v>
+      </c>
+      <c r="D116" s="9">
+        <v>-5724</v>
+      </c>
       <c r="E116" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Ornea</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-18028&amp;lat=-5724&amp;zoom=8||Embassy of Ornea</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Ornea&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Ornea&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-18028,-5724]}},</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
@@ -4372,689 +4638,809 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="C117" s="9">
+        <v>-13316</v>
+      </c>
+      <c r="D117" s="9">
+        <v>-4728</v>
+      </c>
       <c r="E117" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of the Protectorate of the Black Wyrm</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13316&amp;lat=-4728&amp;zoom=8||Embassy of the Protectorate of the Black Wyrm</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Protectorate of the Black Wyrm&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of the Protectorate of the Black Wyrm&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-13316,-4728]}},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="C118" s="9">
+        <v>-12836</v>
+      </c>
+      <c r="D118" s="9">
+        <v>-5496</v>
+      </c>
       <c r="E118" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Verthis</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12836&amp;lat=-5496&amp;zoom=8||Embassy of Verthis</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Verthis&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Verthis&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-12836,-5496]}},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="C119" s="9">
+        <v>-11599</v>
+      </c>
+      <c r="D119" s="9">
+        <v>-9879</v>
+      </c>
       <c r="E119" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Waterblade</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-11599&amp;lat=-9879&amp;zoom=8||Embassy of Waterblade</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Waterblade&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Waterblade&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-11599,-9879]}},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
+        <v>169</v>
+      </c>
+      <c r="C120" s="9">
+        <v>-10016</v>
+      </c>
+      <c r="D120" s="9">
+        <v>-8862</v>
+      </c>
       <c r="E120" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Embassy of Charir</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10016&amp;lat=-8862&amp;zoom=8||Embassy of Charir</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Charir&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Embassy of Charir&lt;/strong&gt;&lt;br&gt;","marker-group": "Embassy","ID": "1" },"geometry": {"type": "Point","coordinates": [-10016,-8862]}},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="C121" s="9">
+        <v>-2295</v>
+      </c>
+      <c r="D121" s="9">
+        <v>-8045</v>
+      </c>
       <c r="E121" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Prison</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2295&amp;lat=-8045&amp;zoom=8||Prison</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prison&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Prison&lt;/strong&gt;&lt;br&gt;","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-2295,-8045]}},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
+        <v>295</v>
+      </c>
+      <c r="C122" s="9">
+        <v>9164</v>
+      </c>
+      <c r="D122" s="9">
+        <v>7020</v>
+      </c>
       <c r="E122" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Slavery</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=9164&amp;lat=7020&amp;zoom=8||Hoyra's Helping Hands</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="H122" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Slavery&lt;/strong&gt;&lt;br&gt;Specializes in the slave trade.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Hoyra's Helping Hands&lt;/strong&gt;&lt;br&gt;Helps the underemployed find work while providing needed manual labor to the wealthy (while taking a healthy commission).","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [9164,7020]}},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="C123" s="9">
+        <v>13941</v>
+      </c>
+      <c r="D123" s="9">
+        <v>11110</v>
+      </c>
       <c r="E123" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Yngrabbok's Pottery</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13941&amp;lat=11110&amp;zoom=8||Yngrabbok's Pottery</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H123" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Yngrabbok's Pottery&lt;/strong&gt;&lt;br&gt;Kiln-fired clay goods.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Yngrabbok's Pottery&lt;/strong&gt;&lt;br&gt;Kiln-fired clay goods.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [13941,11110]}},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="C124" s="9">
+        <v>2742</v>
+      </c>
+      <c r="D124" s="9">
+        <v>-4120</v>
+      </c>
       <c r="E124" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cozy of the Night</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2742&amp;lat=-4120&amp;zoom=8||Cozy of the Night</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G124" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="H124" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cozy of the Night&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cozy of the Night&lt;/strong&gt;&lt;br&gt;A simple inn, guaranteed for a clean bed and decent meal, with no frills.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [2742,-4120]}},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
+        <v>297</v>
+      </c>
+      <c r="C125" s="9">
+        <v>-1272</v>
+      </c>
+      <c r="D125" s="9">
+        <v>7466</v>
+      </c>
       <c r="E125" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Pyril's</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1272&amp;lat=7466&amp;zoom=8||Pyril's Oaklore</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="H125" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pyril's&lt;/strong&gt;&lt;br&gt;Woodworking","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Pyril's Oaklore&lt;/strong&gt;&lt;br&gt;Ornate decorative oaken wordwork.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-1272,7466]}},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
+        <v>172</v>
+      </c>
+      <c r="C126" s="9">
+        <v>-14801</v>
+      </c>
+      <c r="D126" s="9">
+        <v>3322</v>
+      </c>
       <c r="E126" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Cover of Dusk</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14801&amp;lat=3322&amp;zoom=8||Cover of Dusk</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G126" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="H126" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cover of Dusk&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Cover of Dusk&lt;/strong&gt;&lt;br&gt;A delightful tavern on the Plaza of the Setting Sun, renowned for its creative yet affordable alcoholic creations.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-14801,3322]}},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
+        <v>173</v>
+      </c>
+      <c r="C127" s="9">
+        <v>-2235</v>
+      </c>
+      <c r="D127" s="9">
+        <v>-460</v>
+      </c>
       <c r="E127" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sandwiches and Meat Pies</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2235&amp;lat=-460&amp;zoom=8||Sandwiches and Meat Pies</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H127" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sandwiches and Meat Pies&lt;/strong&gt;&lt;br&gt;The name says it all...","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sandwiches and Meat Pies&lt;/strong&gt;&lt;br&gt;The name says it all...","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-2235,-460]}},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
+        <v>174</v>
+      </c>
+      <c r="C128" s="9">
+        <v>-180</v>
+      </c>
+      <c r="D128" s="9">
+        <v>-5004</v>
+      </c>
       <c r="E128" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Gallery of the Gifted</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-180&amp;lat=-5004&amp;zoom=8||Gallery of the Gifted</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H128" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gallery of the Gifted&lt;/strong&gt;&lt;br&gt;A collection of booths and display areas for the artists (and those who fancy themselves talented) to display their works for purchase.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gallery of the Gifted&lt;/strong&gt;&lt;br&gt;A collection of booths and display areas for the artists (and those who fancy themselves talented) to display their works for purchase.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-180,-5004]}},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
+        <v>175</v>
+      </c>
+      <c r="C129" s="9">
+        <v>12880</v>
+      </c>
+      <c r="D129" s="9">
+        <v>-6462</v>
+      </c>
       <c r="E129" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sails and Canvas</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12880&amp;lat=-6462&amp;zoom=8||Sails and Canvas</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H129" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sails and Canvas&lt;/strong&gt;&lt;br&gt;Sales, canvas, and other ship-related goods.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sails and Canvas&lt;/strong&gt;&lt;br&gt;Sales, canvas, and other ship-related goods.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12880,-6462]}},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
+        <v>176</v>
+      </c>
+      <c r="C130" s="9">
+        <v>16492</v>
+      </c>
+      <c r="D130" s="9">
+        <v>3180</v>
+      </c>
       <c r="E130" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Crenneleth and Sons</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16492&amp;lat=3180&amp;zoom=8||Crenneleth and Sons</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H130" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Crenneleth and Sons&lt;/strong&gt;&lt;br&gt;Shipbuilders","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Crenneleth and Sons&lt;/strong&gt;&lt;br&gt;Shipbuilders","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [16492,3180]}},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
+        <v>301</v>
+      </c>
+      <c r="C131" s="9">
+        <v>12044</v>
+      </c>
+      <c r="D131" s="9">
+        <v>-6516</v>
+      </c>
       <c r="E131" s="4" t="str">
         <f t="shared" ref="E131:E166" si="4">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C131&amp;"&amp;lat="&amp;D131&amp;"&amp;zoom=8"&amp;"||"&amp;B131</f>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sawmill</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12044&amp;lat=-6516&amp;zoom=8||Timberhold Millworks</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="H131" s="2" t="str">
         <f t="shared" ref="H131:H166" si="5">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B131&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C131), 0, C131)&amp;","&amp;IF(ISBLANK(D131), 0, D131)&amp;"]}},"</f>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sawmill&lt;/strong&gt;&lt;br&gt;Saw mill","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Timberhold Millworks&lt;/strong&gt;&lt;br&gt;Timberhold Millworks is a bustling sawmill on the east shore of Aodar, where skilled woodcutters and craftsmen produce fine lumber and enchanted wooden artifacts. The mill is renowned for its ability to imbue wood with magical properties, creating sought-after items for adventurers and wizards alike.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12044,-6516]}},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
+        <v>303</v>
+      </c>
+      <c r="C132" s="9">
+        <v>10</v>
+      </c>
+      <c r="D132" s="9">
+        <v>-4156</v>
+      </c>
       <c r="E132" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Wagon maker</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10&amp;lat=-4156&amp;zoom=8||Long Haul Wagons</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H132" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Wagon maker&lt;/strong&gt;&lt;br&gt;Makes wagons, carts, cart wheels and the like.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Long Haul Wagons&lt;/strong&gt;&lt;br&gt;Makes wagons, carts, cart wheels and the like.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [10,-4156]}},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
+        <v>177</v>
+      </c>
+      <c r="C133" s="9">
+        <v>10270</v>
+      </c>
+      <c r="D133" s="9">
+        <v>-3130</v>
+      </c>
       <c r="E133" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Ale Bringer</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10270&amp;lat=-3130&amp;zoom=8||The Ale Bringer</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H133" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Ale Bringer&lt;/strong&gt;&lt;br&gt;A cooper, the proprietor Vandy Precarious, believes that he does the world a great service by providing a means for ale to be brought from one place to another.  To celebrate his contribution he partakes heavily of ale.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Ale Bringer&lt;/strong&gt;&lt;br&gt;A cooper, the proprietor Vandy Precarious, believes that he does the world a great service by providing a means for ale to be brought from one place to another.  To celebrate his contribution he partakes heavily of ale.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [10270,-3130]}},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="C134" s="9">
+        <v>12591</v>
+      </c>
+      <c r="D134" s="9">
+        <v>-1106</v>
+      </c>
       <c r="E134" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Oaken Throne</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12591&amp;lat=-1106&amp;zoom=8||Oaken Throne</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H134" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Oaken Throne&lt;/strong&gt;&lt;br&gt;Furniture maker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Oaken Throne&lt;/strong&gt;&lt;br&gt;Furniture maker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12591,-1106]}},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
+        <v>179</v>
+      </c>
+      <c r="C135" s="9">
+        <v>2926</v>
+      </c>
+      <c r="D135" s="9">
+        <v>7761</v>
+      </c>
       <c r="E135" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Gnulpund's Smithy</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2926&amp;lat=7761&amp;zoom=8||Gnulpund's Smithy</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H135" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gnulpund's Smithy&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Gnulpund's Smithy&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [2926,7761]}},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
+        <v>180</v>
+      </c>
+      <c r="C136" s="9">
+        <v>-6414</v>
+      </c>
+      <c r="D136" s="9">
+        <v>5960</v>
+      </c>
       <c r="E136" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Moser's Goldsmithing</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6414&amp;lat=5960&amp;zoom=8||Moser's Goldsmithing</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H136" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Moser's Goldsmithing&lt;/strong&gt;&lt;br&gt;Goldsmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Moser's Goldsmithing&lt;/strong&gt;&lt;br&gt;Goldsmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-6414,5960]}},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
+        <v>181</v>
+      </c>
+      <c r="C137" s="9">
+        <v>585</v>
+      </c>
+      <c r="D137" s="9">
+        <v>4030</v>
+      </c>
       <c r="E137" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||A Strong Coil</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=585&amp;lat=4030&amp;zoom=8||A Strong Coil</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H137" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;A Strong Coil&lt;/strong&gt;&lt;br&gt;Ropemaker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;A Strong Coil&lt;/strong&gt;&lt;br&gt;Ropemaker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [585,4030]}},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="C138" s="9">
+        <v>6925</v>
+      </c>
+      <c r="D138" s="9">
+        <v>10801</v>
+      </c>
       <c r="E138" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Iron Anvil</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6925&amp;lat=10801&amp;zoom=8||Iron Anvil</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="H138" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Iron Anvil&lt;/strong&gt;&lt;br&gt;Blacksmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Iron Anvil&lt;/strong&gt;&lt;br&gt;This former smithy was converted to a Tavern by Suros Umvyellyn, a retired merchant who always dreamed of owning his own tavern and is wealthy enough that he's not concerned with how much money he makes. It is a popular neighborhood gathering spot, featuring live music, the star of whom is Gahzrok Furstom, a talented percussionist who uses the old iron anvil on the grounds to produce amazing rhythyms.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [6925,10801]}},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
+        <v>183</v>
+      </c>
+      <c r="C139" s="9">
+        <v>9992</v>
+      </c>
+      <c r="D139" s="9">
+        <v>12298</v>
+      </c>
       <c r="E139" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Sure Step</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=9992&amp;lat=12298&amp;zoom=8||Sure Step</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H139" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sure Step&lt;/strong&gt;&lt;br&gt;Farrier","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Sure Step&lt;/strong&gt;&lt;br&gt;Farrier","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [9992,12298]}},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="C140" s="9">
+        <v>-12006</v>
+      </c>
+      <c r="D140" s="9">
+        <v>8932</v>
+      </c>
       <c r="E140" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bezyndar's Exotics</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12006&amp;lat=8932&amp;zoom=8||Bezyndar's Exotics</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="H140" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bezyndar's Exotics&lt;/strong&gt;&lt;br&gt;Pet Shop","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bezyndar's Exotics&lt;/strong&gt;&lt;br&gt;A massive pet shop with merchandise that ranges from the commonplace to the exotic to the rare and magical. While commonfolk are welcome, and do a steady business, the opulence of the place is funded by the more esoteric requests, which Bezyndar's team of unparalled hunters will obtain.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-12006,8932]}},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
+        <v>185</v>
+      </c>
+      <c r="C141" s="9">
+        <v>2386</v>
+      </c>
+      <c r="D141" s="9">
+        <v>-2852</v>
+      </c>
       <c r="E141" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Golden Path</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2386&amp;lat=-2852&amp;zoom=8||Golden Path</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H141" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Golden Path&lt;/strong&gt;&lt;br&gt;Racetrack","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Golden Path&lt;/strong&gt;&lt;br&gt;Racetrack","marker-group": "Entertainment","ID": "1" },"geometry": {"type": "Point","coordinates": [2386,-2852]}},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
+        <v>186</v>
+      </c>
+      <c r="C142" s="9">
+        <v>-6364</v>
+      </c>
+      <c r="D142" s="9">
+        <v>-4820</v>
+      </c>
       <c r="E142" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Timrick Mason</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6364&amp;lat=-4820&amp;zoom=8||Timrick Mason</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H142" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Timrick Mason&lt;/strong&gt;&lt;br&gt;Home of Timrick, a mason.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Timrick Mason&lt;/strong&gt;&lt;br&gt;Home of Timrick, a mason.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [-6364,-4820]}},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
+        <v>187</v>
+      </c>
+      <c r="C143" s="9">
+        <v>-6660</v>
+      </c>
+      <c r="D143" s="9">
+        <v>3642</v>
+      </c>
       <c r="E143" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bell Tower</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6660&amp;lat=3642&amp;zoom=8||Bell Tower</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H143" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bell Tower&lt;/strong&gt;&lt;br&gt;A 12-story belltower.  The city road runs through the first two stories.","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bell Tower&lt;/strong&gt;&lt;br&gt;A 12-story belltower.  The city road runs through the first two stories.","marker-group": "Landmark","ID": "1" },"geometry": {"type": "Point","coordinates": [-6660,3642]}},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="C144" s="9">
+        <v>-5088</v>
+      </c>
+      <c r="D144" s="9">
+        <v>-8936</v>
+      </c>
       <c r="E144" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mishka's House</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5088&amp;lat=-8936&amp;zoom=8||Mishka's House</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H144" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mishka's House&lt;/strong&gt;&lt;br&gt;Home of Mishka, daughter of an academic specializing in the study of the Pacantryx.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mishka's House&lt;/strong&gt;&lt;br&gt;Home of Mishka, daughter of an academic specializing in the study of the Pacantryx.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [-5088,-8936]}},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>143</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="C145" s="9">
+        <v>3860</v>
+      </c>
+      <c r="D145" s="9">
+        <v>-9166</v>
+      </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Ironguard</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3860&amp;lat=-9166&amp;zoom=8||Ironguard</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H145" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Ironguard&lt;/strong&gt;&lt;br&gt;Locksmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Ironguard&lt;/strong&gt;&lt;br&gt;Locksmith","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [3860,-9166]}},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -5063,22 +5449,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Brinnek Stonewall</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H146" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brinnek Stonewall&lt;/strong&gt;&lt;br&gt;Mason","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -5087,7 +5473,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Vorrus' Bakery</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>6</v>
@@ -5097,12 +5483,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vorrus' Bakery&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -5111,22 +5497,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Amaphyra's Sculptures</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H148" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amaphyra's Sculptures&lt;/strong&gt;&lt;br&gt;Studio and shop selling sculptures.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -5135,22 +5521,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Fired Earth</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H149" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fired Earth&lt;/strong&gt;&lt;br&gt;Potter","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -5159,7 +5545,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mug o' Mud</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="2" t="str">
@@ -5167,12 +5553,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mug o' Mud&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -5181,22 +5567,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||True Lye</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H151" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;True Lye&lt;/strong&gt;&lt;br&gt;Soap maker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -5205,22 +5591,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Jenlyn's House</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H152" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jenlyn's House&lt;/strong&gt;&lt;br&gt;Jenlyn is a Kobold bartender at the Medelain Hall.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -5229,22 +5615,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Home of Wharven Kelsbedder</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H153" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Home of Wharven Kelsbedder&lt;/strong&gt;&lt;br&gt;A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -5253,7 +5639,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Frisky Toad</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="2" t="str">
@@ -5261,12 +5647,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Frisky Toad&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -5275,22 +5661,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bale of Ale</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H155" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bale of Ale&lt;/strong&gt;&lt;br&gt;The shopkeeper, Kailen Tapper, has been known to sell minor poisons.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -5299,22 +5685,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dapper Dinlyn's</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H156" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dapper Dinlyn's&lt;/strong&gt;&lt;br&gt;Tailor","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -5323,22 +5709,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Petrov Estate</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="H157" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Petrov Estate&lt;/strong&gt;&lt;br&gt;This is the Estate of the powerful caster Alvyx Petrov.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -5347,7 +5733,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Amber Keg</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="2" t="str">
@@ -5355,12 +5741,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amber Keg&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -5369,22 +5755,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Lucky River</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H159" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Lucky River&lt;/strong&gt;&lt;br&gt;Seedy tavern which fronts high-stakes poker games","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -5393,7 +5779,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Empo’s Pet Emporium</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="2" t="str">
@@ -5401,12 +5787,12 @@
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Empo’s Pet Emporium&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -5415,22 +5801,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Vem the Verminator</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H161" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vem the Verminator&lt;/strong&gt;&lt;br&gt;Wildlife removal services &amp; pest control.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -5439,22 +5825,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Runeskin</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H162" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Runeskin&lt;/strong&gt;&lt;br&gt;Tattoo parlor","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -5463,22 +5849,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Evrum’s Bows</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H163" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Evrum’s Bows&lt;/strong&gt;&lt;br&gt;Bowmaker / Fletcher","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -5487,22 +5873,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Forever Friends</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H164" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Forever Friends&lt;/strong&gt;&lt;br&gt;Taxidermy shop run by Cabzel Porlune","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -5511,22 +5897,22 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Medelain Hall</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H165" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medelain Hall&lt;/strong&gt;&lt;br&gt;Popular hangout of the River of True Blood","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -5535,10 +5921,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Arcavictorious</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H166" s="2" t="str">
         <f t="shared" si="5"/>

--- a/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
+++ b/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD1BB3F-B0E4-4430-83C9-2CA7538D523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45261C2A-8DDE-46A9-AE0E-4B4933EC220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{86C0CD85-1229-4AB4-A667-7C169E5D8340}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="308">
   <si>
     <t>Park</t>
   </si>
@@ -195,36 +194,21 @@
     <t>Jenlyn is a Kobold bartender at the Medelain Hall.</t>
   </si>
   <si>
-    <t>A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence.</t>
-  </si>
-  <si>
     <t>The shopkeeper, Kailen Tapper, has been known to sell minor poisons.</t>
   </si>
   <si>
     <t>Tailor</t>
   </si>
   <si>
-    <t>Seedy tavern which fronts high-stakes poker games</t>
-  </si>
-  <si>
     <t>Wildlife removal services &amp; pest control.</t>
   </si>
   <si>
-    <t>Tattoo parlor</t>
-  </si>
-  <si>
     <t>Bowmaker / Fletcher</t>
   </si>
   <si>
     <t>Taxidermy shop run by Cabzel Porlune</t>
   </si>
   <si>
-    <t>Popular hangout of the River of True Blood</t>
-  </si>
-  <si>
-    <t>This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a Tamgol) and the band of former adventurers he's attracted as regular patrons.</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -309,9 +293,6 @@
     <t>Bread Basket</t>
   </si>
   <si>
-    <t>Medalain Hall</t>
-  </si>
-  <si>
     <t>Alendy’s Glade</t>
   </si>
   <si>
@@ -955,6 +936,30 @@
   </si>
   <si>
     <t>A massive pet shop with merchandise that ranges from the commonplace to the exotic to the rare and magical. While commonfolk are welcome, and do a steady business, the opulence of the place is funded by the more esoteric requests, which Bezyndar's team of unparalled hunters will obtain.</t>
+  </si>
+  <si>
+    <t>Earthtreasure</t>
+  </si>
+  <si>
+    <t>Purveyors of Exquisite Jewels. Discover a dazzling array of magical gemstones and expertly crafted jewelry, each piece imbued with love and care.</t>
+  </si>
+  <si>
+    <t>A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence. It is now dilapidated, after a number of subsequent residents suffered injuries or death. It is rumored to be cursed.</t>
+  </si>
+  <si>
+    <t>A lively tavern in the heart of Aodar known for its spirited atmosphere, hearty fare, and lively entertainment. Step inside and join the revelry!</t>
+  </si>
+  <si>
+    <t>Seedy tavern widely known for its high-stakes poker games. Despite the ramshackle appearance, both a lot of gold and a lot of power can be found inside on most nights.</t>
+  </si>
+  <si>
+    <t>A quaint pet shop run by the elderly Ms. Calliope Tresser. It is named for her massive greying wolfhound Emperor (or Empo, for short).  Given any opening, Calliope will regale her customers of why she never married.  'Never in my 60 years of adulthood did I find a man as brave and loyal as my Empo, so I just stuck with him the whole dang time.'  Needless to say, she loves her dog.</t>
+  </si>
+  <si>
+    <t>This tattoo parlor is a world of dark artistry, where the ink tells tales of secrets and whispers of power. The inscription above the door reads 'Dare to bear the mark of Runeskin'.</t>
+  </si>
+  <si>
+    <t>This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a &lt;a href='https://new.merisyl.com/character-creation/custom-ancestries/tamgol/' target='_info'&gt;Tamgol&lt;/a&gt;) and the band of former adventurers he's attracted as regular patrons.</t>
   </si>
 </sst>
 </file>
@@ -1436,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2D0F7-2CAE-4258-BA35-1571B80E68E7}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+    <sheetView tabSelected="1" topLeftCell="B136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1455,28 +1460,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C2" s="7">
         <v>-3004</v>
@@ -1497,10 +1502,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3004&amp;lat=-2876&amp;zoom=8||Fountain of the Godsmongers</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B2&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C2), 0, C2)&amp;","&amp;IF(ISBLANK(D2), 0, D2)&amp;"]}},"</f>
@@ -1512,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7">
         <v>-5004</v>
@@ -1525,7 +1530,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5004&amp;lat=-6892&amp;zoom=8||Trade Plaza</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="2" t="str">
@@ -1538,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7">
         <v>-9754</v>
@@ -1551,10 +1556,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9754&amp;lat=-7458&amp;zoom=8||The Little Market</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1566,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C5" s="7">
         <v>-684</v>
@@ -1579,10 +1584,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-684&amp;lat=-11224&amp;zoom=8||The Peddlers’ Palliate</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1594,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7">
         <v>-5297</v>
@@ -1607,7 +1612,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5297&amp;lat=-15230&amp;zoom=8||Beacon of Lev Venix</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="str">
@@ -1620,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7">
         <v>13184</v>
@@ -1646,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C8" s="7">
         <v>-2990</v>
@@ -1659,7 +1664,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2990&amp;lat=-6502&amp;zoom=8||Athear of Justice</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>1</v>
@@ -1674,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C9" s="7">
         <v>-2506</v>
@@ -1687,10 +1692,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2506&amp;lat=3038&amp;zoom=8||Abyssal Claw</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1702,7 +1707,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7">
         <v>-6408</v>
@@ -1728,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7">
         <v>-1588</v>
@@ -1741,7 +1746,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1588&amp;lat=-11400&amp;zoom=8||Debberoth Mercantile Foundation</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="str">
@@ -1754,7 +1759,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7">
         <v>-3718</v>
@@ -1767,10 +1772,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3718&amp;lat=-3760&amp;zoom=8||Eilendere Trade Consortium Tradehouse</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1782,7 +1787,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C13" s="7">
         <v>3020</v>
@@ -1795,7 +1800,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3020&amp;lat=-10090&amp;zoom=8||Monument to Priestess Ziernia</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="str">
@@ -1808,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C14" s="7">
         <v>-15184</v>
@@ -1821,7 +1826,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-15184&amp;lat=3472&amp;zoom=8||Plaza of the Setting Sun</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="str">
@@ -1834,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7">
         <v>12710</v>
@@ -1847,7 +1852,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12710&amp;lat=7332&amp;zoom=8||Galtiere’s Cheese Factory</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="str">
@@ -1860,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16" s="7">
         <v>12860</v>
@@ -1873,7 +1878,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12860&amp;lat=7490&amp;zoom=8||The Cheese Hut</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>4</v>
@@ -1888,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7">
         <v>4963</v>
@@ -1901,10 +1906,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4963&amp;lat=11781&amp;zoom=8||Fallen Treasures</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1916,7 +1921,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7">
         <v>-593</v>
@@ -1929,7 +1934,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-593&amp;lat=-10688&amp;zoom=8||Draconic Goods Exchange</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="str">
@@ -1942,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C19" s="7">
         <v>-10416</v>
@@ -1955,7 +1960,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10416&amp;lat=5061&amp;zoom=8||Wick It</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="str">
@@ -1968,7 +1973,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C20" s="7">
         <v>10880</v>
@@ -1981,7 +1986,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10880&amp;lat=6020&amp;zoom=8||Press and Play</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2" t="str">
@@ -1994,7 +1999,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C21" s="7">
         <v>-9776</v>
@@ -2007,7 +2012,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9776&amp;lat=4616&amp;zoom=8||The Peak</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
@@ -2022,7 +2027,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C22" s="7">
         <v>-3944</v>
@@ -2035,7 +2040,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=6444&amp;zoom=8||Bread Basket</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>6</v>
@@ -2050,7 +2055,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C23" s="7">
         <v>936</v>
@@ -2063,10 +2068,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=936&amp;lat=2656&amp;zoom=8||Residence</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2078,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C24" s="7">
         <v>-8969</v>
@@ -2091,7 +2096,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-8969&amp;lat=-3260&amp;zoom=8||Kerowyn's Money Exchange</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>7</v>
@@ -2106,7 +2111,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C25" s="7">
         <v>5656</v>
@@ -2116,17 +2121,17 @@
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5656&amp;lat=-2988&amp;zoom=8||Medalain Hall</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5656&amp;lat=-2988&amp;zoom=8||Medelain Hall</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medalain Hall&lt;/strong&gt;&lt;br&gt;An inn commonly used as a gathering spot for political campaigning.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [5656,-2988]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medelain Hall&lt;/strong&gt;&lt;br&gt;An inn commonly used as a gathering spot for political campaigning.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [5656,-2988]}},</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,7 +2152,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1130&amp;lat=-12796&amp;zoom=8||Docks</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="str">
@@ -2160,7 +2165,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C27" s="7">
         <v>8824</v>
@@ -2173,10 +2178,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8824&amp;lat=-9888&amp;zoom=8||Residence</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2188,7 +2193,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C28" s="7">
         <v>-1340</v>
@@ -2214,7 +2219,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C29" s="7">
         <v>-3944</v>
@@ -2227,10 +2232,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3944&amp;lat=4572&amp;zoom=8||Endless Festival</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2242,7 +2247,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C30" s="7">
         <v>-8520</v>
@@ -2268,7 +2273,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C31" s="7">
         <v>-2288</v>
@@ -2281,7 +2286,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2288&amp;lat=-11592&amp;zoom=8||City Council Complex</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>9</v>
@@ -2296,7 +2301,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C32" s="7">
         <v>-6644</v>
@@ -2309,7 +2314,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6644&amp;lat=1244&amp;zoom=8||Tanns’ Tattoos</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>10</v>
@@ -2324,7 +2329,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C33" s="7">
         <v>13062</v>
@@ -2337,10 +2342,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13062&amp;lat=2792&amp;zoom=8||Athear of the Hopeful Dawn</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2352,7 +2357,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C34" s="7">
         <v>-4785</v>
@@ -2365,7 +2370,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-4785&amp;lat=-10604&amp;zoom=8||Wind Rider</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>11</v>
@@ -2380,7 +2385,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C35" s="7">
         <v>5910</v>
@@ -2393,7 +2398,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5910&amp;lat=-5364&amp;zoom=8||Lady Roush’s Apothecarium</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
@@ -2408,7 +2413,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C36" s="7">
         <v>8092</v>
@@ -2421,7 +2426,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8092&amp;lat=-12340&amp;zoom=8||Flowers of the Island Trail</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="2" t="str">
@@ -2434,7 +2439,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C37" s="7">
         <v>4072</v>
@@ -2447,7 +2452,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4072&amp;lat=-11848&amp;zoom=8||Scales of Trade</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="2" t="str">
@@ -2460,7 +2465,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C38" s="7">
         <v>8553</v>
@@ -2473,7 +2478,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8553&amp;lat=-11097&amp;zoom=8||Exotic Merchandise Combine</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="2" t="str">
@@ -2486,7 +2491,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C39" s="7">
         <v>16461</v>
@@ -2499,7 +2504,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16461&amp;lat=7990&amp;zoom=8||Fenland Trade Association</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="2" t="str">
@@ -2512,7 +2517,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C40" s="7">
         <v>4752</v>
@@ -2525,7 +2530,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4752&amp;lat=4398&amp;zoom=8||Arcanea</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2" t="str">
@@ -2538,7 +2543,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C41" s="7">
         <v>-14904</v>
@@ -2551,10 +2556,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14904&amp;lat=-6852&amp;zoom=8||Magisterium</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2566,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C42" s="7">
         <v>10458</v>
@@ -2579,7 +2584,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10458&amp;lat=2030&amp;zoom=8||Assassin's Guild</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="2" t="str">
@@ -2592,7 +2597,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C43" s="7">
         <v>2447</v>
@@ -2605,7 +2610,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2447&amp;lat=1074&amp;zoom=8||Mercenary Guild</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="str">
@@ -2618,7 +2623,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C44" s="7">
         <v>7468</v>
@@ -2631,10 +2636,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7468&amp;lat=-8852&amp;zoom=8||Sage's Guild</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2646,7 +2651,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C45" s="7">
         <v>-396</v>
@@ -2659,7 +2664,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-396&amp;lat=-496&amp;zoom=8||Thieves' Guild</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2" t="str">
@@ -2672,7 +2677,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C46" s="7">
         <v>11592</v>
@@ -2685,10 +2690,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=11592&amp;lat=-408&amp;zoom=8||Craftsman's Guild</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2700,7 +2705,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C47" s="7">
         <v>14550</v>
@@ -2713,10 +2718,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=14550&amp;lat=4112&amp;zoom=8||Holy Fen of Vivlorean</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2728,7 +2733,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C48" s="7">
         <v>-2896</v>
@@ -2741,10 +2746,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2896&amp;lat=5380&amp;zoom=8||Athear of the Brass</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2756,7 +2761,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C49" s="7">
         <v>2764</v>
@@ -2769,10 +2774,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2764&amp;lat=5620&amp;zoom=8||Athear of the Forge</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2784,7 +2789,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C50" s="7">
         <v>-17872</v>
@@ -2797,10 +2802,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17872&amp;lat=-14068&amp;zoom=8||Athear of the Deep</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2812,7 +2817,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C51" s="7">
         <v>16204</v>
@@ -2825,10 +2830,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16204&amp;lat=4848&amp;zoom=8||Athear of the Bounty</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2840,7 +2845,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C52" s="7">
         <v>-9214</v>
@@ -2853,10 +2858,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9214&amp;lat=9334&amp;zoom=8||Athear of Night</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2868,7 +2873,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C53" s="7">
         <v>-7192</v>
@@ -2881,10 +2886,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-7192&amp;lat=-7618&amp;zoom=8||Athear of Trade</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2896,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C54" s="7">
         <v>5228</v>
@@ -2909,10 +2914,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=5228&amp;lat=690&amp;zoom=8||Athear of the Duality</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2924,7 +2929,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C55" s="7">
         <v>2728</v>
@@ -2937,10 +2942,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2728&amp;lat=6400&amp;zoom=8||Athear of the Ninefold</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2952,7 +2957,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C56" s="8">
         <v>-16343</v>
@@ -2965,10 +2970,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-16343&amp;lat=-4445&amp;zoom=8||Athear of Hate</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H56" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2980,7 +2985,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C57" s="8">
         <v>13810</v>
@@ -2993,7 +2998,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13810&amp;lat=-1888&amp;zoom=8||Temple of Humanity</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>13</v>
@@ -3008,7 +3013,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C58" s="9">
         <v>-3820</v>
@@ -3024,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H58" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3036,7 +3041,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C59" s="9">
         <v>3430</v>
@@ -3049,10 +3054,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3430&amp;lat=-7124&amp;zoom=8||Tzantor's Broadsheets</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H59" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3064,7 +3069,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C60" s="9">
         <v>-14032</v>
@@ -3077,10 +3082,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14032&amp;lat=-8180&amp;zoom=8||Council Exchange</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H60" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3092,7 +3097,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C61" s="9">
         <v>-10784</v>
@@ -3105,10 +3110,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10784&amp;lat=-13024&amp;zoom=8||Tavrix Ulcha</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H61" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3120,7 +3125,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C62" s="9">
         <v>-12018</v>
@@ -3133,10 +3138,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12018&amp;lat=-7320&amp;zoom=8||Mistress Capachic's Home for Children</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H62" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3148,7 +3153,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C63" s="9">
         <v>4044</v>
@@ -3161,10 +3166,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4044&amp;lat=-6791&amp;zoom=8||Cold Truth</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H63" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3176,7 +3181,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C64" s="9">
         <v>-16562</v>
@@ -3189,7 +3194,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-16562&amp;lat=-4718&amp;zoom=8||Perivale's Outfittery</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>14</v>
@@ -3204,7 +3209,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C65" s="9">
         <v>-1937</v>
@@ -3217,7 +3222,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1937&amp;lat=-9379&amp;zoom=8||Meyville's Tannery</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>15</v>
@@ -3232,7 +3237,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C66" s="9">
         <v>12020</v>
@@ -3245,10 +3250,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12020&amp;lat=-4110&amp;zoom=8||Thickstitched</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H66" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3260,7 +3265,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C67" s="9">
         <v>18124</v>
@@ -3273,10 +3278,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=18124&amp;lat=8600&amp;zoom=8||Cresting Wave</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H67" s="2" t="str">
         <f t="shared" ref="H67:H130" si="3">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B67&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F67&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C67), 0, C67)&amp;","&amp;IF(ISBLANK(D67), 0, D67)&amp;"]}},"</f>
@@ -3288,7 +3293,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C68" s="9">
         <v>-13389</v>
@@ -3301,10 +3306,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13389&amp;lat=-7775&amp;zoom=8||The Empty Boot Camp</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H68" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3316,7 +3321,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C69" s="9">
         <v>92</v>
@@ -3329,7 +3334,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=92&amp;lat=6099&amp;zoom=8||Children's Delight</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>16</v>
@@ -3344,7 +3349,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C70" s="9">
         <v>9239</v>
@@ -3357,7 +3362,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=9239&amp;lat=10433&amp;zoom=8||Pandela's Palace of Pets</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>17</v>
@@ -3372,7 +3377,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C71" s="9">
         <v>8650</v>
@@ -3385,10 +3390,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8650&amp;lat=8413&amp;zoom=8||Plaza of the Grand Caravan</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3400,7 +3405,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C72" s="9">
         <v>15124</v>
@@ -3413,10 +3418,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=15124&amp;lat=-2204&amp;zoom=8||Dawnbreak</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3428,7 +3433,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C73" s="9">
         <v>-11632</v>
@@ -3441,7 +3446,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-11632&amp;lat=-6572&amp;zoom=8||Coral Crest</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>18</v>
@@ -3456,7 +3461,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C74" s="9">
         <v>7623</v>
@@ -3469,10 +3474,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7623&amp;lat=11047&amp;zoom=8||The Tippler's Top</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3484,7 +3489,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C75" s="9">
         <v>-422</v>
@@ -3497,10 +3502,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-422&amp;lat=13054&amp;zoom=8||Brother Camtor's</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3512,7 +3517,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C76" s="9">
         <v>2806</v>
@@ -3525,10 +3530,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2806&amp;lat=-12004&amp;zoom=8||Museum of the Winds of Trade</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3540,7 +3545,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C77" s="9">
         <v>7107</v>
@@ -3553,10 +3558,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7107&amp;lat=2959&amp;zoom=8||Sensate Emperium</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3568,7 +3573,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C78" s="9">
         <v>4868</v>
@@ -3581,7 +3586,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4868&amp;lat=6790&amp;zoom=8||Open Crate</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>19</v>
@@ -3596,7 +3601,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C79" s="9">
         <v>-12880</v>
@@ -3609,10 +3614,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12880&amp;lat=3066&amp;zoom=8||Flagon Spirits</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3624,7 +3629,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C80" s="9">
         <v>-10430</v>
@@ -3637,7 +3642,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10430&amp;lat=-1265&amp;zoom=8||Unshekvir (“Noble Horse”)</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>20</v>
@@ -3652,7 +3657,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C81" s="9">
         <v>1396</v>
@@ -3665,7 +3670,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=1396&amp;lat=-5776&amp;zoom=8||Scriptorium</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>21</v>
@@ -3680,7 +3685,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C82" s="9">
         <v>9004</v>
@@ -3693,7 +3698,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=9004&amp;lat=9887&amp;zoom=8||The Black Unicorn</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>22</v>
@@ -3708,7 +3713,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C83" s="9">
         <v>8648</v>
@@ -3721,10 +3726,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8648&amp;lat=-1844&amp;zoom=8||Bastion of Knowledge</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3736,7 +3741,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C84" s="9">
         <v>-2712</v>
@@ -3749,10 +3754,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2712&amp;lat=12702&amp;zoom=8||Paedric's Weaving</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3764,7 +3769,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C85" s="9">
         <v>7996</v>
@@ -3777,10 +3782,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=7996&amp;lat=-5666&amp;zoom=8||The Naked Truth</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3792,7 +3797,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C86" s="9">
         <v>-7146</v>
@@ -3808,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H86" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3820,7 +3825,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C87" s="9">
         <v>-5774</v>
@@ -3833,10 +3838,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5774&amp;lat=7690&amp;zoom=8||The Giving Blade</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3848,7 +3853,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C88" s="9">
         <v>-3622</v>
@@ -3861,7 +3866,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3622&amp;lat=-1424&amp;zoom=8||Starshine</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>23</v>
@@ -3876,7 +3881,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C89" s="9">
         <v>-15024</v>
@@ -3889,7 +3894,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-15024&amp;lat=-164&amp;zoom=8||Bright Morning</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>6</v>
@@ -3904,7 +3909,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C90" s="9">
         <v>-5726</v>
@@ -3917,10 +3922,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5726&amp;lat=-1498&amp;zoom=8||Prismatic Arena</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3932,7 +3937,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C91" s="9">
         <v>-5084</v>
@@ -3945,10 +3950,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5084&amp;lat=-904&amp;zoom=8||The Victory Cup</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H91" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3960,7 +3965,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C92" s="9">
         <v>16402</v>
@@ -3973,10 +3978,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16402&amp;lat=1440&amp;zoom=8||Fergal's Finest</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H92" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3988,7 +3993,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C93" s="9">
         <v>-13360</v>
@@ -4001,10 +4006,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13360&amp;lat=1310&amp;zoom=8||Aodar Mercantile Center for Education</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H93" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4016,7 +4021,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C94" s="9">
         <v>10206</v>
@@ -4029,7 +4034,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10206&amp;lat=10804&amp;zoom=8||Metta the Laundress</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>24</v>
@@ -4044,7 +4049,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C95" s="9">
         <v>6839</v>
@@ -4057,10 +4062,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6839&amp;lat=5565&amp;zoom=8||Aodar Players</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4072,7 +4077,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C96" s="9">
         <v>6582</v>
@@ -4085,10 +4090,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6582&amp;lat=4742&amp;zoom=8||Jester's Juice</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H96" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4100,7 +4105,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C97" s="9">
         <v>-10768</v>
@@ -4113,7 +4118,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10768&amp;lat=-9054&amp;zoom=8||Madam Oviovix – Speaker of Dreams</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>25</v>
@@ -4128,7 +4133,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C98" s="9">
         <v>17446</v>
@@ -4141,10 +4146,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=17446&amp;lat=7596&amp;zoom=8||Grand Yard</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H98" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4156,7 +4161,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C99" s="9">
         <v>-3594</v>
@@ -4169,7 +4174,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3594&amp;lat=8910&amp;zoom=8||Lanthwip's House Broker</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>26</v>
@@ -4184,7 +4189,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C100" s="9">
         <v>4455</v>
@@ -4197,10 +4202,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=4455&amp;lat=-3558&amp;zoom=8||Bartur's Wood Carvings</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H100" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4212,7 +4217,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C101" s="9">
         <v>13331</v>
@@ -4225,7 +4230,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13331&amp;lat=1260&amp;zoom=8||Plentiful Basket</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>27</v>
@@ -4240,7 +4245,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C102" s="9">
         <v>-6006</v>
@@ -4253,10 +4258,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6006&amp;lat=13045&amp;zoom=8||Tower of Perault</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H102" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4268,7 +4273,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C103" s="9">
         <v>8566</v>
@@ -4281,10 +4286,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8566&amp;lat=-1179&amp;zoom=8||Dreblin's Stables</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H103" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4296,7 +4301,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C104" s="9">
         <v>-1293</v>
@@ -4309,7 +4314,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1293&amp;lat=-2084&amp;zoom=8||Tack-n-Harness</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>28</v>
@@ -4324,7 +4329,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C105" s="9">
         <v>13092</v>
@@ -4337,10 +4342,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13092&amp;lat=161&amp;zoom=8||Coral Corner</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H105" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4352,7 +4357,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C106" s="9">
         <v>-13815</v>
@@ -4365,7 +4370,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13815&amp;lat=-5448&amp;zoom=8||Embassy of the Achuak Hoardland</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="2" t="str">
@@ -4378,7 +4383,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C107" s="9">
         <v>-11002</v>
@@ -4391,7 +4396,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-11002&amp;lat=-10146&amp;zoom=8||Embassy of Aujir Homeland</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="2" t="str">
@@ -4404,7 +4409,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C108" s="9">
         <v>-12717</v>
@@ -4417,7 +4422,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12717&amp;lat=-8249&amp;zoom=8||Embassy of Aurix Resplendancy</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="2" t="str">
@@ -4430,7 +4435,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C109" s="9">
         <v>-17166</v>
@@ -4443,7 +4448,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17166&amp;lat=-6796&amp;zoom=8||Embassy of Azure Sands</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="2" t="str">
@@ -4456,7 +4461,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C110" s="9">
         <v>-17432</v>
@@ -4469,7 +4474,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17432&amp;lat=-5688&amp;zoom=8||Embassy of Cerulean Crescent</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="2" t="str">
@@ -4482,7 +4487,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C111" s="9">
         <v>-14236</v>
@@ -4495,7 +4500,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14236&amp;lat=-5768&amp;zoom=8||Embassy of Dominion of Rach</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="2" t="str">
@@ -4508,7 +4513,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C112" s="9">
         <v>-12363</v>
@@ -4521,7 +4526,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12363&amp;lat=-5638&amp;zoom=8||Embassy of the Duchy of Haaven</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="str">
@@ -4534,7 +4539,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C113" s="9">
         <v>-16888</v>
@@ -4547,7 +4552,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-16888&amp;lat=-5200&amp;zoom=8||Embassy of Emerald Vale</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="2" t="str">
@@ -4560,7 +4565,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C114" s="9">
         <v>-13863</v>
@@ -4573,7 +4578,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13863&amp;lat=-5060&amp;zoom=8||Embassy of Frostfeld</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="2" t="str">
@@ -4586,7 +4591,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C115" s="9">
         <v>-17220</v>
@@ -4599,7 +4604,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-17220&amp;lat=-6330&amp;zoom=8||Embassy of Obsidian Fenhold</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="2" t="str">
@@ -4612,7 +4617,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C116" s="9">
         <v>-18028</v>
@@ -4625,7 +4630,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-18028&amp;lat=-5724&amp;zoom=8||Embassy of Ornea</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="2" t="str">
@@ -4638,7 +4643,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C117" s="9">
         <v>-13316</v>
@@ -4651,7 +4656,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-13316&amp;lat=-4728&amp;zoom=8||Embassy of the Protectorate of the Black Wyrm</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="2" t="str">
@@ -4664,7 +4669,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C118" s="9">
         <v>-12836</v>
@@ -4677,7 +4682,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12836&amp;lat=-5496&amp;zoom=8||Embassy of Verthis</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="2" t="str">
@@ -4690,7 +4695,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C119" s="9">
         <v>-11599</v>
@@ -4703,7 +4708,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-11599&amp;lat=-9879&amp;zoom=8||Embassy of Waterblade</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="2" t="str">
@@ -4716,7 +4721,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C120" s="9">
         <v>-10016</v>
@@ -4729,7 +4734,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10016&amp;lat=-8862&amp;zoom=8||Embassy of Charir</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="2" t="str">
@@ -4755,7 +4760,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2295&amp;lat=-8045&amp;zoom=8||Prison</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="2" t="str">
@@ -4768,7 +4773,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C122" s="9">
         <v>9164</v>
@@ -4781,10 +4786,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=9164&amp;lat=7020&amp;zoom=8||Hoyra's Helping Hands</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H122" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4796,7 +4801,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C123" s="9">
         <v>13941</v>
@@ -4809,7 +4814,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=13941&amp;lat=11110&amp;zoom=8||Yngrabbok's Pottery</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>30</v>
@@ -4824,7 +4829,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C124" s="9">
         <v>2742</v>
@@ -4837,10 +4842,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2742&amp;lat=-4120&amp;zoom=8||Cozy of the Night</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H124" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4852,7 +4857,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C125" s="9">
         <v>-1272</v>
@@ -4865,10 +4870,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1272&amp;lat=7466&amp;zoom=8||Pyril's Oaklore</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H125" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4880,7 +4885,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C126" s="9">
         <v>-14801</v>
@@ -4893,10 +4898,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14801&amp;lat=3322&amp;zoom=8||Cover of Dusk</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H126" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4908,7 +4913,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C127" s="9">
         <v>-2235</v>
@@ -4921,7 +4926,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2235&amp;lat=-460&amp;zoom=8||Sandwiches and Meat Pies</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>31</v>
@@ -4936,7 +4941,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C128" s="9">
         <v>-180</v>
@@ -4949,7 +4954,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-180&amp;lat=-5004&amp;zoom=8||Gallery of the Gifted</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>32</v>
@@ -4964,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C129" s="9">
         <v>12880</v>
@@ -4977,7 +4982,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12880&amp;lat=-6462&amp;zoom=8||Sails and Canvas</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>33</v>
@@ -4992,7 +4997,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C130" s="9">
         <v>16492</v>
@@ -5005,7 +5010,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=16492&amp;lat=3180&amp;zoom=8||Crenneleth and Sons</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>34</v>
@@ -5020,7 +5025,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C131" s="9">
         <v>12044</v>
@@ -5033,10 +5038,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12044&amp;lat=-6516&amp;zoom=8||Timberhold Millworks</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H131" s="2" t="str">
         <f t="shared" ref="H131:H166" si="5">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B131&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C131), 0, C131)&amp;","&amp;IF(ISBLANK(D131), 0, D131)&amp;"]}},"</f>
@@ -5048,7 +5053,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C132" s="9">
         <v>10</v>
@@ -5061,7 +5066,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10&amp;lat=-4156&amp;zoom=8||Long Haul Wagons</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>35</v>
@@ -5076,7 +5081,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C133" s="9">
         <v>10270</v>
@@ -5089,7 +5094,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=10270&amp;lat=-3130&amp;zoom=8||The Ale Bringer</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>36</v>
@@ -5104,7 +5109,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C134" s="9">
         <v>12591</v>
@@ -5117,7 +5122,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12591&amp;lat=-1106&amp;zoom=8||Oaken Throne</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>37</v>
@@ -5132,7 +5137,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C135" s="9">
         <v>2926</v>
@@ -5145,7 +5150,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2926&amp;lat=7761&amp;zoom=8||Gnulpund's Smithy</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>38</v>
@@ -5160,7 +5165,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C136" s="9">
         <v>-6414</v>
@@ -5173,7 +5178,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6414&amp;lat=5960&amp;zoom=8||Moser's Goldsmithing</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>39</v>
@@ -5188,7 +5193,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C137" s="9">
         <v>585</v>
@@ -5201,7 +5206,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=585&amp;lat=4030&amp;zoom=8||A Strong Coil</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>40</v>
@@ -5216,7 +5221,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C138" s="9">
         <v>6925</v>
@@ -5229,10 +5234,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6925&amp;lat=10801&amp;zoom=8||Iron Anvil</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H138" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5244,7 +5249,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C139" s="9">
         <v>9992</v>
@@ -5257,7 +5262,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=9992&amp;lat=12298&amp;zoom=8||Sure Step</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>41</v>
@@ -5272,7 +5277,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C140" s="9">
         <v>-12006</v>
@@ -5285,10 +5290,10 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12006&amp;lat=8932&amp;zoom=8||Bezyndar's Exotics</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H140" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5300,7 +5305,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C141" s="9">
         <v>2386</v>
@@ -5313,7 +5318,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=2386&amp;lat=-2852&amp;zoom=8||Golden Path</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>42</v>
@@ -5328,7 +5333,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C142" s="9">
         <v>-6364</v>
@@ -5341,7 +5346,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6364&amp;lat=-4820&amp;zoom=8||Timrick Mason</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>43</v>
@@ -5356,7 +5361,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C143" s="9">
         <v>-6660</v>
@@ -5369,7 +5374,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-6660&amp;lat=3642&amp;zoom=8||Bell Tower</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>44</v>
@@ -5384,7 +5389,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C144" s="9">
         <v>-5088</v>
@@ -5397,7 +5402,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5088&amp;lat=-8936&amp;zoom=8||Mishka's House</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>45</v>
@@ -5412,7 +5417,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C145" s="9">
         <v>3860</v>
@@ -5425,7 +5430,7 @@
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=3860&amp;lat=-9166&amp;zoom=8||Ironguard</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>46</v>
@@ -5440,23 +5445,27 @@
         <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="C146" s="9">
+        <v>-5080</v>
+      </c>
+      <c r="D146" s="9">
+        <v>88</v>
+      </c>
       <c r="E146" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Brinnek Stonewall</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5080&amp;lat=88&amp;zoom=8||Brinnek Stonewall</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H146" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brinnek Stonewall&lt;/strong&gt;&lt;br&gt;Mason","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Brinnek Stonewall&lt;/strong&gt;&lt;br&gt;Mason","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [-5080,88]}},</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5464,23 +5473,27 @@
         <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
+        <v>185</v>
+      </c>
+      <c r="C147" s="9">
+        <v>-8841</v>
+      </c>
+      <c r="D147" s="9">
+        <v>-1441</v>
+      </c>
       <c r="E147" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Vorrus' Bakery</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-8841&amp;lat=-1441&amp;zoom=8||Vorrus' Bakery</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H147" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vorrus' Bakery&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vorrus' Bakery&lt;/strong&gt;&lt;br&gt;Bakery","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-8841,-1441]}},</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5488,23 +5501,27 @@
         <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
+        <v>186</v>
+      </c>
+      <c r="C148" s="9">
+        <v>-5496</v>
+      </c>
+      <c r="D148" s="9">
+        <v>5218</v>
+      </c>
       <c r="E148" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Amaphyra's Sculptures</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5496&amp;lat=5218&amp;zoom=8||Amaphyra's Sculptures</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H148" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amaphyra's Sculptures&lt;/strong&gt;&lt;br&gt;Studio and shop selling sculptures.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amaphyra's Sculptures&lt;/strong&gt;&lt;br&gt;Studio and shop selling sculptures.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-5496,5218]}},</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5512,23 +5529,27 @@
         <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
+        <v>187</v>
+      </c>
+      <c r="C149" s="9">
+        <v>-4510</v>
+      </c>
+      <c r="D149" s="9">
+        <v>-3027</v>
+      </c>
       <c r="E149" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Fired Earth</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-4510&amp;lat=-3027&amp;zoom=8||Fired Earth</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H149" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fired Earth&lt;/strong&gt;&lt;br&gt;Potter","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Fired Earth&lt;/strong&gt;&lt;br&gt;Potter","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-4510,-3027]}},</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,21 +5557,25 @@
         <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="C150" s="9">
+        <v>-5372</v>
+      </c>
+      <c r="D150" s="9">
+        <v>-5828</v>
+      </c>
       <c r="E150" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Mug o' Mud</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-5372&amp;lat=-5828&amp;zoom=8||Mug o' Mud</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mug o' Mud&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Mug o' Mud&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-5372,-5828]}},</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5558,23 +5583,27 @@
         <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="C151" s="9">
+        <v>-2482</v>
+      </c>
+      <c r="D151" s="9">
+        <v>-10374</v>
+      </c>
       <c r="E151" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||True Lye</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2482&amp;lat=-10374&amp;zoom=8||True Lye</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H151" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;True Lye&lt;/strong&gt;&lt;br&gt;Soap maker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;True Lye&lt;/strong&gt;&lt;br&gt;Soap maker","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-2482,-10374]}},</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5582,23 +5611,27 @@
         <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
+        <v>190</v>
+      </c>
+      <c r="C152" s="9">
+        <v>6920</v>
+      </c>
+      <c r="D152" s="9">
+        <v>-3520</v>
+      </c>
       <c r="E152" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Jenlyn's House</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6920&amp;lat=-3520&amp;zoom=8||Jenlyn's House</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H152" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jenlyn's House&lt;/strong&gt;&lt;br&gt;Jenlyn is a Kobold bartender at the Medelain Hall.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Jenlyn's House&lt;/strong&gt;&lt;br&gt;Jenlyn is a Kobold bartender at the Medelain Hall.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [6920,-3520]}},</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5606,23 +5639,27 @@
         <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="C153" s="9">
+        <v>8948</v>
+      </c>
+      <c r="D153" s="9">
+        <v>2217</v>
+      </c>
       <c r="E153" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Home of Wharven Kelsbedder</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=8948&amp;lat=2217&amp;zoom=8||Home of Wharven Kelsbedder</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="H153" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Home of Wharven Kelsbedder&lt;/strong&gt;&lt;br&gt;A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Home of Wharven Kelsbedder&lt;/strong&gt;&lt;br&gt;A single-story house with a large basement, this is where Wharven Kelsbedder has made his residence. It is now dilapidated, after a number of subsequent residents suffered injuries or death. It is rumored to be cursed.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [8948,2217]}},</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5630,21 +5667,27 @@
         <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
+        <v>192</v>
+      </c>
+      <c r="C154" s="9">
+        <v>6348</v>
+      </c>
+      <c r="D154" s="9">
+        <v>2254</v>
+      </c>
       <c r="E154" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Frisky Toad</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6348&amp;lat=2254&amp;zoom=8||The Frisky Toad</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G154" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="H154" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Frisky Toad&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Frisky Toad&lt;/strong&gt;&lt;br&gt;A lively tavern in the heart of Aodar known for its spirited atmosphere, hearty fare, and lively entertainment. Step inside and join the revelry!","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [6348,2254]}},</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5652,23 +5695,27 @@
         <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
+        <v>193</v>
+      </c>
+      <c r="C155" s="9">
+        <v>12694</v>
+      </c>
+      <c r="D155" s="9">
+        <v>9324</v>
+      </c>
       <c r="E155" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Bale of Ale</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12694&amp;lat=9324&amp;zoom=8||Bale of Ale</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H155" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bale of Ale&lt;/strong&gt;&lt;br&gt;The shopkeeper, Kailen Tapper, has been known to sell minor poisons.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Bale of Ale&lt;/strong&gt;&lt;br&gt;The shopkeeper, Kailen Tapper, has been known to sell minor poisons.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [12694,9324]}},</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5676,23 +5723,27 @@
         <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
+        <v>194</v>
+      </c>
+      <c r="C156" s="9">
+        <v>6308</v>
+      </c>
+      <c r="D156" s="9">
+        <v>-3606</v>
+      </c>
       <c r="E156" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Dapper Dinlyn's</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6308&amp;lat=-3606&amp;zoom=8||Dapper Dinlyn's</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H156" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dapper Dinlyn's&lt;/strong&gt;&lt;br&gt;Tailor","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Dapper Dinlyn's&lt;/strong&gt;&lt;br&gt;Tailor","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [6308,-3606]}},</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5700,23 +5751,27 @@
         <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
+        <v>195</v>
+      </c>
+      <c r="C157" s="9">
+        <v>-14040</v>
+      </c>
+      <c r="D157" s="9">
+        <v>-2708</v>
+      </c>
       <c r="E157" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Petrov Estate</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-14040&amp;lat=-2708&amp;zoom=8||Petrov Estate</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H157" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Petrov Estate&lt;/strong&gt;&lt;br&gt;This is the Estate of the powerful caster Alvyx Petrov.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Petrov Estate&lt;/strong&gt;&lt;br&gt;This is the Estate of the powerful caster Alvyx Petrov.","marker-group": "Residence","ID": "1" },"geometry": {"type": "Point","coordinates": [-14040,-2708]}},</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5724,21 +5779,25 @@
         <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
+        <v>196</v>
+      </c>
+      <c r="C158" s="9">
+        <v>894</v>
+      </c>
+      <c r="D158" s="9">
+        <v>12962</v>
+      </c>
       <c r="E158" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Amber Keg</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=894&amp;lat=12962&amp;zoom=8||Amber Keg</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amber Keg&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Amber Keg&lt;/strong&gt;&lt;br&gt;","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [894,12962]}},</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5746,45 +5805,55 @@
         <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="C159" s="9">
+        <v>-3268</v>
+      </c>
+      <c r="D159" s="9">
+        <v>8500</v>
+      </c>
       <c r="E159" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||The Lucky River</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3268&amp;lat=8500&amp;zoom=8||The Lucky River</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="H159" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Lucky River&lt;/strong&gt;&lt;br&gt;Seedy tavern which fronts high-stakes poker games","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;The Lucky River&lt;/strong&gt;&lt;br&gt;Seedy tavern widely known for its high-stakes poker games. Despite the ramshackle appearance, both a lot of gold and a lot of power can be found inside on most nights.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-3268,8500]}},</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
+        <v>198</v>
+      </c>
+      <c r="C160" s="9">
+        <v>6756</v>
+      </c>
+      <c r="D160" s="9">
+        <v>13148</v>
+      </c>
       <c r="E160" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Empo’s Pet Emporium</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=6756&amp;lat=13148&amp;zoom=8||Empo’s Pet Emporium</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G160" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="H160" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Empo’s Pet Emporium&lt;/strong&gt;&lt;br&gt;","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Empo’s Pet Emporium&lt;/strong&gt;&lt;br&gt;A quaint pet shop run by the elderly Ms. Calliope Tresser. It is named for her massive greying wolfhound Emperor (or Empo, for short).  Given any opening, Calliope will regale her customers of why she never married.  'Never in my 60 years of adulthood did I find a man as brave and loyal as my Empo, so I just stuck with him the whole dang time.'  Needless to say, she loves her dog.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [6756,13148]}},</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5792,23 +5861,27 @@
         <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="C161" s="9">
+        <v>-12100</v>
+      </c>
+      <c r="D161" s="9">
+        <v>-3614</v>
+      </c>
       <c r="E161" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Vem the Verminator</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-12100&amp;lat=-3614&amp;zoom=8||Vem the Verminator</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H161" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vem the Verminator&lt;/strong&gt;&lt;br&gt;Wildlife removal services &amp; pest control.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Vem the Verminator&lt;/strong&gt;&lt;br&gt;Wildlife removal services &amp; pest control.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-12100,-3614]}},</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5816,23 +5889,27 @@
         <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
+        <v>200</v>
+      </c>
+      <c r="C162" s="9">
+        <v>-10522</v>
+      </c>
+      <c r="D162" s="9">
+        <v>2702</v>
+      </c>
       <c r="E162" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Runeskin</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-10522&amp;lat=2702&amp;zoom=8||Runeskin</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>57</v>
+        <v>306</v>
       </c>
       <c r="H162" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Runeskin&lt;/strong&gt;&lt;br&gt;Tattoo parlor","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Runeskin&lt;/strong&gt;&lt;br&gt;This tattoo parlor is a world of dark artistry, where the ink tells tales of secrets and whispers of power. The inscription above the door reads 'Dare to bear the mark of Runeskin'.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-10522,2702]}},</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5840,23 +5917,27 @@
         <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="C163" s="9">
+        <v>-2468</v>
+      </c>
+      <c r="D163" s="9">
+        <v>-3526</v>
+      </c>
       <c r="E163" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Evrum’s Bows</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-2468&amp;lat=-3526&amp;zoom=8||Evrum’s Bows</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H163" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Evrum’s Bows&lt;/strong&gt;&lt;br&gt;Bowmaker / Fletcher","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Evrum’s Bows&lt;/strong&gt;&lt;br&gt;Bowmaker / Fletcher","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-2468,-3526]}},</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,23 +5945,27 @@
         <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
+        <v>202</v>
+      </c>
+      <c r="C164" s="9">
+        <v>-7484</v>
+      </c>
+      <c r="D164" s="9">
+        <v>-268</v>
+      </c>
       <c r="E164" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Forever Friends</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-7484&amp;lat=-268&amp;zoom=8||Forever Friends</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H164" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Forever Friends&lt;/strong&gt;&lt;br&gt;Taxidermy shop run by Cabzel Porlune","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Forever Friends&lt;/strong&gt;&lt;br&gt;Taxidermy shop run by Cabzel Porlune","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-7484,-268]}},</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5888,23 +5973,27 @@
         <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
+        <v>300</v>
+      </c>
+      <c r="C165" s="9">
+        <v>-9709</v>
+      </c>
+      <c r="D165" s="9">
+        <v>10313</v>
+      </c>
       <c r="E165" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Medelain Hall</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-9709&amp;lat=10313&amp;zoom=8||Earthtreasure</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>60</v>
+        <v>301</v>
       </c>
       <c r="H165" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Medelain Hall&lt;/strong&gt;&lt;br&gt;Popular hangout of the River of True Blood","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Earthtreasure&lt;/strong&gt;&lt;br&gt;Purveyors of Exquisite Jewels. Discover a dazzling array of magical gemstones and expertly crafted jewelry, each piece imbued with love and care.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [-9709,10313]}},</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5912,23 +6001,27 @@
         <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
+        <v>204</v>
+      </c>
+      <c r="C166" s="9">
+        <v>-3071</v>
+      </c>
+      <c r="D166" s="9">
+        <v>1447</v>
+      </c>
       <c r="E166" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=&amp;lat=&amp;zoom=8||Arcavictorious</v>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-3071&amp;lat=1447&amp;zoom=8||Arcavictorious</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="H166" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Arcavictorious&lt;/strong&gt;&lt;br&gt;This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a Tamgol) and the band of former adventurers he's attracted as regular patrons.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [0,0]}},</v>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Arcavictorious&lt;/strong&gt;&lt;br&gt;This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a &lt;a href='https://new.merisyl.com/character-creation/custom-ancestries/tamgol/' target='_info'&gt;Tamgol&lt;/a&gt;) and the band of former adventurers he's attracted as regular patrons.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-3071,1447]}},</v>
       </c>
     </row>
   </sheetData>

--- a/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
+++ b/Gimp Maptile Plugin/Locations/FreeCityLandmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Workspace\Merisyl\Gimp Maptile Plugin\Locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45261C2A-8DDE-46A9-AE0E-4B4933EC220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58052344-DACB-4445-804E-4FB66A09BD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{86C0CD85-1229-4AB4-A667-7C169E5D8340}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="310">
   <si>
     <t>Park</t>
   </si>
@@ -960,6 +960,12 @@
   </si>
   <si>
     <t>This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a &lt;a href='https://new.merisyl.com/character-creation/custom-ancestries/tamgol/' target='_info'&gt;Tamgol&lt;/a&gt;) and the band of former adventurers he's attracted as regular patrons.</t>
+  </si>
+  <si>
+    <t>Trinzenivate's Isle</t>
+  </si>
+  <si>
+    <t>A soaring tower rises above this small island, joined by three slightly shorter towers sunk deep into the ocean floor.  This is the home and government seat of Trinzenivate, the ancient Brass dragon who claims Aodar as his protectorate.</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2D0F7-2CAE-4258-BA35-1571B80E68E7}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5034,7 +5040,7 @@
         <v>-6516</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E166" si="4">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C131&amp;"&amp;lat="&amp;D131&amp;"&amp;zoom=8"&amp;"||"&amp;B131</f>
+        <f t="shared" ref="E131:E167" si="4">"https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng="&amp;C131&amp;"&amp;lat="&amp;D131&amp;"&amp;zoom=8"&amp;"||"&amp;B131</f>
         <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=12044&amp;lat=-6516&amp;zoom=8||Timberhold Millworks</v>
       </c>
       <c r="F131" s="3" t="s">
@@ -5044,7 +5050,7 @@
         <v>296</v>
       </c>
       <c r="H131" s="2" t="str">
-        <f t="shared" ref="H131:H166" si="5">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B131&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C131), 0, C131)&amp;","&amp;IF(ISBLANK(D131), 0, D131)&amp;"]}},"</f>
+        <f t="shared" ref="H131:H167" si="5">"{"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Feature"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"properties"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"marker-color"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"fill"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#7e7e7e"&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;"stroke"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"#555555"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-size"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"medium"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-symbol"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;CHAR(34)&amp;"," &amp; ""&amp;CHAR(34)&amp;"popup-text"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"&lt;strong&gt;"&amp;B131&amp;"&lt;/strong&gt;&lt;br&gt;"&amp;G131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"marker-group"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;""&amp;F131&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"ID"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" }," &amp; ""&amp;CHAR(34)&amp;"geometry"&amp;CHAR(34)&amp;": {"&amp;CHAR(34)&amp;"type"&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;"Point"&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"coordinates"&amp;CHAR(34)&amp;": ["&amp;IF(ISBLANK(C131), 0, C131)&amp;","&amp;IF(ISBLANK(D131), 0, D131)&amp;"]}},"</f>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Timberhold Millworks&lt;/strong&gt;&lt;br&gt;Timberhold Millworks is a bustling sawmill on the east shore of Aodar, where skilled woodcutters and craftsmen produce fine lumber and enchanted wooden artifacts. The mill is renowned for its ability to imbue wood with magical properties, creating sought-after items for adventurers and wizards alike.","marker-group": "Commercial","ID": "1" },"geometry": {"type": "Point","coordinates": [12044,-6516]}},</v>
       </c>
     </row>
@@ -6022,6 +6028,34 @@
       <c r="H166" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Arcavictorious&lt;/strong&gt;&lt;br&gt;This spot is popular with the locals, who enjoy the tall tales told by the proprietor, Arkavix (a &lt;a href='https://new.merisyl.com/character-creation/custom-ancestries/tamgol/' target='_info'&gt;Tamgol&lt;/a&gt;) and the band of former adventurers he's attracted as regular patrons.","marker-group": "Inns and Taverns","ID": "1" },"geometry": {"type": "Point","coordinates": [-3071,1447]}},</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C167" s="12">
+        <v>-1968</v>
+      </c>
+      <c r="D167" s="12">
+        <v>-18434</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>https://new.merisyl.com/gazette/chayle/aodar/aodar-free-city-map/?lng=-1968&amp;lat=-18434&amp;zoom=8||Trinzenivate's Isle</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H167" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"type": "Feature","properties": {"marker-color": "#7e7e7e","fill": "#7e7e7e", "stroke": "#555555","marker-size": "medium","marker-symbol": "","popup-text": "&lt;strong&gt;Trinzenivate's Isle&lt;/strong&gt;&lt;br&gt;A soaring tower rises above this small island, joined by three slightly shorter towers sunk deep into the ocean floor.  This is the home and government seat of Trinzenivate, the ancient Brass dragon who claims Aodar as his protectorate.","marker-group": "Government","ID": "1" },"geometry": {"type": "Point","coordinates": [-1968,-18434]}},</v>
       </c>
     </row>
   </sheetData>
